--- a/DRP/demand_data_2suppliers.xlsx
+++ b/DRP/demand_data_2suppliers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ghub_acceval\smarttradzt-python-services\DRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D838E9E-F527-4141-8E51-3124DD70F384}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE80BACC-4435-477F-B167-4C8D359B341B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2832,12 +2832,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="6" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2853,6 +2847,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -5221,6 +5221,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1028699</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>43004</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE9BF40-2472-44FA-AC7E-873BB71C06FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14714219" y="27043380"/>
+          <a:ext cx="10040445" cy="2202180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5490,7 +5534,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5754,7 +5798,7 @@
         <v>20</v>
       </c>
       <c r="H13" s="11">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I13" s="11">
         <v>70</v>
@@ -5927,440 +5971,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9570860C-3C86-4334-8A6D-B1198D355506}">
-  <dimension ref="A1:M19"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="234" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="227" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="235" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="229">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3">
-        <v>500</v>
-      </c>
-      <c r="F3" s="251" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="252" t="s">
-        <v>112</v>
-      </c>
-      <c r="H3" s="251" t="s">
-        <v>114</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="236" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="229">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3">
-        <v>280</v>
-      </c>
-      <c r="F4" s="251" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="252" t="s">
-        <v>112</v>
-      </c>
-      <c r="H4" s="251" t="s">
-        <v>114</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="235" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="229">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3">
-        <v>480</v>
-      </c>
-      <c r="F5" s="249" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="250" t="s">
-        <v>113</v>
-      </c>
-      <c r="H5" s="249" t="s">
-        <v>115</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="236" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="229">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3">
-        <v>250</v>
-      </c>
-      <c r="F6" s="249" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="250" t="s">
-        <v>113</v>
-      </c>
-      <c r="H6" s="249" t="s">
-        <v>115</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="236" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="230">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="251" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="252" t="s">
-        <v>112</v>
-      </c>
-      <c r="H7" s="251" t="s">
-        <v>114</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="236" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="230">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="249" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="250" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="249" t="s">
-        <v>115</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="236" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="232">
-        <v>20</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="237" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="232">
-        <v>20</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="238" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="233">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="218" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="223"/>
-      <c r="D13" s="11">
-        <v>10</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11">
-        <v>20</v>
-      </c>
-      <c r="G13" s="11">
-        <v>20</v>
-      </c>
-      <c r="H13" s="11">
-        <v>15</v>
-      </c>
-      <c r="I13" s="11">
-        <v>60</v>
-      </c>
-      <c r="J13" s="11">
-        <v>100</v>
-      </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="224"/>
-      <c r="D14" s="27">
-        <v>10</v>
-      </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="14"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="224"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27">
-        <v>60</v>
-      </c>
-      <c r="G15" s="27">
-        <v>50</v>
-      </c>
-      <c r="H15" s="27">
-        <v>10</v>
-      </c>
-      <c r="I15" s="27">
-        <v>40</v>
-      </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27">
-        <v>50</v>
-      </c>
-      <c r="L15" s="14"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="225"/>
-      <c r="D16" s="29">
-        <v>40</v>
-      </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="30"/>
-    </row>
-    <row r="17" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="220">
-        <v>20</v>
-      </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="34"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="154" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="221">
-        <v>210</v>
-      </c>
-      <c r="D18" s="21">
-        <v>211</v>
-      </c>
-      <c r="E18" s="21">
-        <v>213</v>
-      </c>
-      <c r="F18" s="21">
-        <v>215</v>
-      </c>
-      <c r="G18" s="21">
-        <v>215</v>
-      </c>
-      <c r="H18" s="21">
-        <v>216</v>
-      </c>
-      <c r="I18" s="21">
-        <v>214</v>
-      </c>
-      <c r="J18" s="21">
-        <v>212</v>
-      </c>
-      <c r="K18" s="21">
-        <v>210</v>
-      </c>
-      <c r="L18" s="22">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="219" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="222">
-        <v>411</v>
-      </c>
-      <c r="D19" s="23">
-        <v>414</v>
-      </c>
-      <c r="E19" s="23">
-        <v>412</v>
-      </c>
-      <c r="F19" s="23">
-        <v>413</v>
-      </c>
-      <c r="G19" s="23">
-        <v>418</v>
-      </c>
-      <c r="H19" s="23">
-        <v>428</v>
-      </c>
-      <c r="I19" s="23">
-        <v>426</v>
-      </c>
-      <c r="J19" s="23">
-        <v>419</v>
-      </c>
-      <c r="K19" s="23">
-        <v>415</v>
-      </c>
-      <c r="L19" s="24">
-        <v>421</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C51A3B-D959-48BB-8764-4DF003928E26}">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -6375,7 +5985,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6397,7 +6007,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F3" s="251" t="s">
         <v>25</v>
@@ -6422,7 +6032,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="3">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="F4" s="251" t="s">
         <v>25</v>
@@ -6447,7 +6057,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="3">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="F5" s="249" t="s">
         <v>25</v>
@@ -6494,7 +6104,7 @@
         <v>127</v>
       </c>
       <c r="C7" s="230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="251" t="s">
@@ -6540,7 +6150,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="232">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -6557,7 +6167,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="232">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -6574,7 +6184,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="233">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6616,6 +6226,440 @@
       <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="C13" s="223"/>
+      <c r="D13" s="11">
+        <v>10</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11">
+        <v>20</v>
+      </c>
+      <c r="G13" s="11">
+        <v>20</v>
+      </c>
+      <c r="H13" s="11">
+        <v>15</v>
+      </c>
+      <c r="I13" s="11">
+        <v>60</v>
+      </c>
+      <c r="J13" s="11">
+        <v>100</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="224"/>
+      <c r="D14" s="27">
+        <v>10</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="14"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="224"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27">
+        <v>60</v>
+      </c>
+      <c r="G15" s="27">
+        <v>50</v>
+      </c>
+      <c r="H15" s="27">
+        <v>10</v>
+      </c>
+      <c r="I15" s="27">
+        <v>40</v>
+      </c>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27">
+        <v>50</v>
+      </c>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="225"/>
+      <c r="D16" s="29">
+        <v>40</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="30"/>
+    </row>
+    <row r="17" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="220">
+        <v>20</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="34"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="154" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="221">
+        <v>210</v>
+      </c>
+      <c r="D18" s="21">
+        <v>211</v>
+      </c>
+      <c r="E18" s="21">
+        <v>213</v>
+      </c>
+      <c r="F18" s="21">
+        <v>215</v>
+      </c>
+      <c r="G18" s="21">
+        <v>215</v>
+      </c>
+      <c r="H18" s="21">
+        <v>216</v>
+      </c>
+      <c r="I18" s="21">
+        <v>214</v>
+      </c>
+      <c r="J18" s="21">
+        <v>212</v>
+      </c>
+      <c r="K18" s="21">
+        <v>210</v>
+      </c>
+      <c r="L18" s="22">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="219" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="222">
+        <v>411</v>
+      </c>
+      <c r="D19" s="23">
+        <v>414</v>
+      </c>
+      <c r="E19" s="23">
+        <v>412</v>
+      </c>
+      <c r="F19" s="23">
+        <v>413</v>
+      </c>
+      <c r="G19" s="23">
+        <v>418</v>
+      </c>
+      <c r="H19" s="23">
+        <v>428</v>
+      </c>
+      <c r="I19" s="23">
+        <v>426</v>
+      </c>
+      <c r="J19" s="23">
+        <v>419</v>
+      </c>
+      <c r="K19" s="23">
+        <v>415</v>
+      </c>
+      <c r="L19" s="24">
+        <v>421</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C51A3B-D959-48BB-8764-4DF003928E26}">
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="234" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="227" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="235" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="229">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3">
+        <v>200</v>
+      </c>
+      <c r="F3" s="251" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="252" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="251" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="236" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="229">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3">
+        <v>120</v>
+      </c>
+      <c r="F4" s="251" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="252" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="251" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="235" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="229">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3">
+        <v>400</v>
+      </c>
+      <c r="F5" s="249" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="250" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="249" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="236" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="229">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3">
+        <v>250</v>
+      </c>
+      <c r="F6" s="249" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="250" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="249" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="236" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="230">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="251" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="252" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="251" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="236" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="230">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="249" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="250" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="249" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="236" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="232">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="237" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="232">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="238" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="233">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="218" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="C13" s="67"/>
       <c r="D13" s="210">
         <v>20</v>
@@ -6631,7 +6675,7 @@
       </c>
       <c r="H13" s="210"/>
       <c r="I13" s="210">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J13" s="210">
         <v>15</v>
@@ -6804,7 +6848,7 @@
   <dimension ref="B2:M11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6936,7 +6980,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
@@ -6986,7 +7030,7 @@
   <dimension ref="B2:M11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J13" activeCellId="1" sqref="C11 J13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7167,8 +7211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FA5A7D-6F36-435C-8D73-4555D570FBF4}">
   <dimension ref="A2:AK189"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J81" sqref="J81"/>
+    <sheetView topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M184" sqref="M184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7292,7 +7336,7 @@
       <c r="G9" t="s">
         <v>34</v>
       </c>
-      <c r="P9" s="295">
+      <c r="P9" s="301">
         <v>1</v>
       </c>
     </row>
@@ -7307,7 +7351,7 @@
       <c r="G10" t="s">
         <v>34</v>
       </c>
-      <c r="P10" s="295"/>
+      <c r="P10" s="301"/>
     </row>
     <row r="11" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E11" s="1" t="s">
@@ -7324,7 +7368,7 @@
       <c r="L11" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="P11" s="295"/>
+      <c r="P11" s="301"/>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E12" s="1" t="s">
@@ -7337,7 +7381,7 @@
       <c r="G12" t="s">
         <v>35</v>
       </c>
-      <c r="P12" s="296"/>
+      <c r="P12" s="302"/>
     </row>
     <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F13" s="242" t="s">
@@ -7404,7 +7448,7 @@
       </c>
       <c r="L14" s="245">
         <f>'DC1'!H13</f>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M14" s="245">
         <f>'DC1'!I13</f>
@@ -7597,7 +7641,7 @@
       </c>
       <c r="L18" s="61">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M18" s="61">
         <f t="shared" si="0"/>
@@ -7723,7 +7767,7 @@
       </c>
       <c r="L21" s="68">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M21" s="68">
         <f t="shared" si="2"/>
@@ -7772,7 +7816,7 @@
       </c>
       <c r="L22" s="68">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M22" s="68">
         <f t="shared" si="4"/>
@@ -7810,7 +7854,7 @@
       </c>
       <c r="J23" s="75">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K23" s="75">
         <f t="shared" si="5"/>
@@ -7903,7 +7947,7 @@
       </c>
       <c r="J25" s="83">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K25" s="83">
         <f t="shared" si="8"/>
@@ -7949,7 +7993,7 @@
       </c>
       <c r="J26" s="87">
         <f t="shared" si="9"/>
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K26" s="87">
         <f t="shared" si="9"/>
@@ -8051,7 +8095,7 @@
       </c>
       <c r="J28" s="96">
         <f t="shared" si="10"/>
-        <v>17200</v>
+        <v>21500</v>
       </c>
       <c r="K28" s="96">
         <f t="shared" si="10"/>
@@ -8103,7 +8147,7 @@
       </c>
       <c r="J29" s="100">
         <f t="shared" si="11"/>
-        <v>19600</v>
+        <v>24500</v>
       </c>
       <c r="K29" s="100">
         <f t="shared" si="11"/>
@@ -8201,7 +8245,7 @@
       </c>
       <c r="J31" s="104">
         <f t="shared" si="12"/>
-        <v>33200</v>
+        <v>41500</v>
       </c>
       <c r="K31" s="104">
         <f t="shared" si="12"/>
@@ -8250,7 +8294,7 @@
       </c>
       <c r="J32" s="108">
         <f t="shared" si="13"/>
-        <v>13600</v>
+        <v>17000</v>
       </c>
       <c r="K32" s="108">
         <f t="shared" si="13"/>
@@ -8299,7 +8343,7 @@
       </c>
       <c r="J33" s="79">
         <f t="shared" si="14"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K33" s="79">
         <f t="shared" si="14"/>
@@ -8358,7 +8402,7 @@
       </c>
       <c r="J34" s="79">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K34" s="79">
         <f t="shared" si="15"/>
@@ -8409,7 +8453,7 @@
       </c>
       <c r="J35" s="263">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K35" s="263">
         <f t="shared" si="16"/>
@@ -8532,7 +8576,7 @@
       </c>
       <c r="J37" s="83">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="83">
         <f t="shared" si="18"/>
@@ -8626,7 +8670,7 @@
       </c>
       <c r="J38" s="130">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="K38" s="130">
         <f t="shared" si="19"/>
@@ -8723,7 +8767,7 @@
       </c>
       <c r="J39" s="138">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="K39" s="138">
         <f>K35*K27</f>
@@ -8818,7 +8862,7 @@
       </c>
       <c r="J40" s="108">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>4900</v>
       </c>
       <c r="K40" s="108">
         <f t="shared" si="30"/>
@@ -8912,7 +8956,7 @@
       </c>
       <c r="J41" s="138">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>8300</v>
       </c>
       <c r="K41" s="138">
         <f>K35*K30</f>
@@ -9006,7 +9050,7 @@
       </c>
       <c r="J42" s="141">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="K42" s="141">
         <f t="shared" si="33"/>
@@ -9288,7 +9332,7 @@
       </c>
       <c r="J45" s="150">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K45" s="150">
         <f t="shared" si="36"/>
@@ -9381,7 +9425,7 @@
       </c>
       <c r="J46" s="150">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K46" s="150">
         <f t="shared" si="37"/>
@@ -9753,7 +9797,7 @@
       <c r="G53" t="s">
         <v>34</v>
       </c>
-      <c r="P53" s="295">
+      <c r="P53" s="301">
         <v>2</v>
       </c>
       <c r="R53">
@@ -9818,7 +9862,7 @@
       <c r="G54" t="s">
         <v>34</v>
       </c>
-      <c r="P54" s="295"/>
+      <c r="P54" s="301"/>
       <c r="R54">
         <f>R53+R52</f>
         <v>442600</v>
@@ -9844,7 +9888,7 @@
       <c r="L55" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="P55" s="295"/>
+      <c r="P55" s="301"/>
       <c r="W55">
         <f t="shared" si="20"/>
         <v>5</v>
@@ -9904,7 +9948,7 @@
       <c r="G56" t="s">
         <v>35</v>
       </c>
-      <c r="P56" s="296"/>
+      <c r="P56" s="302"/>
       <c r="W56">
         <f>MOD(X56,$AE$28)</f>
         <v>6</v>
@@ -11885,7 +11929,7 @@
       </c>
       <c r="J78" s="79">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K78" s="79">
         <f t="shared" si="51"/>
@@ -11897,7 +11941,7 @@
       </c>
       <c r="M78" s="79">
         <f t="shared" si="51"/>
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N78" s="79">
         <f t="shared" si="51"/>
@@ -11975,7 +12019,7 @@
       </c>
       <c r="J79" s="263">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K79" s="263">
         <f t="shared" si="52"/>
@@ -11987,7 +12031,7 @@
       </c>
       <c r="M79" s="263">
         <f t="shared" si="52"/>
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="N79" s="263">
         <f t="shared" si="52"/>
@@ -12116,7 +12160,7 @@
       </c>
       <c r="J81" s="83">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" s="83">
         <f t="shared" si="54"/>
@@ -12128,7 +12172,7 @@
       </c>
       <c r="M81" s="83">
         <f t="shared" si="54"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N81" s="83">
         <f t="shared" si="54"/>
@@ -12206,7 +12250,7 @@
       </c>
       <c r="J82" s="130">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K82" s="130">
         <f t="shared" si="55"/>
@@ -12218,7 +12262,7 @@
       </c>
       <c r="M82" s="130">
         <f t="shared" si="55"/>
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="N82" s="130">
         <f t="shared" si="55"/>
@@ -12299,7 +12343,7 @@
       </c>
       <c r="J83" s="138">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="K83" s="138">
         <f>K79*K71</f>
@@ -12311,7 +12355,7 @@
       </c>
       <c r="M83" s="138">
         <f t="shared" si="57"/>
-        <v>21400</v>
+        <v>9630</v>
       </c>
       <c r="N83" s="138">
         <f t="shared" si="57"/>
@@ -12390,7 +12434,7 @@
       </c>
       <c r="J84" s="108">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="K84" s="108">
         <f t="shared" si="58"/>
@@ -12402,7 +12446,7 @@
       </c>
       <c r="M84" s="108">
         <f t="shared" si="58"/>
-        <v>23900</v>
+        <v>11130</v>
       </c>
       <c r="N84" s="108">
         <f t="shared" si="58"/>
@@ -12438,7 +12482,7 @@
       </c>
       <c r="J85" s="138">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>8260</v>
       </c>
       <c r="K85" s="138">
         <f>K79*K74</f>
@@ -12450,7 +12494,7 @@
       </c>
       <c r="M85" s="138">
         <f t="shared" si="60"/>
-        <v>42600</v>
+        <v>19170</v>
       </c>
       <c r="N85" s="138">
         <f t="shared" si="60"/>
@@ -12486,7 +12530,7 @@
       </c>
       <c r="J86" s="141">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>3460</v>
       </c>
       <c r="K86" s="141">
         <f t="shared" si="61"/>
@@ -12498,7 +12542,7 @@
       </c>
       <c r="M86" s="141">
         <f t="shared" si="61"/>
-        <v>18700</v>
+        <v>8040</v>
       </c>
       <c r="N86" s="141">
         <f t="shared" si="61"/>
@@ -12536,7 +12580,7 @@
       </c>
       <c r="J87" s="146">
         <f t="shared" si="62"/>
-        <v>10380</v>
+        <v>6920</v>
       </c>
       <c r="K87" s="146">
         <f t="shared" si="62"/>
@@ -12548,7 +12592,7 @@
       </c>
       <c r="M87" s="146">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>10660</v>
       </c>
       <c r="N87" s="146">
         <f t="shared" si="62"/>
@@ -12630,7 +12674,7 @@
       </c>
       <c r="J89" s="150">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K89" s="150">
         <f t="shared" si="64"/>
@@ -12642,7 +12686,7 @@
       </c>
       <c r="M89" s="150">
         <f t="shared" si="64"/>
-        <v>1</v>
+        <v>0.46569037656903767</v>
       </c>
       <c r="N89" s="150">
         <f t="shared" si="64"/>
@@ -12677,7 +12721,7 @@
       </c>
       <c r="J90" s="150">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K90" s="150">
         <f t="shared" si="65"/>
@@ -12689,7 +12733,7 @@
       </c>
       <c r="M90" s="150">
         <f t="shared" si="65"/>
-        <v>1</v>
+        <v>0.42994652406417111</v>
       </c>
       <c r="N90" s="150">
         <f t="shared" si="65"/>
@@ -12807,7 +12851,7 @@
       <c r="G98" t="s">
         <v>34</v>
       </c>
-      <c r="P98" s="295">
+      <c r="P98" s="301">
         <v>3</v>
       </c>
       <c r="AB98" s="167"/>
@@ -12823,7 +12867,7 @@
       <c r="G99" t="s">
         <v>34</v>
       </c>
-      <c r="P99" s="295"/>
+      <c r="P99" s="301"/>
       <c r="AB99" s="167"/>
     </row>
     <row r="100" spans="5:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -12840,7 +12884,7 @@
       <c r="L100" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="P100" s="295"/>
+      <c r="P100" s="301"/>
     </row>
     <row r="101" spans="5:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E101" s="1" t="s">
@@ -12853,7 +12897,7 @@
       <c r="G101" t="s">
         <v>35</v>
       </c>
-      <c r="P101" s="296"/>
+      <c r="P101" s="302"/>
     </row>
     <row r="102" spans="5:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F102" s="53" t="s">
@@ -12921,7 +12965,7 @@
       </c>
       <c r="M103" s="65">
         <f>'DC3'!I13</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N103" s="65">
         <f>'DC3'!J13</f>
@@ -13105,7 +13149,7 @@
       </c>
       <c r="M107" s="207">
         <f t="shared" si="66"/>
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="N107" s="207">
         <f t="shared" si="66"/>
@@ -13176,19 +13220,19 @@
       </c>
       <c r="M109" s="175">
         <f t="shared" si="67"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N109" s="175">
         <f t="shared" si="67"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="O109" s="175">
         <f t="shared" si="67"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="P109" s="176">
         <f t="shared" si="67"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R109" s="70" t="s">
         <v>45</v>
@@ -13225,19 +13269,19 @@
       </c>
       <c r="M110" s="68">
         <f t="shared" si="68"/>
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="N110" s="68">
         <f t="shared" si="68"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O110" s="68">
         <f t="shared" si="68"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="P110" s="69">
         <f t="shared" si="68"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="R110" s="70" t="s">
         <v>48</v>
@@ -13274,7 +13318,7 @@
       </c>
       <c r="M111" s="175">
         <f t="shared" si="69"/>
-        <v>240</v>
+        <v>135</v>
       </c>
       <c r="N111" s="175">
         <f t="shared" si="69"/>
@@ -13320,7 +13364,7 @@
       </c>
       <c r="M112" s="75">
         <f t="shared" si="70"/>
-        <v>240</v>
+        <v>135</v>
       </c>
       <c r="N112" s="75">
         <f t="shared" si="70"/>
@@ -13413,7 +13457,7 @@
       </c>
       <c r="M114" s="83">
         <f t="shared" si="72"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N114" s="83">
         <f t="shared" si="72"/>
@@ -13459,7 +13503,7 @@
       </c>
       <c r="M115" s="87">
         <f t="shared" si="73"/>
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="N115" s="87">
         <f t="shared" si="73"/>
@@ -13561,7 +13605,7 @@
       </c>
       <c r="M117" s="95">
         <f t="shared" si="74"/>
-        <v>51360</v>
+        <v>28890</v>
       </c>
       <c r="N117" s="95">
         <f t="shared" si="74"/>
@@ -13610,7 +13654,7 @@
       </c>
       <c r="M118" s="100">
         <f t="shared" si="75"/>
-        <v>53760</v>
+        <v>30290</v>
       </c>
       <c r="N118" s="100">
         <f t="shared" si="75"/>
@@ -13705,7 +13749,7 @@
       </c>
       <c r="M120" s="104">
         <f t="shared" si="76"/>
-        <v>101520</v>
+        <v>57105</v>
       </c>
       <c r="N120" s="104">
         <f t="shared" si="76"/>
@@ -13754,7 +13798,7 @@
       </c>
       <c r="M121" s="108">
         <f t="shared" si="77"/>
-        <v>47760</v>
+        <v>26815</v>
       </c>
       <c r="N121" s="108">
         <f t="shared" si="77"/>
@@ -13817,7 +13861,7 @@
       </c>
       <c r="M122" s="216">
         <f t="shared" si="78"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N122" s="216">
         <f t="shared" si="78"/>
@@ -13868,7 +13912,7 @@
       </c>
       <c r="J123" s="79">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K123" s="79">
         <f t="shared" si="79"/>
@@ -13880,7 +13924,7 @@
       </c>
       <c r="M123" s="79">
         <f t="shared" si="79"/>
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="N123" s="79">
         <f t="shared" si="79"/>
@@ -13929,7 +13973,7 @@
       </c>
       <c r="J124" s="263">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K124" s="263">
         <f t="shared" si="80"/>
@@ -13941,7 +13985,7 @@
       </c>
       <c r="M124" s="263">
         <f t="shared" si="80"/>
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="N124" s="263">
         <f t="shared" si="80"/>
@@ -14051,7 +14095,7 @@
       </c>
       <c r="J126" s="83">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K126" s="83">
         <f t="shared" si="82"/>
@@ -14063,7 +14107,7 @@
       </c>
       <c r="M126" s="83">
         <f t="shared" si="82"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N126" s="83">
         <f t="shared" si="82"/>
@@ -14112,7 +14156,7 @@
       </c>
       <c r="J127" s="130">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K127" s="130">
         <f t="shared" si="83"/>
@@ -14124,7 +14168,7 @@
       </c>
       <c r="M127" s="130">
         <f t="shared" si="83"/>
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="N127" s="130">
         <f t="shared" si="83"/>
@@ -14176,7 +14220,7 @@
       </c>
       <c r="J128" s="138">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="K128" s="138">
         <f>K124*K116</f>
@@ -14188,7 +14232,7 @@
       </c>
       <c r="M128" s="138">
         <f t="shared" si="85"/>
-        <v>29960</v>
+        <v>11770</v>
       </c>
       <c r="N128" s="138">
         <f t="shared" si="85"/>
@@ -14238,7 +14282,7 @@
       </c>
       <c r="J129" s="108">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="K129" s="108">
         <f t="shared" si="86"/>
@@ -14250,7 +14294,7 @@
       </c>
       <c r="M129" s="108">
         <f t="shared" si="86"/>
-        <v>31360</v>
+        <v>12370</v>
       </c>
       <c r="N129" s="108">
         <f t="shared" si="86"/>
@@ -14299,7 +14343,7 @@
       </c>
       <c r="J130" s="138">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>8300</v>
       </c>
       <c r="K130" s="138">
         <f>K124*K119</f>
@@ -14311,7 +14355,7 @@
       </c>
       <c r="M130" s="138">
         <f t="shared" si="88"/>
-        <v>59220</v>
+        <v>23265</v>
       </c>
       <c r="N130" s="138">
         <f t="shared" si="88"/>
@@ -14346,7 +14390,7 @@
       </c>
       <c r="J131" s="141">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="K131" s="141">
         <f t="shared" si="89"/>
@@ -14358,7 +14402,7 @@
       </c>
       <c r="M131" s="141">
         <f t="shared" si="89"/>
-        <v>27860</v>
+        <v>10895</v>
       </c>
       <c r="N131" s="141">
         <f t="shared" si="89"/>
@@ -14395,7 +14439,7 @@
       </c>
       <c r="J132" s="146">
         <f t="shared" si="90"/>
-        <v>11400</v>
+        <v>7600</v>
       </c>
       <c r="K132" s="146">
         <f t="shared" si="90"/>
@@ -14407,7 +14451,7 @@
       </c>
       <c r="M132" s="146">
         <f t="shared" si="90"/>
-        <v>19900</v>
+        <v>15920</v>
       </c>
       <c r="N132" s="146">
         <f t="shared" si="90"/>
@@ -14454,7 +14498,7 @@
       </c>
       <c r="M133" s="150">
         <f t="shared" si="91"/>
-        <v>0.83333333333333337</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="N133" s="150">
         <f t="shared" si="91"/>
@@ -14489,7 +14533,7 @@
       </c>
       <c r="J134" s="150">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K134" s="150">
         <f t="shared" si="92"/>
@@ -14501,7 +14545,7 @@
       </c>
       <c r="M134" s="150">
         <f t="shared" si="92"/>
-        <v>0.58333333333333337</v>
+        <v>0.40838560581049854</v>
       </c>
       <c r="N134" s="150">
         <f t="shared" si="92"/>
@@ -14536,7 +14580,7 @@
       </c>
       <c r="J135" s="150">
         <f t="shared" si="93"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K135" s="150">
         <f t="shared" si="93"/>
@@ -14548,7 +14592,7 @@
       </c>
       <c r="M135" s="150">
         <f t="shared" si="93"/>
-        <v>0.58333333333333337</v>
+        <v>0.40630244266268878</v>
       </c>
       <c r="N135" s="150">
         <f t="shared" si="93"/>
@@ -14626,10 +14670,10 @@
         <v>35</v>
       </c>
       <c r="L141" s="269"/>
-      <c r="O141" s="295" t="s">
+      <c r="O141" s="301" t="s">
         <v>138</v>
       </c>
-      <c r="P141" s="295">
+      <c r="P141" s="301">
         <v>1</v>
       </c>
     </row>
@@ -14644,8 +14688,8 @@
       <c r="G142" t="s">
         <v>35</v>
       </c>
-      <c r="O142" s="295"/>
-      <c r="P142" s="295"/>
+      <c r="O142" s="301"/>
+      <c r="P142" s="301"/>
     </row>
     <row r="143" spans="4:37" x14ac:dyDescent="0.3">
       <c r="E143" s="1" t="s">
@@ -14655,8 +14699,8 @@
         <f>Supplier1!C4</f>
         <v>200</v>
       </c>
-      <c r="O143" s="295"/>
-      <c r="P143" s="295"/>
+      <c r="O143" s="301"/>
+      <c r="P143" s="301"/>
     </row>
     <row r="144" spans="4:37" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E144" s="1" t="s">
@@ -14669,8 +14713,8 @@
       <c r="L144" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="O144" s="296"/>
-      <c r="P144" s="296"/>
+      <c r="O144" s="302"/>
+      <c r="P144" s="302"/>
     </row>
     <row r="145" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F145" s="53" t="s">
@@ -14726,7 +14770,7 @@
       </c>
       <c r="J146" s="282">
         <f t="shared" si="94"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K146" s="282">
         <f t="shared" si="94"/>
@@ -14830,7 +14874,7 @@
       </c>
       <c r="M148" s="275">
         <f t="shared" si="96"/>
-        <v>240</v>
+        <v>135</v>
       </c>
       <c r="N148" s="275">
         <f t="shared" si="96"/>
@@ -14864,7 +14908,7 @@
       </c>
       <c r="J149" s="287">
         <f t="shared" si="97"/>
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K149" s="287">
         <f t="shared" si="97"/>
@@ -14876,7 +14920,7 @@
       </c>
       <c r="M149" s="287">
         <f t="shared" si="97"/>
-        <v>380</v>
+        <v>275</v>
       </c>
       <c r="N149" s="287">
         <f t="shared" si="97"/>
@@ -14929,31 +14973,31 @@
       </c>
       <c r="J151" s="68">
         <f t="shared" si="98"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K151" s="68">
         <f t="shared" si="98"/>
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="L151" s="68">
         <f t="shared" si="98"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="M151" s="68">
         <f t="shared" si="98"/>
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="N151" s="68">
         <f t="shared" si="98"/>
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="O151" s="68">
         <f t="shared" si="98"/>
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="P151" s="69">
         <f t="shared" si="98"/>
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="152" spans="4:17" x14ac:dyDescent="0.3">
@@ -14975,27 +15019,27 @@
       </c>
       <c r="J152" s="68">
         <f t="shared" si="99"/>
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K152" s="68">
         <f t="shared" si="99"/>
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="L152" s="68">
         <f t="shared" si="99"/>
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="M152" s="68">
         <f t="shared" si="99"/>
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="N152" s="68">
         <f t="shared" si="99"/>
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="O152" s="68">
         <f t="shared" si="99"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="P152" s="69">
         <f t="shared" si="99"/>
@@ -15021,7 +15065,7 @@
       </c>
       <c r="J153" s="68">
         <f t="shared" si="100"/>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K153" s="68">
         <f t="shared" si="100"/>
@@ -15029,15 +15073,15 @@
       </c>
       <c r="L153" s="68">
         <f t="shared" si="100"/>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="M153" s="68">
         <f t="shared" si="100"/>
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N153" s="68">
         <f t="shared" si="100"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O153" s="68">
         <f t="shared" si="100"/>
@@ -15063,7 +15107,7 @@
       </c>
       <c r="I154" s="195">
         <f t="shared" ref="I154:P154" si="101">J153</f>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="J154" s="195">
         <f t="shared" si="101"/>
@@ -15071,15 +15115,15 @@
       </c>
       <c r="K154" s="195">
         <f t="shared" si="101"/>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="L154" s="195">
         <f t="shared" si="101"/>
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M154" s="195">
         <f t="shared" si="101"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N154" s="195">
         <f t="shared" si="101"/>
@@ -15114,7 +15158,7 @@
       </c>
       <c r="J155" s="199">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K155" s="199">
         <f t="shared" si="102"/>
@@ -15126,7 +15170,7 @@
       </c>
       <c r="M155" s="199">
         <f t="shared" si="102"/>
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="N155" s="199">
         <f t="shared" si="102"/>
@@ -15161,7 +15205,7 @@
       </c>
       <c r="J156" s="199">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K156" s="199">
         <f t="shared" si="102"/>
@@ -15173,7 +15217,7 @@
       </c>
       <c r="M156" s="199">
         <f t="shared" si="102"/>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N156" s="199">
         <f t="shared" si="102"/>
@@ -15234,10 +15278,10 @@
       <c r="G162" t="s">
         <v>35</v>
       </c>
-      <c r="O162" s="295" t="s">
+      <c r="O162" s="301" t="s">
         <v>138</v>
       </c>
-      <c r="P162" s="295">
+      <c r="P162" s="301">
         <v>2</v>
       </c>
     </row>
@@ -15252,8 +15296,8 @@
       <c r="G163" t="s">
         <v>35</v>
       </c>
-      <c r="O163" s="295"/>
-      <c r="P163" s="295"/>
+      <c r="O163" s="301"/>
+      <c r="P163" s="301"/>
     </row>
     <row r="164" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E164" s="1" t="s">
@@ -15263,8 +15307,8 @@
         <f>Supplier2!C4</f>
         <v>150</v>
       </c>
-      <c r="O164" s="295"/>
-      <c r="P164" s="295"/>
+      <c r="O164" s="301"/>
+      <c r="P164" s="301"/>
     </row>
     <row r="165" spans="3:19" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E165" s="1" t="s">
@@ -15277,8 +15321,8 @@
       <c r="L165" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="O165" s="296"/>
-      <c r="P165" s="296"/>
+      <c r="O165" s="302"/>
+      <c r="P165" s="302"/>
     </row>
     <row r="166" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F166" s="278" t="s">
@@ -15904,8 +15948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B409AB02-E9CA-40CB-B386-70D450CE0A6B}">
   <dimension ref="A2:AK192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q115" sqref="Q115"/>
+    <sheetView tabSelected="1" topLeftCell="D145" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q175" sqref="Q175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16031,7 +16075,7 @@
       <c r="G9" t="s">
         <v>34</v>
       </c>
-      <c r="P9" s="295">
+      <c r="P9" s="301">
         <v>1</v>
       </c>
     </row>
@@ -16046,7 +16090,7 @@
       <c r="G10" t="s">
         <v>34</v>
       </c>
-      <c r="P10" s="295"/>
+      <c r="P10" s="301"/>
     </row>
     <row r="11" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E11" s="1" t="s">
@@ -16063,7 +16107,7 @@
       <c r="L11" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="P11" s="295"/>
+      <c r="P11" s="301"/>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E12" s="1" t="s">
@@ -16076,7 +16120,7 @@
       <c r="G12" t="s">
         <v>35</v>
       </c>
-      <c r="P12" s="296"/>
+      <c r="P12" s="302"/>
     </row>
     <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F13" s="242" t="s">
@@ -16143,7 +16187,7 @@
       </c>
       <c r="L14" s="245">
         <f>'DC1'!H13</f>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M14" s="245">
         <f>'DC1'!I13</f>
@@ -16336,7 +16380,7 @@
       </c>
       <c r="L18" s="61">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M18" s="61">
         <f t="shared" si="0"/>
@@ -16462,7 +16506,7 @@
       </c>
       <c r="L21" s="68">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M21" s="68">
         <f t="shared" si="2"/>
@@ -16511,7 +16555,7 @@
       </c>
       <c r="L22" s="68">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M22" s="68">
         <f t="shared" ref="M22" si="6" xml:space="preserve"> CEILING(M21/$F$11,1)*$F$11</f>
@@ -16549,7 +16593,7 @@
       </c>
       <c r="J23" s="75">
         <f t="shared" si="9"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K23" s="75">
         <f t="shared" si="9"/>
@@ -16642,7 +16686,7 @@
       </c>
       <c r="J25" s="83">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K25" s="83">
         <f t="shared" si="11"/>
@@ -16688,7 +16732,7 @@
       </c>
       <c r="J26" s="87">
         <f t="shared" si="12"/>
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K26" s="87">
         <f t="shared" si="12"/>
@@ -16790,7 +16834,7 @@
       </c>
       <c r="J28" s="96">
         <f t="shared" si="13"/>
-        <v>17200</v>
+        <v>21500</v>
       </c>
       <c r="K28" s="96">
         <f t="shared" si="13"/>
@@ -16842,7 +16886,7 @@
       </c>
       <c r="J29" s="100">
         <f t="shared" si="14"/>
-        <v>19600</v>
+        <v>24500</v>
       </c>
       <c r="K29" s="100">
         <f t="shared" si="14"/>
@@ -16940,7 +16984,7 @@
       </c>
       <c r="J31" s="104">
         <f t="shared" si="15"/>
-        <v>33200</v>
+        <v>41500</v>
       </c>
       <c r="K31" s="104">
         <f t="shared" si="15"/>
@@ -16989,7 +17033,7 @@
       </c>
       <c r="J32" s="108">
         <f t="shared" si="16"/>
-        <v>13600</v>
+        <v>17000</v>
       </c>
       <c r="K32" s="108">
         <f t="shared" si="16"/>
@@ -17038,7 +17082,7 @@
       </c>
       <c r="J33" s="216">
         <f t="shared" ref="J33:P33" si="18">IF($Q$26 = "Choosing Supplier 1", SUM(L14:L15),SUM(K14:K15))</f>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K33" s="216">
         <f t="shared" si="18"/>
@@ -17097,7 +17141,7 @@
       </c>
       <c r="J34" s="79">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K34" s="79">
         <f t="shared" si="19"/>
@@ -17134,43 +17178,43 @@
         <v>160</v>
       </c>
       <c r="F35" s="262"/>
-      <c r="G35" s="301">
+      <c r="G35" s="299">
         <f>MIN(MAX(CEILING(IF($Q$26 = "Choosing Supplier 1", G$158,G$179)/$F$11,1)*$F$11,0),G33)</f>
         <v>0</v>
       </c>
-      <c r="H35" s="301">
+      <c r="H35" s="299">
         <f t="shared" ref="H35:P35" si="20">MIN(MAX(CEILING(IF($Q$26 = "Choosing Supplier 1", H$158,H$179)/$F$11,1)*$F$11,0),H33)</f>
         <v>0</v>
       </c>
-      <c r="I35" s="301">
+      <c r="I35" s="299">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="J35" s="301">
+      <c r="J35" s="299">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="301">
+        <v>20</v>
+      </c>
+      <c r="K35" s="299">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L35" s="301">
+      <c r="L35" s="299">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="M35" s="301">
+      <c r="M35" s="299">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="N35" s="301">
+      <c r="N35" s="299">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="O35" s="301">
+      <c r="O35" s="299">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="P35" s="302">
+      <c r="P35" s="300">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -17186,39 +17230,39 @@
       </c>
       <c r="F36" s="262"/>
       <c r="G36" s="263">
-        <f>MIN(MAX(CEILING(IF($Q$26 = "Choosing Supplier 1", G$158,G$179)/$F$11,1)*$F$11-IF($Q$26 = "Choosing Supplier 1",I22-I21,H22-H21),0),G33)</f>
+        <f t="shared" ref="G36:O36" si="21">MIN(MAX(CEILING(IF($Q$26 = "Choosing Supplier 1", G$158,G$179)/$F$11,1)*$F$11-IF($Q$26 = "Choosing Supplier 1",I22-I21,H22-H21),0),G33)</f>
         <v>0</v>
       </c>
       <c r="H36" s="263">
-        <f>MIN(MAX(CEILING(IF($Q$26 = "Choosing Supplier 1", H$158,H$179)/$F$11,1)*$F$11-IF($Q$26 = "Choosing Supplier 1",J22-J21,I22-I21),0),H33)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I36" s="263">
-        <f>MIN(MAX(CEILING(IF($Q$26 = "Choosing Supplier 1", I$158,I$179)/$F$11,1)*$F$11-IF($Q$26 = "Choosing Supplier 1",K22-K21,J22-J21),0),I33)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J36" s="263">
-        <f>MIN(MAX(CEILING(IF($Q$26 = "Choosing Supplier 1", J$158,J$179)/$F$11,1)*$F$11-IF($Q$26 = "Choosing Supplier 1",L22-L21,K22-K21),0),J33)</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>20</v>
       </c>
       <c r="K36" s="263">
-        <f>MIN(MAX(CEILING(IF($Q$26 = "Choosing Supplier 1", K$158,K$179)/$F$11,1)*$F$11-IF($Q$26 = "Choosing Supplier 1",M22-M21,L22-L21),0),K33)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L36" s="263">
-        <f>MIN(MAX(CEILING(IF($Q$26 = "Choosing Supplier 1", L$158,L$179)/$F$11,1)*$F$11-IF($Q$26 = "Choosing Supplier 1",N22-N21,M22-M21),0),L33)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M36" s="263">
-        <f>MIN(MAX(CEILING(IF($Q$26 = "Choosing Supplier 1", M$158,M$179)/$F$11,1)*$F$11-IF($Q$26 = "Choosing Supplier 1",O22-O21,N22-N21),0),M33)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N36" s="263">
-        <f>MIN(MAX(CEILING(IF($Q$26 = "Choosing Supplier 1", N$158,N$179)/$F$11,1)*$F$11-IF($Q$26 = "Choosing Supplier 1",P22-P21,O22-O21),0),N33)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O36" s="263">
-        <f>MIN(MAX(CEILING(IF($Q$26 = "Choosing Supplier 1", O$158,O$179)/$F$11,1)*$F$11-IF($Q$26 = "Choosing Supplier 1",Q22-Q21,P22-P21),0),O33)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P36" s="264">
@@ -17244,19 +17288,19 @@
       </c>
       <c r="F37" s="82"/>
       <c r="G37" s="83">
-        <f t="shared" ref="G37:J37" si="21">IF($Q$26="Choosing Supplier 1", QUOTIENT(MOD(G36+$F$6-1,$F$5),$F$6), QUOTIENT(MOD(G36+$F$8-1,$F$7),$F$8))</f>
+        <f t="shared" ref="G37:J37" si="22">IF($Q$26="Choosing Supplier 1", QUOTIENT(MOD(G36+$F$6-1,$F$5),$F$6), QUOTIENT(MOD(G36+$F$8-1,$F$7),$F$8))</f>
         <v>0</v>
       </c>
       <c r="H37" s="83">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I37" s="83">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J37" s="83">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K37" s="83">
@@ -17264,23 +17308,23 @@
         <v>0</v>
       </c>
       <c r="L37" s="83">
-        <f t="shared" ref="L37:P37" si="22">IF($Q$26="Choosing Supplier 1", QUOTIENT(MOD(L36+$F$6-1,$F$5),$F$6), QUOTIENT(MOD(L36+$F$8-1,$F$7),$F$8))</f>
+        <f t="shared" ref="L37:P37" si="23">IF($Q$26="Choosing Supplier 1", QUOTIENT(MOD(L36+$F$6-1,$F$5),$F$6), QUOTIENT(MOD(L36+$F$8-1,$F$7),$F$8))</f>
         <v>0</v>
       </c>
       <c r="M37" s="83">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N37" s="83">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O37" s="83">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P37" s="84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q37" s="294" t="s">
@@ -17317,43 +17361,43 @@
       </c>
       <c r="F38" s="82"/>
       <c r="G38" s="83">
-        <f t="shared" ref="G38:J38" si="23">IF($Q$26="Choosing Supplier 1", QUOTIENT(G36+$F$6-1,$F$5),QUOTIENT(G36+$F$8-1,$F$7))</f>
+        <f t="shared" ref="G38:J38" si="24">IF($Q$26="Choosing Supplier 1", QUOTIENT(G36+$F$6-1,$F$5),QUOTIENT(G36+$F$8-1,$F$7))</f>
         <v>0</v>
       </c>
       <c r="H38" s="83">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I38" s="83">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J38" s="83">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="K38" s="83">
         <f>IF($Q$26="Choosing Supplier 1", QUOTIENT(K36+$F$6-1,$F$5),QUOTIENT(K36+$F$8-1,$F$7))</f>
         <v>0</v>
       </c>
       <c r="L38" s="83">
-        <f t="shared" ref="L38:P38" si="24">IF($Q$26="Choosing Supplier 1", QUOTIENT(L36+$F$6-1,$F$5),QUOTIENT(L36+$F$8-1,$F$7))</f>
+        <f t="shared" ref="L38:P38" si="25">IF($Q$26="Choosing Supplier 1", QUOTIENT(L36+$F$6-1,$F$5),QUOTIENT(L36+$F$8-1,$F$7))</f>
         <v>0</v>
       </c>
       <c r="M38" s="83">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N38" s="83">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O38" s="83">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P38" s="84">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q38" s="132" t="s">
@@ -17413,65 +17457,65 @@
       </c>
       <c r="F39" s="129"/>
       <c r="G39" s="130">
-        <f t="shared" ref="G39:J39" si="25">IF($Q$26="Choosing Supplier 1", G38*$G$5+G37*$G$6, G38*$G$7+G37*$G$8)</f>
+        <f t="shared" ref="G39:J39" si="26">IF($Q$26="Choosing Supplier 1", G38*$G$5+G37*$G$6, G38*$G$7+G37*$G$8)</f>
         <v>0</v>
       </c>
       <c r="H39" s="130">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I39" s="130">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J39" s="130">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>600</v>
       </c>
       <c r="K39" s="130">
         <f>IF($Q$26="Choosing Supplier 1", K38*$G$5+K37*$G$6, K38*$G$7+K37*$G$8)</f>
         <v>0</v>
       </c>
       <c r="L39" s="130">
-        <f t="shared" ref="L39:P39" si="26">IF($Q$26="Choosing Supplier 1", L38*$G$5+L37*$G$6, L38*$G$7+L37*$G$8)</f>
+        <f t="shared" ref="L39:P39" si="27">IF($Q$26="Choosing Supplier 1", L38*$G$5+L37*$G$6, L38*$G$7+L37*$G$8)</f>
         <v>0</v>
       </c>
       <c r="M39" s="130">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N39" s="130">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O39" s="130">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P39" s="131">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q39" s="132" t="s">
         <v>155</v>
       </c>
       <c r="W39">
-        <f t="shared" ref="W39:W67" si="27">MOD(X39,$AE$28)</f>
+        <f t="shared" ref="W39:W67" si="28">MOD(X39,$AE$28)</f>
         <v>1</v>
       </c>
       <c r="X39">
         <v>1</v>
       </c>
       <c r="Y39">
-        <f t="shared" ref="Y39:Y85" si="28">CEILING(X39,20)</f>
+        <f t="shared" ref="Y39:Y85" si="29">CEILING(X39,20)</f>
         <v>20</v>
       </c>
       <c r="Z39">
-        <f t="shared" ref="Z39:Z85" si="29">FLOOR(X39,20)</f>
+        <f t="shared" ref="Z39:Z85" si="30">FLOOR(X39,20)</f>
         <v>0</v>
       </c>
       <c r="AA39">
-        <f t="shared" ref="AA39:AA85" si="30">MOD(X39,20)</f>
+        <f t="shared" ref="AA39:AA85" si="31">MOD(X39,20)</f>
         <v>1</v>
       </c>
       <c r="AB39" s="118">
@@ -17487,19 +17531,19 @@
         <v>0</v>
       </c>
       <c r="AF39">
-        <f t="shared" ref="AF39:AF85" si="31">QUOTIENT(MOD(X39,$AE$29),$AE$28)</f>
+        <f t="shared" ref="AF39:AF85" si="32">QUOTIENT(MOD(X39,$AE$29),$AE$28)</f>
         <v>0</v>
       </c>
       <c r="AG39" s="126">
-        <f t="shared" ref="AG39:AG85" si="32">QUOTIENT(MOD(X39+$AE$28-1,$AE$29),$AE$28)</f>
+        <f t="shared" ref="AG39:AG85" si="33">QUOTIENT(MOD(X39+$AE$28-1,$AE$29),$AE$28)</f>
         <v>1</v>
       </c>
       <c r="AH39">
-        <f t="shared" ref="AH39:AH85" si="33">QUOTIENT(X39,$AE$29)</f>
+        <f t="shared" ref="AH39:AH85" si="34">QUOTIENT(X39,$AE$29)</f>
         <v>0</v>
       </c>
       <c r="AI39" s="127">
-        <f t="shared" ref="AI39:AI85" si="34">QUOTIENT(X39+$AE$28-1,$AE$29)</f>
+        <f t="shared" ref="AI39:AI85" si="35">QUOTIENT(X39+$AE$28-1,$AE$29)</f>
         <v>0</v>
       </c>
     </row>
@@ -17512,65 +17556,65 @@
       </c>
       <c r="F40" s="90"/>
       <c r="G40" s="138">
-        <f t="shared" ref="G40:J40" si="35">G36*G27</f>
+        <f t="shared" ref="G40:J40" si="36">G36*G27</f>
         <v>0</v>
       </c>
       <c r="H40" s="138">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="I40" s="138">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J40" s="138">
-        <f t="shared" si="35"/>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>4300</v>
       </c>
       <c r="K40" s="138">
         <f>K36*K27</f>
         <v>0</v>
       </c>
       <c r="L40" s="138">
-        <f t="shared" ref="L40:P40" si="36">L36*L27</f>
+        <f t="shared" ref="L40:P40" si="37">L36*L27</f>
         <v>0</v>
       </c>
       <c r="M40" s="138">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N40" s="138">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="O40" s="138">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="P40" s="139">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Q40" s="132" t="s">
         <v>155</v>
       </c>
       <c r="W40">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="X40">
         <v>2</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AA40">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AB40" s="118">
@@ -17586,19 +17630,19 @@
         <v>0</v>
       </c>
       <c r="AF40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AG40" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AH40">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AI40" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -17613,61 +17657,61 @@
         <v>0</v>
       </c>
       <c r="H41" s="108">
-        <f t="shared" ref="H41:P41" si="37">H40+H39</f>
+        <f t="shared" ref="H41:P41" si="38">H40+H39</f>
         <v>0</v>
       </c>
       <c r="I41" s="108">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="J41" s="108">
-        <f t="shared" si="37"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>4900</v>
       </c>
       <c r="K41" s="108">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L41" s="108">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M41" s="108">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="N41" s="108">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O41" s="108">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="P41" s="109">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Q41" s="132" t="s">
         <v>155</v>
       </c>
       <c r="W41">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="X41">
         <v>3</v>
       </c>
       <c r="Y41">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="Z41">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AA41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="AB41" s="118">
@@ -17683,19 +17727,19 @@
         <v>0</v>
       </c>
       <c r="AF41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AG41" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AH41">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AI41" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -17705,65 +17749,65 @@
       </c>
       <c r="F42" s="90"/>
       <c r="G42" s="138">
-        <f t="shared" ref="G42:J42" si="38">G36*G30</f>
+        <f t="shared" ref="G42:J42" si="39">G36*G30</f>
         <v>0</v>
       </c>
       <c r="H42" s="138">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="I42" s="138">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J42" s="138">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="39"/>
+        <v>8300</v>
       </c>
       <c r="K42" s="138">
         <f>K36*K30</f>
         <v>0</v>
       </c>
       <c r="L42" s="138">
-        <f t="shared" ref="L42:P42" si="39">L36*L30</f>
+        <f t="shared" ref="L42:P42" si="40">L36*L30</f>
         <v>0</v>
       </c>
       <c r="M42" s="138">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N42" s="138">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="O42" s="138">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="P42" s="139">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Q42" s="132" t="s">
         <v>155</v>
       </c>
       <c r="W42">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="X42">
         <v>4</v>
       </c>
       <c r="Y42">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="Z42">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AA42">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="AB42" s="118">
@@ -17779,19 +17823,19 @@
         <v>0</v>
       </c>
       <c r="AF42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AG42" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AH42">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AI42" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -17809,35 +17853,35 @@
         <v>0</v>
       </c>
       <c r="I43" s="142">
-        <f t="shared" ref="I43:P43" si="40">I42-I41</f>
+        <f t="shared" ref="I43:P43" si="41">I42-I41</f>
         <v>0</v>
       </c>
       <c r="J43" s="141">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>3400</v>
       </c>
       <c r="K43" s="141">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="L43" s="141">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="M43" s="141">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N43" s="141">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="O43" s="141">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="P43" s="143">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Q43" s="48" t="s">
@@ -17847,22 +17891,22 @@
         <v>155</v>
       </c>
       <c r="W43">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="X43">
         <v>5</v>
       </c>
       <c r="Y43">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="Z43">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="AB43" s="118">
@@ -17878,19 +17922,19 @@
         <v>0</v>
       </c>
       <c r="AF43">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AG43" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AH43">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AI43" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -17908,57 +17952,57 @@
         <v>13760</v>
       </c>
       <c r="I44" s="146">
-        <f t="shared" ref="I44:P44" si="41">I32-I43</f>
+        <f t="shared" ref="I44:P44" si="42">I32-I43</f>
         <v>13360</v>
       </c>
       <c r="J44" s="146">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>13600</v>
       </c>
       <c r="K44" s="146">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>18980</v>
       </c>
       <c r="L44" s="146">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="M44" s="146">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>7160</v>
       </c>
       <c r="N44" s="146">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1720</v>
       </c>
       <c r="O44" s="146">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P44" s="147">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Q44" s="132" t="s">
         <v>155</v>
       </c>
       <c r="W44">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
       <c r="X44">
         <v>6</v>
       </c>
       <c r="Y44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="Z44">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AA44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>6</v>
       </c>
       <c r="AB44" s="118">
@@ -17974,19 +18018,19 @@
         <v>0</v>
       </c>
       <c r="AF44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AG44" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AH44">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AI44" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -18000,58 +18044,58 @@
         <v>0.75</v>
       </c>
       <c r="H45" s="150">
-        <f t="shared" ref="H45:P45" si="42">H33/H23</f>
+        <f t="shared" ref="H45:P45" si="43">H33/H23</f>
         <v>0.375</v>
       </c>
       <c r="I45" s="150">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.25</v>
       </c>
       <c r="J45" s="150">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="K45" s="150">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.63636363636363635</v>
       </c>
       <c r="L45" s="150" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M45" s="150">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="N45" s="150">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="O45" s="150" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P45" s="150" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W45">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
       <c r="X45">
         <v>7</v>
       </c>
       <c r="Y45">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="Z45">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AA45">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>7</v>
       </c>
       <c r="AB45" s="118">
@@ -18067,19 +18111,19 @@
         <v>0</v>
       </c>
       <c r="AF45">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AG45" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AH45">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AI45" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -18093,58 +18137,58 @@
         <v>0</v>
       </c>
       <c r="H46" s="150">
-        <f t="shared" ref="H46:P46" si="43">H41/H29</f>
+        <f t="shared" ref="H46:P46" si="44">H41/H29</f>
         <v>0</v>
       </c>
       <c r="I46" s="150">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="J46" s="150">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>0.2</v>
       </c>
       <c r="K46" s="150">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="L46" s="150" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M46" s="150">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="N46" s="150">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="O46" s="150" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P46" s="150" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W46">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
       <c r="X46">
         <v>8</v>
       </c>
       <c r="Y46">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="Z46">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AA46">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
       <c r="AB46" s="118">
@@ -18160,19 +18204,19 @@
         <v>0</v>
       </c>
       <c r="AF46">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AG46" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AH46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AI46" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -18186,58 +18230,58 @@
         <v>0</v>
       </c>
       <c r="H47" s="150">
-        <f t="shared" ref="H47:P47" si="44">H43/H32</f>
+        <f t="shared" ref="H47:P47" si="45">H43/H32</f>
         <v>0</v>
       </c>
       <c r="I47" s="150">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="J47" s="150">
-        <f t="shared" si="44"/>
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>0.2</v>
       </c>
       <c r="K47" s="150">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="L47" s="150" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M47" s="150">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="N47" s="150">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="O47" s="150" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P47" s="150" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
       <c r="X47">
         <v>9</v>
       </c>
       <c r="Y47">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="Z47">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AA47">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>9</v>
       </c>
       <c r="AB47" s="118">
@@ -18253,41 +18297,41 @@
         <v>0</v>
       </c>
       <c r="AF47">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AG47" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AH47">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AI47" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="4:35" x14ac:dyDescent="0.3">
       <c r="F48" s="4"/>
       <c r="W48">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X48">
         <v>10</v>
       </c>
       <c r="Y48">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="Z48">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AA48">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="AB48" s="118">
@@ -18303,19 +18347,19 @@
         <v>0</v>
       </c>
       <c r="AF48">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AG48" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AH48">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AI48" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -18328,22 +18372,22 @@
       </c>
       <c r="F49" s="4"/>
       <c r="W49">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="X49">
         <v>11</v>
       </c>
       <c r="Y49">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="Z49">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AA49">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>11</v>
       </c>
       <c r="AB49" s="118">
@@ -18359,19 +18403,19 @@
         <v>1</v>
       </c>
       <c r="AF49">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AG49" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AH49">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AI49" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
     </row>
@@ -18393,22 +18437,22 @@
       </c>
       <c r="Q50" s="4"/>
       <c r="W50">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="X50">
         <v>12</v>
       </c>
       <c r="Y50">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="Z50">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AA50">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>12</v>
       </c>
       <c r="AB50" s="118">
@@ -18424,19 +18468,19 @@
         <v>1</v>
       </c>
       <c r="AF50">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AG50" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AH50">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AI50" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
     </row>
@@ -18463,15 +18507,15 @@
         <v>13</v>
       </c>
       <c r="Y51">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="Z51">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AA51">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>13</v>
       </c>
       <c r="AB51" s="118">
@@ -18487,19 +18531,19 @@
         <v>1</v>
       </c>
       <c r="AF51">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AG51" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AH51">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AI51" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
     </row>
@@ -18558,26 +18602,26 @@
       <c r="G54" t="s">
         <v>34</v>
       </c>
-      <c r="P54" s="295">
+      <c r="P54" s="301">
         <v>2</v>
       </c>
       <c r="W54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="X54">
         <v>14</v>
       </c>
       <c r="Y54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="Z54">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AA54">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>14</v>
       </c>
       <c r="AB54" s="118">
@@ -18593,19 +18637,19 @@
         <v>1</v>
       </c>
       <c r="AF54">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AG54" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AH54">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AI54" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
     </row>
@@ -18620,7 +18664,7 @@
       <c r="G55" t="s">
         <v>34</v>
       </c>
-      <c r="P55" s="295"/>
+      <c r="P55" s="301"/>
       <c r="AB55" s="118"/>
       <c r="AC55" s="118"/>
       <c r="AD55" s="124"/>
@@ -18642,24 +18686,24 @@
       <c r="L56" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="P56" s="295"/>
+      <c r="P56" s="301"/>
       <c r="W56">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="X56">
         <v>15</v>
       </c>
       <c r="Y56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="Z56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AA56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>15</v>
       </c>
       <c r="AB56" s="118">
@@ -18675,19 +18719,19 @@
         <v>1</v>
       </c>
       <c r="AF56">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AG56" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AH56">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AI56" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
     </row>
@@ -18702,7 +18746,7 @@
       <c r="G57" t="s">
         <v>35</v>
       </c>
-      <c r="P57" s="296"/>
+      <c r="P57" s="302"/>
       <c r="W57">
         <f>MOD(X57,$AE$28)</f>
         <v>6</v>
@@ -18711,15 +18755,15 @@
         <v>16</v>
       </c>
       <c r="Y57">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="Z57">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AA57">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>16</v>
       </c>
       <c r="AB57" s="118">
@@ -18735,19 +18779,19 @@
         <v>1</v>
       </c>
       <c r="AF57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AG57" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AH57">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AI57" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
     </row>
@@ -18787,22 +18831,22 @@
         <v>9</v>
       </c>
       <c r="W58">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
       <c r="X58">
         <v>17</v>
       </c>
       <c r="Y58">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="Z58">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AA58">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>17</v>
       </c>
       <c r="AB58" s="118">
@@ -18818,19 +18862,19 @@
         <v>1</v>
       </c>
       <c r="AF58">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AG58" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AH58">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AI58" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
     </row>
@@ -18880,22 +18924,22 @@
         <v>10</v>
       </c>
       <c r="W59">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
       <c r="X59">
         <v>18</v>
       </c>
       <c r="Y59">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="Z59">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AA59">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>18</v>
       </c>
       <c r="AB59" s="118">
@@ -18911,19 +18955,19 @@
         <v>1</v>
       </c>
       <c r="AF59">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AG59" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AH59">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AI59" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
     </row>
@@ -18973,22 +19017,22 @@
         <v>0</v>
       </c>
       <c r="W60">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
       <c r="X60">
         <v>19</v>
       </c>
       <c r="Y60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="Z60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AA60">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>19</v>
       </c>
       <c r="AB60" s="118">
@@ -19004,19 +19048,19 @@
         <v>1</v>
       </c>
       <c r="AF60">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AG60" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AH60">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AI60" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
     </row>
@@ -19066,22 +19110,22 @@
         <v>0</v>
       </c>
       <c r="W61">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X61">
         <v>20</v>
       </c>
       <c r="Y61">
-        <f t="shared" si="28"/>
-        <v>20</v>
-      </c>
-      <c r="Z61">
         <f t="shared" si="29"/>
         <v>20</v>
       </c>
+      <c r="Z61">
+        <f t="shared" si="30"/>
+        <v>20</v>
+      </c>
       <c r="AA61">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AB61" s="118">
@@ -19097,19 +19141,19 @@
         <v>1</v>
       </c>
       <c r="AF61">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AG61" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AH61">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AI61" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
     </row>
@@ -19159,22 +19203,22 @@
         <v>0</v>
       </c>
       <c r="W62">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="X62">
         <v>21</v>
       </c>
       <c r="Y62">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>40</v>
       </c>
       <c r="Z62">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
       <c r="AA62">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AB62" s="118">
@@ -19190,19 +19234,19 @@
         <v>1</v>
       </c>
       <c r="AF62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AG62" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AH62">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AI62" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
     </row>
@@ -19216,35 +19260,35 @@
         <v>0</v>
       </c>
       <c r="H63" s="61">
-        <f t="shared" ref="H63:O63" si="45">SUM(H59:H62)</f>
+        <f t="shared" ref="H63:O63" si="46">SUM(H59:H62)</f>
         <v>60</v>
       </c>
       <c r="I63" s="61">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J63" s="61">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>80</v>
       </c>
       <c r="K63" s="61">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>70</v>
       </c>
       <c r="L63" s="61">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>25</v>
       </c>
       <c r="M63" s="61">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>100</v>
       </c>
       <c r="N63" s="61">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>100</v>
       </c>
       <c r="O63" s="61">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>50</v>
       </c>
       <c r="P63" s="62">
@@ -19252,22 +19296,22 @@
         <v>10</v>
       </c>
       <c r="W63">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="X63">
         <v>22</v>
       </c>
       <c r="Y63">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>40</v>
       </c>
       <c r="Z63">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
       <c r="AA63">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AB63" s="118">
@@ -19283,19 +19327,19 @@
         <v>1</v>
       </c>
       <c r="AF63">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AG63" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AH63">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AI63" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
     </row>
@@ -19321,22 +19365,22 @@
       <c r="O64" s="290"/>
       <c r="P64" s="291"/>
       <c r="W64">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="X64">
         <v>23</v>
       </c>
       <c r="Y64">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>40</v>
       </c>
       <c r="Z64">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
       <c r="AA64">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="AB64" s="118">
@@ -19352,19 +19396,19 @@
         <v>1</v>
       </c>
       <c r="AF64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AG64" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AH64">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AI64" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
     </row>
@@ -19381,61 +19425,61 @@
         <v>50</v>
       </c>
       <c r="H65" s="68">
-        <f t="shared" ref="H65:P65" si="46">G65+H64+H67-H63</f>
+        <f t="shared" ref="H65:P65" si="47">G65+H64+H67-H63</f>
         <v>30</v>
       </c>
       <c r="I65" s="68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>30</v>
       </c>
       <c r="J65" s="68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>30</v>
       </c>
       <c r="K65" s="68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>20</v>
       </c>
       <c r="L65" s="68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>35</v>
       </c>
       <c r="M65" s="68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>35</v>
       </c>
       <c r="N65" s="68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>35</v>
       </c>
       <c r="O65" s="68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="P65" s="69">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>35</v>
       </c>
       <c r="R65" s="70" t="s">
         <v>45</v>
       </c>
       <c r="W65">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="X65">
         <v>24</v>
       </c>
       <c r="Y65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>40</v>
       </c>
       <c r="Z65">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
       <c r="AA65">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="AB65" s="118">
@@ -19451,19 +19495,19 @@
         <v>1</v>
       </c>
       <c r="AF65">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AG65" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AH65">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AI65" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
     </row>
@@ -19480,61 +19524,61 @@
         <v>0</v>
       </c>
       <c r="H66" s="68">
-        <f t="shared" ref="H66:P66" si="47">IF(G65-H63+H64&lt;=$F$57, H63-H64-G65+$F$57,0)</f>
+        <f t="shared" ref="H66:P66" si="48">IF(G65-H63+H64&lt;=$F$57, H63-H64-G65+$F$57,0)</f>
         <v>30</v>
       </c>
       <c r="I66" s="68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="J66" s="68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>70</v>
       </c>
       <c r="K66" s="68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>60</v>
       </c>
       <c r="L66" s="68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="M66" s="68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>85</v>
       </c>
       <c r="N66" s="68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>85</v>
       </c>
       <c r="O66" s="68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>35</v>
       </c>
       <c r="P66" s="69">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>5</v>
       </c>
       <c r="R66" s="70" t="s">
         <v>48</v>
       </c>
       <c r="W66">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="X66">
         <v>25</v>
       </c>
       <c r="Y66">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>40</v>
       </c>
       <c r="Z66">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
       <c r="AA66">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="AB66" s="118">
@@ -19550,19 +19594,19 @@
         <v>1</v>
       </c>
       <c r="AF66">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AG66" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AH66">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AI66" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
     </row>
@@ -19572,62 +19616,62 @@
       </c>
       <c r="F67" s="71"/>
       <c r="G67" s="68">
-        <f t="shared" ref="G67:P67" si="48" xml:space="preserve"> CEILING(G66/$F$56,1)*$F$56</f>
+        <f t="shared" ref="G67:P67" si="49" xml:space="preserve"> CEILING(G66/$F$56,1)*$F$56</f>
         <v>0</v>
       </c>
       <c r="H67" s="68">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>40</v>
       </c>
       <c r="I67" s="68">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="J67" s="68">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>80</v>
       </c>
       <c r="K67" s="68">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>60</v>
       </c>
       <c r="L67" s="68">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>40</v>
       </c>
       <c r="M67" s="68">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>100</v>
       </c>
       <c r="N67" s="68">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>100</v>
       </c>
       <c r="O67" s="68">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>40</v>
       </c>
       <c r="P67" s="69">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>20</v>
       </c>
       <c r="W67">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
       <c r="X67">
         <v>26</v>
       </c>
       <c r="Y67">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>40</v>
       </c>
       <c r="Z67">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
       <c r="AA67">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>6</v>
       </c>
       <c r="AB67" s="118">
@@ -19643,19 +19687,19 @@
         <v>1</v>
       </c>
       <c r="AF67">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AG67" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AH67">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AI67" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
     </row>
@@ -19669,54 +19713,54 @@
         <v>40</v>
       </c>
       <c r="H68" s="75">
-        <f t="shared" ref="H68:P68" si="49">IF($Q$71 = "Choosing Supplier 1", I67, I67)</f>
+        <f t="shared" ref="H68:P68" si="50">IF($Q$71 = "Choosing Supplier 1", I67, I67)</f>
         <v>0</v>
       </c>
       <c r="I68" s="75">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>80</v>
       </c>
       <c r="J68" s="75">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>60</v>
       </c>
       <c r="K68" s="75">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>40</v>
       </c>
       <c r="L68" s="75">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>100</v>
       </c>
       <c r="M68" s="75">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>100</v>
       </c>
       <c r="N68" s="75">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>40</v>
       </c>
       <c r="O68" s="75">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>20</v>
       </c>
       <c r="P68" s="76">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="X68">
         <v>27</v>
       </c>
       <c r="Y68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>40</v>
       </c>
       <c r="Z68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
       <c r="AA68">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>7</v>
       </c>
       <c r="AB68" s="118">
@@ -19732,19 +19776,19 @@
         <v>1</v>
       </c>
       <c r="AF68">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AG68" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AH68">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AI68" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
     </row>
@@ -19758,54 +19802,54 @@
         <v>0</v>
       </c>
       <c r="H69" s="79">
-        <f t="shared" ref="H69:P69" si="50">QUOTIENT(MOD(H68+$F$51-1,$F$50),$F$51)</f>
+        <f t="shared" ref="H69:P69" si="51">QUOTIENT(MOD(H68+$F$51-1,$F$50),$F$51)</f>
         <v>0</v>
       </c>
       <c r="I69" s="79">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="J69" s="79">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="K69" s="79">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="L69" s="79">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M69" s="79">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="N69" s="79">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="O69" s="79">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="P69" s="80">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="X69">
         <v>28</v>
       </c>
       <c r="Y69">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>40</v>
       </c>
       <c r="Z69">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
       <c r="AA69">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
       <c r="AB69" s="118">
@@ -19821,19 +19865,19 @@
         <v>1</v>
       </c>
       <c r="AF69">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AG69" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AH69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AI69" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
     </row>
@@ -19848,54 +19892,54 @@
         <v>2</v>
       </c>
       <c r="H70" s="83">
-        <f t="shared" ref="H70:P70" si="51">QUOTIENT(H68+$F$51-1,$F$50)</f>
+        <f t="shared" ref="H70:P70" si="52">QUOTIENT(H68+$F$51-1,$F$50)</f>
         <v>0</v>
       </c>
       <c r="I70" s="83">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>4</v>
       </c>
       <c r="J70" s="83">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>3</v>
       </c>
       <c r="K70" s="83">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
       <c r="L70" s="83">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>5</v>
       </c>
       <c r="M70" s="83">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>5</v>
       </c>
       <c r="N70" s="83">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
       <c r="O70" s="83">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="P70" s="84">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X70">
         <v>29</v>
       </c>
       <c r="Y70">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>40</v>
       </c>
       <c r="Z70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
       <c r="AA70">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>9</v>
       </c>
       <c r="AB70" s="118">
@@ -19911,19 +19955,19 @@
         <v>1</v>
       </c>
       <c r="AF70">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AG70" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AH70">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AI70" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
     </row>
@@ -19937,39 +19981,39 @@
         <v>1000</v>
       </c>
       <c r="H71" s="87">
-        <f t="shared" ref="H71:P71" si="52">IF($Q$71="Choosing Supplier 1", H70*$G$50+H69*$G$51,H70*$G$52+H69*$G$53)</f>
+        <f t="shared" ref="H71:P71" si="53">IF($Q$71="Choosing Supplier 1", H70*$G$50+H69*$G$51,H70*$G$52+H69*$G$53)</f>
         <v>0</v>
       </c>
       <c r="I71" s="87">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>2000</v>
       </c>
       <c r="J71" s="87">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1500</v>
       </c>
       <c r="K71" s="87">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1000</v>
       </c>
       <c r="L71" s="87">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>2500</v>
       </c>
       <c r="M71" s="87">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>2500</v>
       </c>
       <c r="N71" s="87">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1000</v>
       </c>
       <c r="O71" s="87">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>500</v>
       </c>
       <c r="P71" s="88">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Q71" s="289" t="str">
@@ -19983,15 +20027,15 @@
         <v>30</v>
       </c>
       <c r="Y71">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>40</v>
       </c>
       <c r="Z71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
       <c r="AA71">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="AB71" s="118">
@@ -20007,19 +20051,19 @@
         <v>1</v>
       </c>
       <c r="AF71">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AG71" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AH71">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AI71" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
     </row>
@@ -20072,15 +20116,15 @@
         <v>31</v>
       </c>
       <c r="Y72">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>40</v>
       </c>
       <c r="Z72">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
       <c r="AA72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>11</v>
       </c>
       <c r="AB72" s="118">
@@ -20096,19 +20140,19 @@
         <v>2</v>
       </c>
       <c r="AF72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AG72" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AH72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AI72" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
     </row>
@@ -20121,43 +20165,43 @@
       </c>
       <c r="F73" s="94"/>
       <c r="G73" s="95">
-        <f t="shared" ref="G73:P73" si="53">G72*G68</f>
+        <f t="shared" ref="G73:P73" si="54">G72*G68</f>
         <v>8400</v>
       </c>
       <c r="H73" s="95">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I73" s="95">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>17040</v>
       </c>
       <c r="J73" s="95">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>12900</v>
       </c>
       <c r="K73" s="95">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>8600</v>
       </c>
       <c r="L73" s="95">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>21600</v>
       </c>
       <c r="M73" s="95">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>21400</v>
       </c>
       <c r="N73" s="95">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>8480</v>
       </c>
       <c r="O73" s="95">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>4200</v>
       </c>
       <c r="P73" s="134">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Q73" s="48" t="s">
@@ -20167,15 +20211,15 @@
         <v>32</v>
       </c>
       <c r="Y73">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>40</v>
       </c>
       <c r="Z73">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
       <c r="AA73">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>12</v>
       </c>
       <c r="AB73" s="118">
@@ -20191,19 +20235,19 @@
         <v>2</v>
       </c>
       <c r="AF73">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AG73" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AH73">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AI73" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
     </row>
@@ -20213,43 +20257,43 @@
       </c>
       <c r="F74" s="99"/>
       <c r="G74" s="100">
-        <f t="shared" ref="G74:P74" si="54">G71+G73</f>
+        <f t="shared" ref="G74:P74" si="55">G71+G73</f>
         <v>9400</v>
       </c>
       <c r="H74" s="100">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="I74" s="100">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>19040</v>
       </c>
       <c r="J74" s="100">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>14400</v>
       </c>
       <c r="K74" s="100">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>9600</v>
       </c>
       <c r="L74" s="100">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>24100</v>
       </c>
       <c r="M74" s="100">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>23900</v>
       </c>
       <c r="N74" s="100">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>9480</v>
       </c>
       <c r="O74" s="100">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>4700</v>
       </c>
       <c r="P74" s="101">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="Q74" s="48" t="s">
@@ -20259,15 +20303,15 @@
         <v>33</v>
       </c>
       <c r="Y74">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>40</v>
       </c>
       <c r="Z74">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
       <c r="AA74">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>13</v>
       </c>
       <c r="AB74" s="118">
@@ -20283,19 +20327,19 @@
         <v>2</v>
       </c>
       <c r="AF74">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AG74" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AH74">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AI74" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
     </row>
@@ -20348,15 +20392,15 @@
         <v>34</v>
       </c>
       <c r="Y75">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>40</v>
       </c>
       <c r="Z75">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
       <c r="AA75">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>14</v>
       </c>
       <c r="AB75" s="118">
@@ -20372,19 +20416,19 @@
         <v>2</v>
       </c>
       <c r="AF75">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AG75" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AH75">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AI75" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
     </row>
@@ -20398,39 +20442,39 @@
         <v>16440</v>
       </c>
       <c r="H76" s="104">
-        <f t="shared" ref="H76:P76" si="55">H75*H68</f>
+        <f t="shared" ref="H76:P76" si="56">H75*H68</f>
         <v>0</v>
       </c>
       <c r="I76" s="104">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>32960</v>
       </c>
       <c r="J76" s="104">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>24780</v>
       </c>
       <c r="K76" s="104">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>16720</v>
       </c>
       <c r="L76" s="104">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>42800</v>
       </c>
       <c r="M76" s="104">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>42600</v>
       </c>
       <c r="N76" s="104">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>16760</v>
       </c>
       <c r="O76" s="104">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>8300</v>
       </c>
       <c r="P76" s="105">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="Q76" s="48" t="s">
@@ -20440,15 +20484,15 @@
         <v>35</v>
       </c>
       <c r="Y76">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>40</v>
       </c>
       <c r="Z76">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
       <c r="AA76">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>15</v>
       </c>
       <c r="AB76" s="118">
@@ -20464,19 +20508,19 @@
         <v>2</v>
       </c>
       <c r="AF76">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AG76" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AH76">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AI76" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
     </row>
@@ -20490,39 +20534,39 @@
         <v>7040</v>
       </c>
       <c r="H77" s="108">
-        <f t="shared" ref="H77:P77" si="56">H76-H74</f>
+        <f t="shared" ref="H77:P77" si="57">H76-H74</f>
         <v>0</v>
       </c>
       <c r="I77" s="108">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>13920</v>
       </c>
       <c r="J77" s="108">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>10380</v>
       </c>
       <c r="K77" s="108">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>7120</v>
       </c>
       <c r="L77" s="108">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>18700</v>
       </c>
       <c r="M77" s="108">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>18700</v>
       </c>
       <c r="N77" s="108">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>7280</v>
       </c>
       <c r="O77" s="108">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>3600</v>
       </c>
       <c r="P77" s="109">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="Q77" s="48" t="s">
@@ -20532,15 +20576,15 @@
         <v>36</v>
       </c>
       <c r="Y77">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>40</v>
       </c>
       <c r="Z77">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
       <c r="AA77">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>16</v>
       </c>
       <c r="AB77" s="118">
@@ -20556,19 +20600,19 @@
         <v>2</v>
       </c>
       <c r="AF77">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AG77" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AH77">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AI77" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
     </row>
@@ -20578,11 +20622,11 @@
       </c>
       <c r="F78" s="215"/>
       <c r="G78" s="216">
-        <f t="shared" ref="G78:H78" si="57">IF($Q$71 = "Choosing Supplier 1", SUM(H59:H60), SUM(H59:H60))</f>
+        <f t="shared" ref="G78:H78" si="58">IF($Q$71 = "Choosing Supplier 1", SUM(H59:H60), SUM(H59:H60))</f>
         <v>20</v>
       </c>
       <c r="H78" s="216">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="I78" s="216">
@@ -20590,31 +20634,31 @@
         <v>20</v>
       </c>
       <c r="J78" s="216">
-        <f t="shared" ref="J78:P78" si="58">IF($Q$71 = "Choosing Supplier 1", SUM(K59:K60), SUM(K59:K60))</f>
+        <f t="shared" ref="J78:P78" si="59">IF($Q$71 = "Choosing Supplier 1", SUM(K59:K60), SUM(K59:K60))</f>
         <v>20</v>
       </c>
       <c r="K78" s="216">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>15</v>
       </c>
       <c r="L78" s="216">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>60</v>
       </c>
       <c r="M78" s="216">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>100</v>
       </c>
       <c r="N78" s="216">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="O78" s="216">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>10</v>
       </c>
       <c r="P78" s="217">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="Q78" s="48" t="s">
@@ -20624,15 +20668,15 @@
         <v>37</v>
       </c>
       <c r="Y78">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>40</v>
       </c>
       <c r="Z78">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
       <c r="AA78">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>17</v>
       </c>
       <c r="AB78" s="118">
@@ -20648,24 +20692,24 @@
         <v>2</v>
       </c>
       <c r="AF78">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AG78" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AH78">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AI78" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="4:35" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E79" s="298" t="s">
+      <c r="E79" s="296" t="s">
         <v>156</v>
       </c>
       <c r="F79" s="110"/>
@@ -20678,35 +20722,35 @@
         <v>0</v>
       </c>
       <c r="I79" s="79">
-        <f t="shared" ref="I79:P79" si="59">IF($Q$71= "Choosing Supplier 1", MIN(I$158,I$78), MIN(I$78,I$179))</f>
+        <f t="shared" ref="I79:P79" si="60">IF($Q$71= "Choosing Supplier 1", MIN(I$158,I$78), MIN(I$78,I$179))</f>
         <v>0</v>
       </c>
       <c r="J79" s="79">
-        <f t="shared" si="59"/>
-        <v>0</v>
+        <f t="shared" si="60"/>
+        <v>20</v>
       </c>
       <c r="K79" s="79">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="L79" s="79">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="M79" s="79">
-        <f t="shared" si="59"/>
-        <v>100</v>
+        <f t="shared" si="60"/>
+        <v>55</v>
       </c>
       <c r="N79" s="79">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="O79" s="79">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="P79" s="80">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="Q79" s="48"/>
@@ -20714,15 +20758,15 @@
         <v>38</v>
       </c>
       <c r="Y79">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>40</v>
       </c>
       <c r="Z79">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
       <c r="AA79">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>18</v>
       </c>
       <c r="AB79" s="118">
@@ -20738,19 +20782,19 @@
         <v>2</v>
       </c>
       <c r="AF79">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AG79" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AH79">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AI79" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
     </row>
@@ -20759,44 +20803,44 @@
         <v>160</v>
       </c>
       <c r="F80" s="262"/>
-      <c r="G80" s="301">
+      <c r="G80" s="299">
         <f>MIN(MAX(CEILING(IF($Q$71 = "Choosing Supplier 1", G$158,G$179)/$F$56,1)*$F$56,0),G78)</f>
         <v>0</v>
       </c>
-      <c r="H80" s="301">
-        <f t="shared" ref="H80:P80" si="60">MIN(MAX(CEILING(IF($Q$71 = "Choosing Supplier 1", H$158,H$179)/$F$56,1)*$F$56,0),H78)</f>
-        <v>0</v>
-      </c>
-      <c r="I80" s="301">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="J80" s="301">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="K80" s="301">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="L80" s="301">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="M80" s="301">
-        <f t="shared" si="60"/>
-        <v>100</v>
-      </c>
-      <c r="N80" s="301">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="O80" s="301">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="P80" s="302">
-        <f t="shared" si="60"/>
+      <c r="H80" s="299">
+        <f t="shared" ref="H80:P80" si="61">MIN(MAX(CEILING(IF($Q$71 = "Choosing Supplier 1", H$158,H$179)/$F$56,1)*$F$56,0),H78)</f>
+        <v>0</v>
+      </c>
+      <c r="I80" s="299">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="299">
+        <f t="shared" si="61"/>
+        <v>20</v>
+      </c>
+      <c r="K80" s="299">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="L80" s="299">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="M80" s="299">
+        <f t="shared" si="61"/>
+        <v>60</v>
+      </c>
+      <c r="N80" s="299">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="O80" s="299">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="P80" s="300">
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="Q80" s="48"/>
@@ -20805,10 +20849,10 @@
       <c r="AD80" s="124"/>
       <c r="AE80" s="125"/>
       <c r="AG80" s="126"/>
-      <c r="AI80" s="297"/>
+      <c r="AI80" s="295"/>
     </row>
     <row r="81" spans="4:35" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="299" t="s">
+      <c r="E81" s="297" t="s">
         <v>125</v>
       </c>
       <c r="F81" s="262"/>
@@ -20817,39 +20861,39 @@
         <v>0</v>
       </c>
       <c r="H81" s="263">
-        <f t="shared" ref="H81:P81" si="61">MIN(MAX(CEILING(IF($Q$71 = "Choosing Supplier 1", H$158,H$179)/$F$56,1)*$F$56-IF($Q$71 = "Choosing Supplier 1",I67-I66, I67-I66),0),H78)</f>
+        <f t="shared" ref="H81:P81" si="62">MIN(MAX(CEILING(IF($Q$71 = "Choosing Supplier 1", H$158,H$179)/$F$56,1)*$F$56-IF($Q$71 = "Choosing Supplier 1",I67-I66, I67-I66),0),H78)</f>
         <v>0</v>
       </c>
       <c r="I81" s="263">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="J81" s="263">
-        <f t="shared" si="61"/>
-        <v>0</v>
+        <f t="shared" si="62"/>
+        <v>20</v>
       </c>
       <c r="K81" s="263">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="L81" s="263">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="M81" s="263">
-        <f t="shared" si="61"/>
-        <v>100</v>
+        <f t="shared" si="62"/>
+        <v>45</v>
       </c>
       <c r="N81" s="263">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="O81" s="263">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="P81" s="264">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="Q81" t="s">
@@ -20872,19 +20916,19 @@
       </c>
       <c r="F82" s="159"/>
       <c r="G82" s="83">
-        <f t="shared" ref="G82:J82" si="62">IF($Q$71="Choosing Supplier 1", QUOTIENT(MOD(G81+$F$51-1,$F$50),$F$51),QUOTIENT(MOD(G81+$F$53-1,$F$52),$F$53))</f>
+        <f t="shared" ref="G82:J82" si="63">IF($Q$71="Choosing Supplier 1", QUOTIENT(MOD(G81+$F$51-1,$F$50),$F$51),QUOTIENT(MOD(G81+$F$53-1,$F$52),$F$53))</f>
         <v>0</v>
       </c>
       <c r="H82" s="83">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I82" s="83">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J82" s="83">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="K82" s="83">
@@ -20892,23 +20936,23 @@
         <v>0</v>
       </c>
       <c r="L82" s="83">
-        <f t="shared" ref="L82:P82" si="63">IF($Q$71="Choosing Supplier 1", QUOTIENT(MOD(L81+$F$51-1,$F$50),$F$51),QUOTIENT(MOD(L81+$F$53-1,$F$52),$F$53))</f>
+        <f t="shared" ref="L82:P82" si="64">IF($Q$71="Choosing Supplier 1", QUOTIENT(MOD(L81+$F$51-1,$F$50),$F$51),QUOTIENT(MOD(L81+$F$53-1,$F$52),$F$53))</f>
         <v>0</v>
       </c>
       <c r="M82" s="83">
-        <f t="shared" si="63"/>
-        <v>0</v>
+        <f t="shared" si="64"/>
+        <v>1</v>
       </c>
       <c r="N82" s="83">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="O82" s="83">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="P82" s="84">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="Q82" s="132" t="s">
@@ -20921,15 +20965,15 @@
         <v>39</v>
       </c>
       <c r="Y82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>40</v>
       </c>
       <c r="Z82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
       <c r="AA82">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>19</v>
       </c>
       <c r="AB82" s="118">
@@ -20945,19 +20989,19 @@
         <v>2</v>
       </c>
       <c r="AF82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AG82" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AH82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AI82" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
     </row>
@@ -20967,43 +21011,43 @@
       </c>
       <c r="F83" s="82"/>
       <c r="G83" s="83">
-        <f t="shared" ref="G83:J83" si="64">IF($Q$71="Choosing Supplier 1", QUOTIENT(G81+$F$51-1,$F$50),QUOTIENT(G81+$F$53-1,$F$52))</f>
+        <f t="shared" ref="G83:J83" si="65">IF($Q$71="Choosing Supplier 1", QUOTIENT(G81+$F$51-1,$F$50),QUOTIENT(G81+$F$53-1,$F$52))</f>
         <v>0</v>
       </c>
       <c r="H83" s="83">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I83" s="83">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="J83" s="83">
-        <f t="shared" si="64"/>
-        <v>0</v>
+        <f t="shared" si="65"/>
+        <v>1</v>
       </c>
       <c r="K83" s="83">
         <f>IF($Q$71="Choosing Supplier 1", QUOTIENT(K81+$F$51-1,$F$50),QUOTIENT(K81+$F$53-1,$F$52))</f>
         <v>0</v>
       </c>
       <c r="L83" s="83">
-        <f t="shared" ref="L83:P83" si="65">IF($Q$71="Choosing Supplier 1", QUOTIENT(L81+$F$51-1,$F$50),QUOTIENT(L81+$F$53-1,$F$52))</f>
+        <f t="shared" ref="L83:P83" si="66">IF($Q$71="Choosing Supplier 1", QUOTIENT(L81+$F$51-1,$F$50),QUOTIENT(L81+$F$53-1,$F$52))</f>
         <v>0</v>
       </c>
       <c r="M83" s="83">
-        <f t="shared" si="65"/>
-        <v>5</v>
+        <f t="shared" si="66"/>
+        <v>2</v>
       </c>
       <c r="N83" s="83">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="O83" s="83">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="P83" s="84">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="Q83" s="132" t="s">
@@ -21013,15 +21057,15 @@
         <v>40</v>
       </c>
       <c r="Y83">
-        <f t="shared" si="28"/>
-        <v>40</v>
-      </c>
-      <c r="Z83">
         <f t="shared" si="29"/>
         <v>40</v>
       </c>
+      <c r="Z83">
+        <f t="shared" si="30"/>
+        <v>40</v>
+      </c>
       <c r="AA83">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AB83" s="118">
@@ -21037,65 +21081,65 @@
         <v>2</v>
       </c>
       <c r="AF83">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AG83" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AH83">
-        <f t="shared" si="33"/>
-        <v>2</v>
-      </c>
-      <c r="AI83" s="127">
         <f t="shared" si="34"/>
         <v>2</v>
       </c>
+      <c r="AI83" s="127">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="84" spans="4:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E84" s="300" t="s">
+      <c r="E84" s="298" t="s">
         <v>73</v>
       </c>
       <c r="F84" s="129"/>
       <c r="G84" s="130">
-        <f t="shared" ref="G84:J84" si="66">IF($Q$71="Choosing Supplier 1", G83*$G$50+G82*$G$51, G83*$G$52+G82*$G$53)</f>
+        <f t="shared" ref="G84:J84" si="67">IF($Q$71="Choosing Supplier 1", G83*$G$50+G82*$G$51, G83*$G$52+G82*$G$53)</f>
         <v>0</v>
       </c>
       <c r="H84" s="130">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="I84" s="130">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="J84" s="130">
-        <f t="shared" si="66"/>
-        <v>0</v>
+        <f t="shared" si="67"/>
+        <v>500</v>
       </c>
       <c r="K84" s="130">
         <f>IF($Q$71="Choosing Supplier 1", K83*$G$50+K82*$G$51, K83*$G$52+K82*$G$53)</f>
         <v>0</v>
       </c>
       <c r="L84" s="130">
-        <f t="shared" ref="L84:P84" si="67">IF($Q$71="Choosing Supplier 1", L83*$G$50+L82*$G$51, L83*$G$52+L82*$G$53)</f>
+        <f t="shared" ref="L84:P84" si="68">IF($Q$71="Choosing Supplier 1", L83*$G$50+L82*$G$51, L83*$G$52+L82*$G$53)</f>
         <v>0</v>
       </c>
       <c r="M84" s="130">
-        <f t="shared" si="67"/>
-        <v>2500</v>
+        <f t="shared" si="68"/>
+        <v>1280</v>
       </c>
       <c r="N84" s="130">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="O84" s="130">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="P84" s="131">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="Q84" s="132" t="s">
@@ -21105,15 +21149,15 @@
         <v>41</v>
       </c>
       <c r="Y84">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>60</v>
       </c>
       <c r="Z84">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>40</v>
       </c>
       <c r="AA84">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AB84" s="118">
@@ -21129,19 +21173,19 @@
         <v>2</v>
       </c>
       <c r="AF84">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AG84" s="126">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AH84">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="AI84" s="127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
     </row>
@@ -21154,43 +21198,43 @@
       </c>
       <c r="F85" s="90"/>
       <c r="G85" s="138">
-        <f t="shared" ref="G85:J85" si="68">G81*G72</f>
+        <f t="shared" ref="G85:J85" si="69">G81*G72</f>
         <v>0</v>
       </c>
       <c r="H85" s="138">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="I85" s="138">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="J85" s="138">
-        <f t="shared" si="68"/>
-        <v>0</v>
+        <f t="shared" si="69"/>
+        <v>4300</v>
       </c>
       <c r="K85" s="138">
         <f>K81*K72</f>
         <v>0</v>
       </c>
       <c r="L85" s="138">
-        <f t="shared" ref="L85:P85" si="69">L81*L72</f>
+        <f t="shared" ref="L85:P85" si="70">L81*L72</f>
         <v>0</v>
       </c>
       <c r="M85" s="138">
-        <f t="shared" si="69"/>
-        <v>21400</v>
+        <f t="shared" si="70"/>
+        <v>9630</v>
       </c>
       <c r="N85" s="138">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="O85" s="138">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="P85" s="139">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="Q85" s="132" t="s">
@@ -21200,15 +21244,15 @@
         <v>42</v>
       </c>
       <c r="Y85">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>60</v>
       </c>
       <c r="Z85">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>40</v>
       </c>
       <c r="AA85">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AB85" s="118">
@@ -21224,19 +21268,19 @@
         <v>2</v>
       </c>
       <c r="AF85" s="164">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AG85" s="165">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AH85" s="164">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="AI85" s="166">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
     </row>
@@ -21251,39 +21295,39 @@
         <v>0</v>
       </c>
       <c r="H86" s="108">
-        <f t="shared" ref="H86:P86" si="70">H85+H84</f>
+        <f t="shared" ref="H86:P86" si="71">H85+H84</f>
         <v>0</v>
       </c>
       <c r="I86" s="108">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="J86" s="108">
-        <f t="shared" si="70"/>
-        <v>0</v>
+        <f t="shared" si="71"/>
+        <v>4800</v>
       </c>
       <c r="K86" s="108">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="L86" s="108">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="M86" s="108">
-        <f t="shared" si="70"/>
-        <v>23900</v>
+        <f t="shared" si="71"/>
+        <v>10910</v>
       </c>
       <c r="N86" s="108">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="O86" s="108">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="P86" s="109">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="Q86" s="132" t="s">
@@ -21297,43 +21341,43 @@
       </c>
       <c r="F87" s="90"/>
       <c r="G87" s="138">
-        <f t="shared" ref="G87:J87" si="71">G81*G75</f>
+        <f t="shared" ref="G87:J87" si="72">G81*G75</f>
         <v>0</v>
       </c>
       <c r="H87" s="138">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="I87" s="138">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="J87" s="138">
-        <f t="shared" si="71"/>
-        <v>0</v>
+        <f t="shared" si="72"/>
+        <v>8260</v>
       </c>
       <c r="K87" s="138">
         <f>K81*K75</f>
         <v>0</v>
       </c>
       <c r="L87" s="138">
-        <f t="shared" ref="L87:P87" si="72">L81*L75</f>
+        <f t="shared" ref="L87:P87" si="73">L81*L75</f>
         <v>0</v>
       </c>
       <c r="M87" s="138">
-        <f t="shared" si="72"/>
-        <v>42600</v>
+        <f t="shared" si="73"/>
+        <v>19170</v>
       </c>
       <c r="N87" s="138">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="O87" s="138">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="P87" s="139">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="Q87" s="132" t="s">
@@ -21355,35 +21399,35 @@
         <v>0</v>
       </c>
       <c r="I88" s="141">
-        <f t="shared" ref="I88:P88" si="73">I87-I86</f>
+        <f t="shared" ref="I88:P88" si="74">I87-I86</f>
         <v>0</v>
       </c>
       <c r="J88" s="141">
-        <f t="shared" si="73"/>
-        <v>0</v>
+        <f t="shared" si="74"/>
+        <v>3460</v>
       </c>
       <c r="K88" s="141">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="L88" s="141">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="M88" s="141">
-        <f t="shared" si="73"/>
-        <v>18700</v>
+        <f t="shared" si="74"/>
+        <v>8260</v>
       </c>
       <c r="N88" s="141">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="O88" s="141">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="P88" s="143">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="Q88" s="48" t="s">
@@ -21408,35 +21452,35 @@
         <v>0</v>
       </c>
       <c r="I89" s="146">
-        <f t="shared" ref="I89:P89" si="74">I77-I88</f>
+        <f t="shared" ref="I89:P89" si="75">I77-I88</f>
         <v>13920</v>
       </c>
       <c r="J89" s="146">
-        <f t="shared" si="74"/>
-        <v>10380</v>
+        <f t="shared" si="75"/>
+        <v>6920</v>
       </c>
       <c r="K89" s="146">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>7120</v>
       </c>
       <c r="L89" s="146">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>18700</v>
       </c>
       <c r="M89" s="146">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <f t="shared" si="75"/>
+        <v>10440</v>
       </c>
       <c r="N89" s="146">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>7280</v>
       </c>
       <c r="O89" s="146">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3600</v>
       </c>
       <c r="P89" s="147">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="Q89" s="132" t="s">
@@ -21450,43 +21494,43 @@
       </c>
       <c r="F90" s="149"/>
       <c r="G90" s="150">
-        <f t="shared" ref="G90:P90" si="75">G78/G68</f>
+        <f t="shared" ref="G90:P90" si="76">G78/G68</f>
         <v>0.5</v>
       </c>
       <c r="H90" s="150" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I90" s="150">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.25</v>
       </c>
       <c r="J90" s="150">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="K90" s="150">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.375</v>
       </c>
       <c r="L90" s="150">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.6</v>
       </c>
       <c r="M90" s="150">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
       <c r="N90" s="150">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="O90" s="150">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.5</v>
       </c>
       <c r="P90" s="150" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB90" s="167"/>
@@ -21497,43 +21541,43 @@
       </c>
       <c r="F91" s="149"/>
       <c r="G91" s="150">
-        <f t="shared" ref="G91:P91" si="76">G86/G74</f>
+        <f t="shared" ref="G91:P91" si="77">G86/G74</f>
         <v>0</v>
       </c>
       <c r="H91" s="150" t="e">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I91" s="150">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J91" s="150">
-        <f t="shared" si="76"/>
-        <v>0</v>
+        <f t="shared" si="77"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K91" s="150">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="L91" s="150">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="M91" s="150">
-        <f t="shared" si="76"/>
-        <v>1</v>
+        <f t="shared" si="77"/>
+        <v>0.45648535564853554</v>
       </c>
       <c r="N91" s="150">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="O91" s="150">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="P91" s="150" t="e">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB91" s="167"/>
@@ -21544,43 +21588,43 @@
       </c>
       <c r="F92" s="151"/>
       <c r="G92" s="150">
-        <f t="shared" ref="G92:P92" si="77">G88/G77</f>
+        <f t="shared" ref="G92:P92" si="78">G88/G77</f>
         <v>0</v>
       </c>
       <c r="H92" s="150" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I92" s="150">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="J92" s="150">
-        <f t="shared" si="77"/>
-        <v>0</v>
+        <f t="shared" si="78"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K92" s="150">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="L92" s="150">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="M92" s="150">
-        <f t="shared" si="77"/>
-        <v>1</v>
+        <f t="shared" si="78"/>
+        <v>0.44171122994652406</v>
       </c>
       <c r="N92" s="150">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="O92" s="150">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="P92" s="150" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB92" s="167"/>
@@ -21687,7 +21731,7 @@
       <c r="G100" t="s">
         <v>34</v>
       </c>
-      <c r="P100" s="295">
+      <c r="P100" s="301">
         <v>3</v>
       </c>
       <c r="AB100" s="167"/>
@@ -21703,7 +21747,7 @@
       <c r="G101" t="s">
         <v>34</v>
       </c>
-      <c r="P101" s="295"/>
+      <c r="P101" s="301"/>
       <c r="AB101" s="167"/>
     </row>
     <row r="102" spans="5:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -21720,7 +21764,7 @@
       <c r="L102" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="P102" s="295"/>
+      <c r="P102" s="301"/>
     </row>
     <row r="103" spans="5:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E103" s="1" t="s">
@@ -21733,7 +21777,7 @@
       <c r="G103" t="s">
         <v>35</v>
       </c>
-      <c r="P103" s="296"/>
+      <c r="P103" s="302"/>
     </row>
     <row r="104" spans="5:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F104" s="53" t="s">
@@ -21801,7 +21845,7 @@
       </c>
       <c r="M105" s="65">
         <f>'DC3'!I13</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N105" s="65">
         <f>'DC3'!J13</f>
@@ -21964,39 +22008,39 @@
         <v>40</v>
       </c>
       <c r="H109" s="207">
-        <f t="shared" ref="H109:P109" si="78">SUM(H105:H108)</f>
+        <f t="shared" ref="H109:P109" si="79">SUM(H105:H108)</f>
         <v>70</v>
       </c>
       <c r="I109" s="207">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>70</v>
       </c>
       <c r="J109" s="207">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>50</v>
       </c>
       <c r="K109" s="207">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>50</v>
       </c>
       <c r="L109" s="207">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>20</v>
       </c>
       <c r="M109" s="207">
-        <f t="shared" si="78"/>
-        <v>230</v>
+        <f t="shared" si="79"/>
+        <v>130</v>
       </c>
       <c r="N109" s="207">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>15</v>
       </c>
       <c r="O109" s="207">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>30</v>
       </c>
       <c r="P109" s="208">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>30</v>
       </c>
     </row>
@@ -22035,40 +22079,40 @@
         <v>15</v>
       </c>
       <c r="H111" s="175">
-        <f t="shared" ref="H111:P111" si="79">G111+H110+H113-H109</f>
+        <f t="shared" ref="H111:P111" si="80">G111+H110+H113-H109</f>
         <v>20</v>
       </c>
       <c r="I111" s="175">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>10</v>
       </c>
       <c r="J111" s="175">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>20</v>
       </c>
       <c r="K111" s="175">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>15</v>
       </c>
       <c r="L111" s="175">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>10</v>
       </c>
       <c r="M111" s="175">
-        <f t="shared" si="79"/>
-        <v>20</v>
+        <f t="shared" si="80"/>
+        <v>15</v>
       </c>
       <c r="N111" s="175">
-        <f t="shared" si="79"/>
-        <v>20</v>
+        <f t="shared" si="80"/>
+        <v>15</v>
       </c>
       <c r="O111" s="175">
-        <f t="shared" si="79"/>
-        <v>20</v>
+        <f t="shared" si="80"/>
+        <v>15</v>
       </c>
       <c r="P111" s="176">
-        <f t="shared" si="79"/>
-        <v>20</v>
+        <f t="shared" si="80"/>
+        <v>15</v>
       </c>
       <c r="R111" s="70" t="s">
         <v>45</v>
@@ -22084,40 +22128,40 @@
         <v>10</v>
       </c>
       <c r="H112" s="68">
-        <f t="shared" ref="H112:P112" si="80">IF(G111-H109+H110&lt;=$F$103, H109-H110-G111+$F$103,0)</f>
+        <f t="shared" ref="H112:P112" si="81">IF(G111-H109+H110&lt;=$F$103, H109-H110-G111+$F$103,0)</f>
         <v>65</v>
       </c>
       <c r="I112" s="68">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>60</v>
       </c>
       <c r="J112" s="68">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>50</v>
       </c>
       <c r="K112" s="68">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>40</v>
       </c>
       <c r="L112" s="68">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>15</v>
       </c>
       <c r="M112" s="68">
-        <f t="shared" si="80"/>
-        <v>230</v>
+        <f t="shared" si="81"/>
+        <v>130</v>
       </c>
       <c r="N112" s="68">
-        <f t="shared" si="80"/>
-        <v>5</v>
+        <f t="shared" si="81"/>
+        <v>10</v>
       </c>
       <c r="O112" s="68">
-        <f t="shared" si="80"/>
-        <v>20</v>
+        <f t="shared" si="81"/>
+        <v>25</v>
       </c>
       <c r="P112" s="69">
-        <f t="shared" si="80"/>
-        <v>20</v>
+        <f t="shared" si="81"/>
+        <v>25</v>
       </c>
       <c r="R112" s="70" t="s">
         <v>48</v>
@@ -22133,39 +22177,39 @@
         <v>15</v>
       </c>
       <c r="H113" s="175">
-        <f t="shared" ref="H113:P113" si="81" xml:space="preserve"> CEILING(H112/$F$102,1)*$F$102</f>
+        <f t="shared" ref="H113:P113" si="82" xml:space="preserve"> CEILING(H112/$F$102,1)*$F$102</f>
         <v>75</v>
       </c>
       <c r="I113" s="175">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>60</v>
       </c>
       <c r="J113" s="175">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>60</v>
       </c>
       <c r="K113" s="175">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>45</v>
       </c>
       <c r="L113" s="175">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>15</v>
       </c>
       <c r="M113" s="175">
-        <f t="shared" si="81"/>
-        <v>240</v>
+        <f t="shared" si="82"/>
+        <v>135</v>
       </c>
       <c r="N113" s="175">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>15</v>
       </c>
       <c r="O113" s="175">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>30</v>
       </c>
       <c r="P113" s="176">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>30</v>
       </c>
     </row>
@@ -22179,39 +22223,39 @@
         <v>15</v>
       </c>
       <c r="H114" s="75">
-        <f t="shared" ref="H114:P114" si="82">IF($Q$117 = "Choosing Supplier 1", H113, I113)</f>
+        <f t="shared" ref="H114:P114" si="83">IF($Q$117 = "Choosing Supplier 1", H113, I113)</f>
         <v>75</v>
       </c>
       <c r="I114" s="75">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>60</v>
       </c>
       <c r="J114" s="75">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>60</v>
       </c>
       <c r="K114" s="75">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>45</v>
       </c>
       <c r="L114" s="75">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>15</v>
       </c>
       <c r="M114" s="75">
-        <f t="shared" si="82"/>
-        <v>240</v>
+        <f t="shared" si="83"/>
+        <v>135</v>
       </c>
       <c r="N114" s="75">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>15</v>
       </c>
       <c r="O114" s="75">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>30</v>
       </c>
       <c r="P114" s="76">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>30</v>
       </c>
     </row>
@@ -22225,7 +22269,7 @@
         <v>0</v>
       </c>
       <c r="H115" s="79">
-        <f t="shared" ref="H115:P115" si="83">QUOTIENT(MOD(H114+$F$97-1,$F$96),$F$97)</f>
+        <f t="shared" ref="H115:P115" si="84">QUOTIENT(MOD(H114+$F$97-1,$F$96),$F$97)</f>
         <v>0</v>
       </c>
       <c r="I115" s="79">
@@ -22233,31 +22277,31 @@
         <v>0</v>
       </c>
       <c r="J115" s="79">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="K115" s="79">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="L115" s="79">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="M115" s="79">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="N115" s="79">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="O115" s="79">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="P115" s="80">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
     </row>
@@ -22272,39 +22316,39 @@
         <v>1</v>
       </c>
       <c r="H116" s="83">
-        <f t="shared" ref="H116:P116" si="84">QUOTIENT(H114+$F$97-1,$F$96)</f>
+        <f t="shared" ref="H116:P116" si="85">QUOTIENT(H114+$F$97-1,$F$96)</f>
         <v>4</v>
       </c>
       <c r="I116" s="83">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>3</v>
       </c>
       <c r="J116" s="83">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>3</v>
       </c>
       <c r="K116" s="83">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>2</v>
       </c>
       <c r="L116" s="83">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>1</v>
       </c>
       <c r="M116" s="83">
-        <f t="shared" si="84"/>
-        <v>12</v>
+        <f t="shared" si="85"/>
+        <v>7</v>
       </c>
       <c r="N116" s="83">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>1</v>
       </c>
       <c r="O116" s="83">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>1</v>
       </c>
       <c r="P116" s="84">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>1</v>
       </c>
     </row>
@@ -22318,39 +22362,39 @@
         <v>200</v>
       </c>
       <c r="H117" s="87">
-        <f t="shared" ref="H117:P117" si="85">IF($Q$117="Choosing Supplier 1", H116*$G$96+H115*$G$97,H116*$G$98+H115*$G$99)</f>
+        <f t="shared" ref="H117:P117" si="86">IF($Q$117="Choosing Supplier 1", H116*$G$96+H115*$G$97,H116*$G$98+H115*$G$99)</f>
         <v>800</v>
       </c>
       <c r="I117" s="87">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>600</v>
       </c>
       <c r="J117" s="87">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>600</v>
       </c>
       <c r="K117" s="87">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>520</v>
       </c>
       <c r="L117" s="87">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>200</v>
       </c>
       <c r="M117" s="87">
-        <f t="shared" si="85"/>
-        <v>2400</v>
+        <f t="shared" si="86"/>
+        <v>1400</v>
       </c>
       <c r="N117" s="87">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>200</v>
       </c>
       <c r="O117" s="87">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>320</v>
       </c>
       <c r="P117" s="88">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>320</v>
       </c>
       <c r="Q117" s="289" t="str">
@@ -22420,39 +22464,39 @@
         <v>3150</v>
       </c>
       <c r="H119" s="95">
-        <f t="shared" ref="H119:P119" si="86">H118*H114</f>
+        <f t="shared" ref="H119:P119" si="87">H118*H114</f>
         <v>15825</v>
       </c>
       <c r="I119" s="95">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>12780</v>
       </c>
       <c r="J119" s="95">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>12900</v>
       </c>
       <c r="K119" s="95">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>9675</v>
       </c>
       <c r="L119" s="95">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>3240</v>
       </c>
       <c r="M119" s="95">
-        <f t="shared" si="86"/>
-        <v>51360</v>
+        <f t="shared" si="87"/>
+        <v>28890</v>
       </c>
       <c r="N119" s="95">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>3180</v>
       </c>
       <c r="O119" s="95">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>6300</v>
       </c>
       <c r="P119" s="134">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>6270</v>
       </c>
       <c r="Q119" s="48" t="s">
@@ -22465,43 +22509,43 @@
       </c>
       <c r="F120" s="99"/>
       <c r="G120" s="100">
-        <f t="shared" ref="G120:P120" si="87">G117+G119</f>
+        <f t="shared" ref="G120:P120" si="88">G117+G119</f>
         <v>3350</v>
       </c>
       <c r="H120" s="100">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>16625</v>
       </c>
       <c r="I120" s="100">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>13380</v>
       </c>
       <c r="J120" s="100">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>13500</v>
       </c>
       <c r="K120" s="100">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>10195</v>
       </c>
       <c r="L120" s="100">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>3440</v>
       </c>
       <c r="M120" s="100">
-        <f t="shared" si="87"/>
-        <v>53760</v>
+        <f t="shared" si="88"/>
+        <v>30290</v>
       </c>
       <c r="N120" s="100">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>3380</v>
       </c>
       <c r="O120" s="100">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>6620</v>
       </c>
       <c r="P120" s="101">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>6590</v>
       </c>
       <c r="Q120" s="48" t="s">
@@ -22564,39 +22608,39 @@
         <v>6150</v>
       </c>
       <c r="H122" s="104">
-        <f t="shared" ref="H122:P122" si="88">H121*H114</f>
+        <f t="shared" ref="H122:P122" si="89">H121*H114</f>
         <v>30975</v>
       </c>
       <c r="I122" s="104">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>24600</v>
       </c>
       <c r="J122" s="104">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>24900</v>
       </c>
       <c r="K122" s="104">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>18810</v>
       </c>
       <c r="L122" s="104">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>6450</v>
       </c>
       <c r="M122" s="104">
-        <f t="shared" si="88"/>
-        <v>101520</v>
+        <f t="shared" si="89"/>
+        <v>57105</v>
       </c>
       <c r="N122" s="104">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>6285</v>
       </c>
       <c r="O122" s="104">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>12510</v>
       </c>
       <c r="P122" s="105">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>12660</v>
       </c>
       <c r="Q122" s="48" t="s">
@@ -22613,39 +22657,39 @@
         <v>2800</v>
       </c>
       <c r="H123" s="108">
-        <f t="shared" ref="H123:P123" si="89">H122-H120</f>
+        <f t="shared" ref="H123:P123" si="90">H122-H120</f>
         <v>14350</v>
       </c>
       <c r="I123" s="108">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>11220</v>
       </c>
       <c r="J123" s="108">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>11400</v>
       </c>
       <c r="K123" s="108">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>8615</v>
       </c>
       <c r="L123" s="108">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>3010</v>
       </c>
       <c r="M123" s="108">
-        <f t="shared" si="89"/>
-        <v>47760</v>
+        <f t="shared" si="90"/>
+        <v>26815</v>
       </c>
       <c r="N123" s="108">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>2905</v>
       </c>
       <c r="O123" s="108">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>5890</v>
       </c>
       <c r="P123" s="109">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>6070</v>
       </c>
       <c r="Q123" s="48" t="s">
@@ -22680,35 +22724,35 @@
         <v>50</v>
       </c>
       <c r="I124" s="216">
-        <f t="shared" ref="I124:P124" si="90">IF($Q$117="Choosing Supplier 1", SUM(I105:I106), SUM(J105:J106))</f>
+        <f t="shared" ref="I124:P124" si="91">IF($Q$117="Choosing Supplier 1", SUM(I105:I106), SUM(J105:J106))</f>
         <v>30</v>
       </c>
       <c r="J124" s="216">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>20</v>
       </c>
       <c r="K124" s="216">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>10</v>
       </c>
       <c r="L124" s="216">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="M124" s="216">
-        <f t="shared" si="90"/>
-        <v>200</v>
+        <f t="shared" si="91"/>
+        <v>100</v>
       </c>
       <c r="N124" s="216">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>15</v>
       </c>
       <c r="O124" s="216">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="P124" s="217">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>10</v>
       </c>
       <c r="Q124" s="48" t="s">
@@ -22739,39 +22783,39 @@
         <v>0</v>
       </c>
       <c r="H125" s="79">
-        <f t="shared" ref="H125:P125" si="91">IF($Q$117= "Choosing Supplier 1", MIN(H$158,H$124), MIN(H$124,H$179))</f>
+        <f t="shared" ref="H125:P125" si="92">IF($Q$117= "Choosing Supplier 1", MIN(H$158,H$124), MIN(H$124,H$179))</f>
         <v>0</v>
       </c>
       <c r="I125" s="79">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="J125" s="79">
-        <f t="shared" si="91"/>
-        <v>0</v>
+        <f t="shared" si="92"/>
+        <v>20</v>
       </c>
       <c r="K125" s="79">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="L125" s="79">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="M125" s="79">
-        <f t="shared" si="91"/>
-        <v>140</v>
+        <f t="shared" si="92"/>
+        <v>55</v>
       </c>
       <c r="N125" s="79">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="O125" s="79">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="P125" s="80">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="Q125" s="48"/>
@@ -22795,44 +22839,44 @@
         <v>160</v>
       </c>
       <c r="F126" s="262"/>
-      <c r="G126" s="301">
+      <c r="G126" s="299">
         <f>MIN(MAX(CEILING(IF($Q$117 = "Choosing Supplier 1", G$158,G$179)/$F$102,1)*$F$102,0),G124)</f>
         <v>0</v>
       </c>
-      <c r="H126" s="301">
-        <f t="shared" ref="H126:P126" si="92">MIN(MAX(CEILING(IF($Q$117 = "Choosing Supplier 1", H$158,H$179)/$F$102,1)*$F$102,0),H124)</f>
-        <v>0</v>
-      </c>
-      <c r="I126" s="301">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="J126" s="301">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="K126" s="301">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="L126" s="301">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="M126" s="301">
-        <f t="shared" si="92"/>
-        <v>150</v>
-      </c>
-      <c r="N126" s="301">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="O126" s="301">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="P126" s="302">
-        <f t="shared" si="92"/>
+      <c r="H126" s="299">
+        <f t="shared" ref="H126:P126" si="93">MIN(MAX(CEILING(IF($Q$117 = "Choosing Supplier 1", H$158,H$179)/$F$102,1)*$F$102,0),H124)</f>
+        <v>0</v>
+      </c>
+      <c r="I126" s="299">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="J126" s="299">
+        <f t="shared" si="93"/>
+        <v>20</v>
+      </c>
+      <c r="K126" s="299">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="L126" s="299">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="M126" s="299">
+        <f t="shared" si="93"/>
+        <v>60</v>
+      </c>
+      <c r="N126" s="299">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="O126" s="299">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="P126" s="300">
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="Q126" s="48"/>
@@ -22861,39 +22905,39 @@
         <v>0</v>
       </c>
       <c r="H127" s="263">
-        <f t="shared" ref="H127:P127" si="93">MIN(MAX(CEILING(IF($Q$117 = "Choosing Supplier 1", H$158,H$179)/$F$102,1)*$F$102-IF($Q$117 = "Choosing Supplier 1",H113-H112,I113-I112),0),H124)</f>
+        <f t="shared" ref="H127:P127" si="94">MIN(MAX(CEILING(IF($Q$117 = "Choosing Supplier 1", H$158,H$179)/$F$102,1)*$F$102-IF($Q$117 = "Choosing Supplier 1",H113-H112,I113-I112),0),H124)</f>
         <v>0</v>
       </c>
       <c r="I127" s="263">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="J127" s="263">
-        <f t="shared" si="93"/>
-        <v>0</v>
+        <f t="shared" si="94"/>
+        <v>20</v>
       </c>
       <c r="K127" s="263">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="L127" s="263">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="M127" s="263">
-        <f t="shared" si="93"/>
-        <v>140</v>
+        <f t="shared" si="94"/>
+        <v>55</v>
       </c>
       <c r="N127" s="263">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="O127" s="263">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="P127" s="264">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="Q127" t="s">
@@ -22926,19 +22970,19 @@
       </c>
       <c r="F128" s="159"/>
       <c r="G128" s="83">
-        <f t="shared" ref="G128:J128" si="94">IF($Q$117 = "Choosing Supplier 1", QUOTIENT(MOD(G127+$F$97-1,$F$96),$F$97), QUOTIENT(MOD(G127+$F$99-1,$F$98),$F$99))</f>
+        <f t="shared" ref="G128:J128" si="95">IF($Q$117 = "Choosing Supplier 1", QUOTIENT(MOD(G127+$F$97-1,$F$96),$F$97), QUOTIENT(MOD(G127+$F$99-1,$F$98),$F$99))</f>
         <v>0</v>
       </c>
       <c r="H128" s="83">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="I128" s="83">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="J128" s="83">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="K128" s="83">
@@ -22946,23 +22990,23 @@
         <v>0</v>
       </c>
       <c r="L128" s="83">
-        <f t="shared" ref="L128:P128" si="95">IF($Q$117 = "Choosing Supplier 1", QUOTIENT(MOD(L127+$F$97-1,$F$96),$F$97), QUOTIENT(MOD(L127+$F$99-1,$F$98),$F$99))</f>
+        <f t="shared" ref="L128:P128" si="96">IF($Q$117 = "Choosing Supplier 1", QUOTIENT(MOD(L127+$F$97-1,$F$96),$F$97), QUOTIENT(MOD(L127+$F$99-1,$F$98),$F$99))</f>
         <v>0</v>
       </c>
       <c r="M128" s="83">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="N128" s="83">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="O128" s="83">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="P128" s="84">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Q128" s="132" t="s">
@@ -22992,43 +23036,43 @@
       </c>
       <c r="F129" s="82"/>
       <c r="G129" s="83">
-        <f t="shared" ref="G129:J129" si="96">IF(M117="Choosing Supplier 1", QUOTIENT(G127+$F$97-1,$F$96), QUOTIENT(G127+$F$99-1,$F$98))</f>
+        <f t="shared" ref="G129:J129" si="97">IF(M117="Choosing Supplier 1", QUOTIENT(G127+$F$97-1,$F$96), QUOTIENT(G127+$F$99-1,$F$98))</f>
         <v>0</v>
       </c>
       <c r="H129" s="83">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="I129" s="83">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="J129" s="83">
-        <f t="shared" si="96"/>
-        <v>0</v>
+        <f t="shared" si="97"/>
+        <v>1</v>
       </c>
       <c r="K129" s="83">
         <f>IF(Q117="Choosing Supplier 1", QUOTIENT(K127+$F$97-1,$F$96), QUOTIENT(K127+$F$99-1,$F$98))</f>
         <v>0</v>
       </c>
       <c r="L129" s="83">
-        <f t="shared" ref="L129:P129" si="97">IF(R117="Choosing Supplier 1", QUOTIENT(L127+$F$97-1,$F$96), QUOTIENT(L127+$F$99-1,$F$98))</f>
+        <f t="shared" ref="L129:P129" si="98">IF(R117="Choosing Supplier 1", QUOTIENT(L127+$F$97-1,$F$96), QUOTIENT(L127+$F$99-1,$F$98))</f>
         <v>0</v>
       </c>
       <c r="M129" s="83">
-        <f t="shared" si="97"/>
-        <v>7</v>
+        <f t="shared" si="98"/>
+        <v>3</v>
       </c>
       <c r="N129" s="83">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="O129" s="83">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="P129" s="84">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="Q129" s="132" t="s">
@@ -23055,23 +23099,23 @@
       </c>
       <c r="F130" s="129"/>
       <c r="G130" s="130">
-        <f t="shared" ref="G130:K130" si="98">IF($Q$117="Choosing Supplier 1", G129*$G$96+G128*$G$97, G129*$G$98+G128*$G$99)</f>
+        <f t="shared" ref="G130:K130" si="99">IF($Q$117="Choosing Supplier 1", G129*$G$96+G128*$G$97, G129*$G$98+G128*$G$99)</f>
         <v>0</v>
       </c>
       <c r="H130" s="130">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="I130" s="130">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="J130" s="130">
-        <f t="shared" si="98"/>
-        <v>0</v>
+        <f t="shared" si="99"/>
+        <v>200</v>
       </c>
       <c r="K130" s="130">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L130" s="130">
@@ -23079,19 +23123,19 @@
         <v>0</v>
       </c>
       <c r="M130" s="130">
-        <f t="shared" ref="M130" si="99">IF($Q$117="Choosing Supplier 1", M129*$G$96+M128*$G$97, M129*$G$98+M128*$G$99)</f>
-        <v>1400</v>
+        <f t="shared" ref="M130" si="100">IF($Q$117="Choosing Supplier 1", M129*$G$96+M128*$G$97, M129*$G$98+M128*$G$99)</f>
+        <v>600</v>
       </c>
       <c r="N130" s="130">
-        <f t="shared" ref="N130" si="100">IF($Q$117="Choosing Supplier 1", N129*$G$96+N128*$G$97, N129*$G$98+N128*$G$99)</f>
+        <f t="shared" ref="N130" si="101">IF($Q$117="Choosing Supplier 1", N129*$G$96+N128*$G$97, N129*$G$98+N128*$G$99)</f>
         <v>0</v>
       </c>
       <c r="O130" s="130">
-        <f t="shared" ref="O130" si="101">IF($Q$117="Choosing Supplier 1", O129*$G$96+O128*$G$97, O129*$G$98+O128*$G$99)</f>
+        <f t="shared" ref="O130" si="102">IF($Q$117="Choosing Supplier 1", O129*$G$96+O128*$G$97, O129*$G$98+O128*$G$99)</f>
         <v>0</v>
       </c>
       <c r="P130" s="131">
-        <f t="shared" ref="P130" si="102">IF($Q$117="Choosing Supplier 1", P129*$G$96+P128*$G$97, P129*$G$98+P128*$G$99)</f>
+        <f t="shared" ref="P130" si="103">IF($Q$117="Choosing Supplier 1", P129*$G$96+P128*$G$97, P129*$G$98+P128*$G$99)</f>
         <v>0</v>
       </c>
       <c r="Q130" s="132" t="s">
@@ -23121,43 +23165,43 @@
       </c>
       <c r="F131" s="90"/>
       <c r="G131" s="138">
-        <f t="shared" ref="G131:J131" si="103">G127*G118</f>
+        <f t="shared" ref="G131:J131" si="104">G127*G118</f>
         <v>0</v>
       </c>
       <c r="H131" s="138">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="I131" s="138">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="J131" s="138">
-        <f t="shared" si="103"/>
-        <v>0</v>
+        <f t="shared" si="104"/>
+        <v>4300</v>
       </c>
       <c r="K131" s="138">
         <f>K127*K118</f>
         <v>0</v>
       </c>
       <c r="L131" s="138">
-        <f t="shared" ref="L131:P131" si="104">L127*L118</f>
+        <f t="shared" ref="L131:P131" si="105">L127*L118</f>
         <v>0</v>
       </c>
       <c r="M131" s="138">
-        <f t="shared" si="104"/>
-        <v>29960</v>
+        <f t="shared" si="105"/>
+        <v>11770</v>
       </c>
       <c r="N131" s="138">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="O131" s="138">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="P131" s="139">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="Q131" s="132" t="s">
@@ -23189,39 +23233,39 @@
         <v>0</v>
       </c>
       <c r="H132" s="108">
-        <f t="shared" ref="H132:P132" si="105">H131+H130</f>
+        <f t="shared" ref="H132:P132" si="106">H131+H130</f>
         <v>0</v>
       </c>
       <c r="I132" s="108">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="J132" s="108">
-        <f t="shared" si="105"/>
-        <v>0</v>
+        <f t="shared" si="106"/>
+        <v>4500</v>
       </c>
       <c r="K132" s="108">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="L132" s="108">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="M132" s="108">
-        <f t="shared" si="105"/>
-        <v>31360</v>
+        <f t="shared" si="106"/>
+        <v>12370</v>
       </c>
       <c r="N132" s="108">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="O132" s="108">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="P132" s="109">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="Q132" s="132" t="s">
@@ -23248,43 +23292,43 @@
       </c>
       <c r="F133" s="90"/>
       <c r="G133" s="138">
-        <f t="shared" ref="G133:J133" si="106">G127*G121</f>
+        <f t="shared" ref="G133:J133" si="107">G127*G121</f>
         <v>0</v>
       </c>
       <c r="H133" s="138">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="I133" s="138">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="J133" s="138">
-        <f t="shared" si="106"/>
-        <v>0</v>
+        <f t="shared" si="107"/>
+        <v>8300</v>
       </c>
       <c r="K133" s="138">
         <f>K127*K121</f>
         <v>0</v>
       </c>
       <c r="L133" s="138">
-        <f t="shared" ref="L133:P133" si="107">L127*L121</f>
+        <f t="shared" ref="L133:P133" si="108">L127*L121</f>
         <v>0</v>
       </c>
       <c r="M133" s="138">
-        <f t="shared" si="107"/>
-        <v>59220</v>
+        <f t="shared" si="108"/>
+        <v>23265</v>
       </c>
       <c r="N133" s="138">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="O133" s="138">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="P133" s="139">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="Q133" s="132" t="s">
@@ -23305,35 +23349,35 @@
         <v>0</v>
       </c>
       <c r="I134" s="141">
-        <f t="shared" ref="I134:P134" si="108">I133-I132</f>
+        <f t="shared" ref="I134:P134" si="109">I133-I132</f>
         <v>0</v>
       </c>
       <c r="J134" s="141">
-        <f t="shared" si="108"/>
-        <v>0</v>
+        <f t="shared" si="109"/>
+        <v>3800</v>
       </c>
       <c r="K134" s="141">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="L134" s="141">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="M134" s="141">
-        <f t="shared" si="108"/>
-        <v>27860</v>
+        <f t="shared" si="109"/>
+        <v>10895</v>
       </c>
       <c r="N134" s="141">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="O134" s="141">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="P134" s="143">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="Q134" s="48" t="s">
@@ -23349,43 +23393,43 @@
       </c>
       <c r="F135" s="145"/>
       <c r="G135" s="146">
-        <f t="shared" ref="G135:P135" si="109">G123-G134</f>
+        <f t="shared" ref="G135:P135" si="110">G123-G134</f>
         <v>2800</v>
       </c>
       <c r="H135" s="146">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>14350</v>
       </c>
       <c r="I135" s="146">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>11220</v>
       </c>
       <c r="J135" s="146">
-        <f t="shared" si="109"/>
-        <v>11400</v>
+        <f t="shared" si="110"/>
+        <v>7600</v>
       </c>
       <c r="K135" s="146">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>8615</v>
       </c>
       <c r="L135" s="146">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>3010</v>
       </c>
       <c r="M135" s="146">
-        <f t="shared" si="109"/>
-        <v>19900</v>
+        <f t="shared" si="110"/>
+        <v>15920</v>
       </c>
       <c r="N135" s="146">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>2905</v>
       </c>
       <c r="O135" s="146">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>5890</v>
       </c>
       <c r="P135" s="147">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>6070</v>
       </c>
       <c r="Q135" s="132" t="s">
@@ -23399,43 +23443,43 @@
       </c>
       <c r="F136" s="149"/>
       <c r="G136" s="150">
-        <f t="shared" ref="G136:P136" si="110">G124/G114</f>
+        <f t="shared" ref="G136:P136" si="111">G124/G114</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="H136" s="150">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="I136" s="150">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0.5</v>
       </c>
       <c r="J136" s="150">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="K136" s="150">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0.22222222222222221</v>
       </c>
       <c r="L136" s="150">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="M136" s="150">
-        <f t="shared" si="110"/>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="111"/>
+        <v>0.7407407407407407</v>
       </c>
       <c r="N136" s="150">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>1</v>
       </c>
       <c r="O136" s="150">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="P136" s="150">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AB136" s="167"/>
@@ -23446,43 +23490,43 @@
       </c>
       <c r="F137" s="149"/>
       <c r="G137" s="150">
-        <f t="shared" ref="G137:P137" si="111">G132/G120</f>
+        <f t="shared" ref="G137:P137" si="112">G132/G120</f>
         <v>0</v>
       </c>
       <c r="H137" s="150">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="I137" s="150">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="J137" s="150">
-        <f t="shared" si="111"/>
-        <v>0</v>
+        <f t="shared" si="112"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K137" s="150">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="L137" s="150">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="M137" s="150">
-        <f t="shared" si="111"/>
-        <v>0.58333333333333337</v>
+        <f t="shared" si="112"/>
+        <v>0.40838560581049854</v>
       </c>
       <c r="N137" s="150">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="O137" s="150">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P137" s="150">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AB137" s="167"/>
@@ -23493,43 +23537,43 @@
       </c>
       <c r="F138" s="151"/>
       <c r="G138" s="150">
-        <f t="shared" ref="G138:P138" si="112">G134/G123</f>
+        <f t="shared" ref="G138:P138" si="113">G134/G123</f>
         <v>0</v>
       </c>
       <c r="H138" s="150">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="I138" s="150">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="J138" s="150">
-        <f t="shared" si="112"/>
-        <v>0</v>
+        <f t="shared" si="113"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K138" s="150">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="L138" s="150">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="M138" s="150">
-        <f t="shared" si="112"/>
-        <v>0.58333333333333337</v>
+        <f t="shared" si="113"/>
+        <v>0.40630244266268878</v>
       </c>
       <c r="N138" s="150">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="O138" s="150">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="P138" s="150">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
     </row>
@@ -23596,10 +23640,10 @@
         <v>35</v>
       </c>
       <c r="L144" s="269"/>
-      <c r="O144" s="295" t="s">
+      <c r="O144" s="301" t="s">
         <v>138</v>
       </c>
-      <c r="P144" s="295">
+      <c r="P144" s="301">
         <v>1</v>
       </c>
     </row>
@@ -23614,8 +23658,8 @@
       <c r="G145" t="s">
         <v>35</v>
       </c>
-      <c r="O145" s="295"/>
-      <c r="P145" s="295"/>
+      <c r="O145" s="301"/>
+      <c r="P145" s="301"/>
     </row>
     <row r="146" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E146" s="1" t="s">
@@ -23625,8 +23669,8 @@
         <f>Supplier1!C4</f>
         <v>200</v>
       </c>
-      <c r="O146" s="295"/>
-      <c r="P146" s="295"/>
+      <c r="O146" s="301"/>
+      <c r="P146" s="301"/>
     </row>
     <row r="147" spans="5:17" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E147" s="1" t="s">
@@ -23639,8 +23683,8 @@
       <c r="L147" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="O147" s="296"/>
-      <c r="P147" s="296"/>
+      <c r="O147" s="302"/>
+      <c r="P147" s="302"/>
     </row>
     <row r="148" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F148" s="53" t="s">
@@ -23687,39 +23731,39 @@
         <v>40</v>
       </c>
       <c r="H149" s="282">
-        <f t="shared" ref="H149:P149" si="113">IF($Q$26 = "Choosing Supplier 1", IF($F$147="Yes", H23,0),0)</f>
+        <f t="shared" ref="H149:P149" si="114">IF($Q$26 = "Choosing Supplier 1", IF($F$147="Yes", H23,0),0)</f>
         <v>80</v>
       </c>
       <c r="I149" s="282">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>80</v>
       </c>
       <c r="J149" s="282">
-        <f t="shared" si="113"/>
-        <v>80</v>
+        <f t="shared" si="114"/>
+        <v>100</v>
       </c>
       <c r="K149" s="282">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>110</v>
       </c>
       <c r="L149" s="282">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="M149" s="282">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>40</v>
       </c>
       <c r="N149" s="282">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>10</v>
       </c>
       <c r="O149" s="282">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="P149" s="283">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -23733,39 +23777,39 @@
         <v>40</v>
       </c>
       <c r="H150" s="272">
-        <f t="shared" ref="H150:P150" si="114">IF($Q$71 = "Choosing Supplier 1", IF($F$147="Yes", H68,0),0)</f>
+        <f t="shared" ref="H150:P150" si="115">IF($Q$71 = "Choosing Supplier 1", IF($F$147="Yes", H68,0),0)</f>
         <v>0</v>
       </c>
       <c r="I150" s="272">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>80</v>
       </c>
       <c r="J150" s="272">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>60</v>
       </c>
       <c r="K150" s="272">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>40</v>
       </c>
       <c r="L150" s="272">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>100</v>
       </c>
       <c r="M150" s="272">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>100</v>
       </c>
       <c r="N150" s="272">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>40</v>
       </c>
       <c r="O150" s="272">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>20</v>
       </c>
       <c r="P150" s="273">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
     </row>
@@ -23779,39 +23823,39 @@
         <v>15</v>
       </c>
       <c r="H151" s="275">
-        <f t="shared" ref="H151:P151" si="115">IF($Q$117 = "Choosing Supplier 1", IF($F$147="Yes", H114,0),0)</f>
+        <f t="shared" ref="H151:P151" si="116">IF($Q$117 = "Choosing Supplier 1", IF($F$147="Yes", H114,0),0)</f>
         <v>75</v>
       </c>
       <c r="I151" s="275">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>60</v>
       </c>
       <c r="J151" s="275">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>60</v>
       </c>
       <c r="K151" s="275">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>45</v>
       </c>
       <c r="L151" s="275">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>15</v>
       </c>
       <c r="M151" s="275">
-        <f t="shared" si="115"/>
-        <v>240</v>
+        <f t="shared" si="116"/>
+        <v>135</v>
       </c>
       <c r="N151" s="275">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>15</v>
       </c>
       <c r="O151" s="275">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>30</v>
       </c>
       <c r="P151" s="276">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>30</v>
       </c>
     </row>
@@ -23825,39 +23869,39 @@
         <v>95</v>
       </c>
       <c r="H152" s="287">
-        <f t="shared" ref="H152:P152" si="116">SUM(H149:H151)</f>
+        <f t="shared" ref="H152:P152" si="117">SUM(H149:H151)</f>
         <v>155</v>
       </c>
       <c r="I152" s="287">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>220</v>
       </c>
       <c r="J152" s="287">
-        <f t="shared" si="116"/>
-        <v>200</v>
+        <f t="shared" si="117"/>
+        <v>220</v>
       </c>
       <c r="K152" s="287">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>195</v>
       </c>
       <c r="L152" s="287">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>115</v>
       </c>
       <c r="M152" s="287">
-        <f t="shared" si="116"/>
-        <v>380</v>
+        <f t="shared" si="117"/>
+        <v>275</v>
       </c>
       <c r="N152" s="287">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>65</v>
       </c>
       <c r="O152" s="287">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>50</v>
       </c>
       <c r="P152" s="288">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>30</v>
       </c>
     </row>
@@ -23886,44 +23930,44 @@
         <v>50</v>
       </c>
       <c r="G154" s="68">
-        <f t="shared" ref="G154:P154" si="117">F154+G156-G152</f>
+        <f t="shared" ref="G154:P154" si="118">F154+G156-G152</f>
         <v>55</v>
       </c>
       <c r="H154" s="68">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>50</v>
       </c>
       <c r="I154" s="68">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>30</v>
       </c>
       <c r="J154" s="68">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
+        <v>60</v>
+      </c>
+      <c r="K154" s="68">
+        <f t="shared" si="118"/>
+        <v>65</v>
+      </c>
+      <c r="L154" s="68">
+        <f t="shared" si="118"/>
+        <v>50</v>
+      </c>
+      <c r="M154" s="68">
+        <f t="shared" si="118"/>
+        <v>75</v>
+      </c>
+      <c r="N154" s="68">
+        <f t="shared" si="118"/>
+        <v>60</v>
+      </c>
+      <c r="O154" s="68">
+        <f t="shared" si="118"/>
+        <v>60</v>
+      </c>
+      <c r="P154" s="69">
+        <f t="shared" si="118"/>
         <v>30</v>
-      </c>
-      <c r="K154" s="68">
-        <f t="shared" si="117"/>
-        <v>35</v>
-      </c>
-      <c r="L154" s="68">
-        <f t="shared" si="117"/>
-        <v>70</v>
-      </c>
-      <c r="M154" s="68">
-        <f t="shared" si="117"/>
-        <v>40</v>
-      </c>
-      <c r="N154" s="68">
-        <f t="shared" si="117"/>
-        <v>75</v>
-      </c>
-      <c r="O154" s="68">
-        <f t="shared" si="117"/>
-        <v>75</v>
-      </c>
-      <c r="P154" s="69">
-        <f t="shared" si="117"/>
-        <v>45</v>
       </c>
     </row>
     <row r="155" spans="5:17" x14ac:dyDescent="0.3">
@@ -23932,43 +23976,43 @@
       </c>
       <c r="F155" s="71"/>
       <c r="G155" s="68">
-        <f t="shared" ref="G155:P155" si="118">IF(F154-G152&lt;=$F$145, G152-F154+$F$145,0)</f>
+        <f t="shared" ref="G155:P155" si="119">IF(F154-G152&lt;=$F$145, G152-F154+$F$145,0)</f>
         <v>75</v>
       </c>
       <c r="H155" s="68">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>130</v>
       </c>
       <c r="I155" s="68">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>200</v>
       </c>
       <c r="J155" s="68">
-        <f t="shared" si="118"/>
-        <v>200</v>
+        <f t="shared" si="119"/>
+        <v>220</v>
       </c>
       <c r="K155" s="68">
-        <f t="shared" si="118"/>
-        <v>195</v>
+        <f t="shared" si="119"/>
+        <v>165</v>
       </c>
       <c r="L155" s="68">
-        <f t="shared" si="118"/>
-        <v>110</v>
+        <f t="shared" si="119"/>
+        <v>80</v>
       </c>
       <c r="M155" s="68">
-        <f t="shared" si="118"/>
-        <v>340</v>
+        <f t="shared" si="119"/>
+        <v>255</v>
       </c>
       <c r="N155" s="68">
-        <f t="shared" si="118"/>
-        <v>55</v>
+        <f t="shared" si="119"/>
+        <v>20</v>
       </c>
       <c r="O155" s="68">
-        <f t="shared" si="118"/>
-        <v>5</v>
+        <f t="shared" si="119"/>
+        <v>20</v>
       </c>
       <c r="P155" s="69">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
@@ -23982,39 +24026,39 @@
         <v>100</v>
       </c>
       <c r="H156" s="68">
-        <f t="shared" ref="H156:P156" si="119" xml:space="preserve"> CEILING(H155/$F$144,1)*$F$144</f>
+        <f t="shared" ref="H156:P156" si="120" xml:space="preserve"> CEILING(H155/$F$144,1)*$F$144</f>
         <v>150</v>
       </c>
       <c r="I156" s="68">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>200</v>
       </c>
       <c r="J156" s="68">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
+        <v>250</v>
+      </c>
+      <c r="K156" s="68">
+        <f t="shared" si="120"/>
         <v>200</v>
       </c>
-      <c r="K156" s="68">
-        <f t="shared" si="119"/>
-        <v>200</v>
-      </c>
       <c r="L156" s="68">
-        <f t="shared" si="119"/>
-        <v>150</v>
+        <f t="shared" si="120"/>
+        <v>100</v>
       </c>
       <c r="M156" s="68">
-        <f t="shared" si="119"/>
-        <v>350</v>
+        <f t="shared" si="120"/>
+        <v>300</v>
       </c>
       <c r="N156" s="68">
-        <f t="shared" si="119"/>
-        <v>100</v>
+        <f t="shared" si="120"/>
+        <v>50</v>
       </c>
       <c r="O156" s="68">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>50</v>
       </c>
       <c r="P156" s="69">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -24032,35 +24076,35 @@
         <v>200</v>
       </c>
       <c r="I157" s="195">
-        <f t="shared" ref="I157:P157" si="120">J156</f>
+        <f t="shared" ref="I157:P157" si="121">J156</f>
+        <v>250</v>
+      </c>
+      <c r="J157" s="195">
+        <f t="shared" si="121"/>
         <v>200</v>
       </c>
-      <c r="J157" s="195">
-        <f t="shared" si="120"/>
-        <v>200</v>
-      </c>
       <c r="K157" s="195">
-        <f t="shared" si="120"/>
-        <v>150</v>
+        <f t="shared" si="121"/>
+        <v>100</v>
       </c>
       <c r="L157" s="195">
-        <f t="shared" si="120"/>
-        <v>350</v>
+        <f t="shared" si="121"/>
+        <v>300</v>
       </c>
       <c r="M157" s="195">
-        <f t="shared" si="120"/>
-        <v>100</v>
+        <f t="shared" si="121"/>
+        <v>50</v>
       </c>
       <c r="N157" s="195">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>50</v>
       </c>
       <c r="O157" s="195">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="P157" s="196">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="Q157" s="132"/>
@@ -24075,7 +24119,7 @@
         <v>0</v>
       </c>
       <c r="H158" s="199">
-        <f t="shared" ref="H158:P159" si="121">IF(H155&gt;$F$146,H155-$F$146,0)</f>
+        <f t="shared" ref="H158:P159" si="122">IF(H155&gt;$F$146,H155-$F$146,0)</f>
         <v>0</v>
       </c>
       <c r="I158" s="199">
@@ -24083,31 +24127,31 @@
         <v>0</v>
       </c>
       <c r="J158" s="199">
-        <f t="shared" si="121"/>
-        <v>0</v>
+        <f t="shared" si="122"/>
+        <v>20</v>
       </c>
       <c r="K158" s="199">
         <f>IF(K155&gt;$F$146,K155-$F$146,0)</f>
         <v>0</v>
       </c>
       <c r="L158" s="199">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="M158" s="199">
-        <f t="shared" si="121"/>
-        <v>140</v>
+        <f t="shared" si="122"/>
+        <v>55</v>
       </c>
       <c r="N158" s="199">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="O158" s="199">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="P158" s="200">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="Q158" s="132"/>
@@ -24122,7 +24166,7 @@
         <v>0</v>
       </c>
       <c r="H159" s="199">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="I159" s="199">
@@ -24130,31 +24174,31 @@
         <v>0</v>
       </c>
       <c r="J159" s="199">
-        <f t="shared" si="121"/>
-        <v>0</v>
+        <f t="shared" si="122"/>
+        <v>50</v>
       </c>
       <c r="K159" s="199">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="L159" s="199">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="M159" s="199">
-        <f t="shared" si="121"/>
-        <v>150</v>
+        <f t="shared" si="122"/>
+        <v>100</v>
       </c>
       <c r="N159" s="199">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="O159" s="199">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="P159" s="200">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="Q159" s="132"/>
@@ -24204,10 +24248,10 @@
       <c r="G165" t="s">
         <v>35</v>
       </c>
-      <c r="O165" s="295" t="s">
+      <c r="O165" s="301" t="s">
         <v>138</v>
       </c>
-      <c r="P165" s="295">
+      <c r="P165" s="301">
         <v>2</v>
       </c>
     </row>
@@ -24222,8 +24266,8 @@
       <c r="G166" t="s">
         <v>35</v>
       </c>
-      <c r="O166" s="295"/>
-      <c r="P166" s="295"/>
+      <c r="O166" s="301"/>
+      <c r="P166" s="301"/>
     </row>
     <row r="167" spans="4:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E167" s="1" t="s">
@@ -24233,8 +24277,8 @@
         <f>Supplier2!C4</f>
         <v>150</v>
       </c>
-      <c r="O167" s="295"/>
-      <c r="P167" s="295"/>
+      <c r="O167" s="301"/>
+      <c r="P167" s="301"/>
     </row>
     <row r="168" spans="4:19" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E168" s="1" t="s">
@@ -24247,8 +24291,8 @@
       <c r="L168" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="O168" s="296"/>
-      <c r="P168" s="296"/>
+      <c r="O168" s="302"/>
+      <c r="P168" s="302"/>
     </row>
     <row r="169" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F169" s="278" t="s">
@@ -24295,39 +24339,39 @@
         <v>0</v>
       </c>
       <c r="H170" s="282">
-        <f t="shared" ref="H170:P170" si="122">IF($Q$26 = "Choosing Supplier 2", IF($F$168="Yes", H23,0),0)</f>
+        <f t="shared" ref="H170:P170" si="123">IF($Q$26 = "Choosing Supplier 2", IF($F$168="Yes", H23,0),0)</f>
         <v>0</v>
       </c>
       <c r="I170" s="282">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="J170" s="282">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="K170" s="282">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="L170" s="282">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="M170" s="282">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="N170" s="282">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="O170" s="282">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="P170" s="283">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="R170" t="s">
@@ -24347,39 +24391,39 @@
         <v>0</v>
       </c>
       <c r="H171" s="272">
-        <f t="shared" ref="H171:P171" si="123">IF($Q$71 = "Choosing Supplier 2", IF($F$168="Yes", H68,0),0)</f>
+        <f t="shared" ref="H171:P171" si="124">IF($Q$71 = "Choosing Supplier 2", IF($F$168="Yes", H68,0),0)</f>
         <v>0</v>
       </c>
       <c r="I171" s="272">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="J171" s="272">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="K171" s="272">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="L171" s="272">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="M171" s="272">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="N171" s="272">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="O171" s="272">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="P171" s="273">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="R171" t="s">
@@ -24399,39 +24443,39 @@
         <v>0</v>
       </c>
       <c r="H172" s="275">
-        <f t="shared" ref="H172:P172" si="124">IF($Q$117 = "Choosing Supplier 2", IF($F$168="Yes", H114,0),0)</f>
+        <f t="shared" ref="H172:P172" si="125">IF($Q$117 = "Choosing Supplier 2", IF($F$168="Yes", H114,0),0)</f>
         <v>0</v>
       </c>
       <c r="I172" s="275">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="J172" s="275">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="K172" s="275">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="L172" s="275">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="M172" s="275">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="N172" s="275">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="O172" s="275">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="P172" s="276">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="R172" t="s">
@@ -24451,39 +24495,39 @@
         <v>0</v>
       </c>
       <c r="H173" s="187">
-        <f t="shared" ref="H173:P173" si="125">SUM(H170:H172)</f>
+        <f t="shared" ref="H173:P173" si="126">SUM(H170:H172)</f>
         <v>0</v>
       </c>
       <c r="I173" s="187">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="J173" s="187">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="K173" s="187">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="L173" s="187">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="M173" s="187">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="N173" s="187">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="O173" s="187">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="P173" s="188">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
     </row>
@@ -24512,43 +24556,43 @@
         <v>60</v>
       </c>
       <c r="G175" s="68">
-        <f t="shared" ref="G175" si="126">F175+G177-G173</f>
+        <f t="shared" ref="G175" si="127">F175+G177-G173</f>
         <v>60</v>
       </c>
       <c r="H175" s="68">
-        <f t="shared" ref="H175" si="127">G175+H177-H173</f>
+        <f t="shared" ref="H175" si="128">G175+H177-H173</f>
         <v>60</v>
       </c>
       <c r="I175" s="68">
-        <f t="shared" ref="I175" si="128">H175+I177-I173</f>
+        <f t="shared" ref="I175" si="129">H175+I177-I173</f>
         <v>60</v>
       </c>
       <c r="J175" s="68">
-        <f t="shared" ref="J175" si="129">I175+J177-J173</f>
+        <f t="shared" ref="J175" si="130">I175+J177-J173</f>
         <v>60</v>
       </c>
       <c r="K175" s="68">
-        <f t="shared" ref="K175" si="130">J175+K177-K173</f>
+        <f t="shared" ref="K175" si="131">J175+K177-K173</f>
         <v>60</v>
       </c>
       <c r="L175" s="68">
-        <f t="shared" ref="L175" si="131">K175+L177-L173</f>
+        <f t="shared" ref="L175" si="132">K175+L177-L173</f>
         <v>60</v>
       </c>
       <c r="M175" s="68">
-        <f t="shared" ref="M175" si="132">L175+M177-M173</f>
+        <f t="shared" ref="M175" si="133">L175+M177-M173</f>
         <v>60</v>
       </c>
       <c r="N175" s="68">
-        <f t="shared" ref="N175" si="133">M175+N177-N173</f>
+        <f t="shared" ref="N175" si="134">M175+N177-N173</f>
         <v>60</v>
       </c>
       <c r="O175" s="68">
-        <f t="shared" ref="O175" si="134">N175+O177-O173</f>
+        <f t="shared" ref="O175" si="135">N175+O177-O173</f>
         <v>60</v>
       </c>
       <c r="P175" s="69">
-        <f t="shared" ref="P175" si="135">O175+P177-P173</f>
+        <f t="shared" ref="P175" si="136">O175+P177-P173</f>
         <v>60</v>
       </c>
     </row>
@@ -24558,15 +24602,15 @@
       </c>
       <c r="F176" s="71"/>
       <c r="G176" s="68">
-        <f t="shared" ref="G176:I176" si="136">IF(F175-G173&lt;=$F$166, G173-F175+$F$166,0)</f>
+        <f t="shared" ref="G176:I176" si="137">IF(F175-G173&lt;=$F$166, G173-F175+$F$166,0)</f>
         <v>0</v>
       </c>
       <c r="H176" s="68">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="I176" s="68">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="J176" s="68">
@@ -24574,27 +24618,27 @@
         <v>0</v>
       </c>
       <c r="K176" s="68">
-        <f t="shared" ref="K176:P176" si="137">IF(J175-K173&lt;=$F$166, K173-J175+$F$166,0)</f>
+        <f t="shared" ref="K176:P176" si="138">IF(J175-K173&lt;=$F$166, K173-J175+$F$166,0)</f>
         <v>0</v>
       </c>
       <c r="L176" s="68">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="M176" s="68">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="N176" s="68">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="O176" s="68">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="P176" s="69">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
     </row>
@@ -24608,39 +24652,39 @@
         <v>0</v>
       </c>
       <c r="H177" s="68">
-        <f t="shared" ref="H177:P177" si="138" xml:space="preserve"> CEILING(H176/$F$144,1)*$F$144</f>
+        <f t="shared" ref="H177:P177" si="139" xml:space="preserve"> CEILING(H176/$F$144,1)*$F$144</f>
         <v>0</v>
       </c>
       <c r="I177" s="68">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="J177" s="68">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="K177" s="68">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="L177" s="68">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="M177" s="68">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="N177" s="68">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="O177" s="68">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="P177" s="69">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
     </row>
@@ -24658,35 +24702,35 @@
         <v>0</v>
       </c>
       <c r="I178" s="195">
-        <f t="shared" ref="I178" si="139">J177</f>
+        <f t="shared" ref="I178" si="140">J177</f>
         <v>0</v>
       </c>
       <c r="J178" s="195">
-        <f t="shared" ref="J178" si="140">K177</f>
+        <f t="shared" ref="J178" si="141">K177</f>
         <v>0</v>
       </c>
       <c r="K178" s="195">
-        <f t="shared" ref="K178" si="141">L177</f>
+        <f t="shared" ref="K178" si="142">L177</f>
         <v>0</v>
       </c>
       <c r="L178" s="195">
-        <f t="shared" ref="L178" si="142">M177</f>
+        <f t="shared" ref="L178" si="143">M177</f>
         <v>0</v>
       </c>
       <c r="M178" s="195">
-        <f t="shared" ref="M178" si="143">N177</f>
+        <f t="shared" ref="M178" si="144">N177</f>
         <v>0</v>
       </c>
       <c r="N178" s="195">
-        <f t="shared" ref="N178" si="144">O177</f>
+        <f t="shared" ref="N178" si="145">O177</f>
         <v>0</v>
       </c>
       <c r="O178" s="195">
-        <f t="shared" ref="O178" si="145">P177</f>
+        <f t="shared" ref="O178" si="146">P177</f>
         <v>0</v>
       </c>
       <c r="P178" s="196">
-        <f t="shared" ref="P178" si="146">Q177</f>
+        <f t="shared" ref="P178" si="147">Q177</f>
         <v>0</v>
       </c>
     </row>
@@ -24703,39 +24747,39 @@
         <v>0</v>
       </c>
       <c r="H179" s="199">
-        <f t="shared" ref="H179:P179" si="147">IF(H176&gt;$F$167,H176-$F$167,0)</f>
+        <f t="shared" ref="H179:P179" si="148">IF(H176&gt;$F$167,H176-$F$167,0)</f>
         <v>0</v>
       </c>
       <c r="I179" s="199">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="J179" s="199">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="K179" s="199">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="L179" s="199">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="M179" s="199">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="N179" s="199">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="O179" s="199">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="P179" s="200">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
     </row>
@@ -24749,39 +24793,39 @@
         <v>0</v>
       </c>
       <c r="H180" s="199">
-        <f t="shared" ref="H180:P180" si="148">IF(H177&gt;$F$167,H177-$F$167,0)</f>
+        <f t="shared" ref="H180:P180" si="149">IF(H177&gt;$F$167,H177-$F$167,0)</f>
         <v>0</v>
       </c>
       <c r="I180" s="199">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="J180" s="199">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="K180" s="199">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="L180" s="199">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="M180" s="199">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="N180" s="199">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="O180" s="199">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="P180" s="200">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
     </row>
@@ -24876,7 +24920,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DRP/demand_data_2suppliers.xlsx
+++ b/DRP/demand_data_2suppliers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ghub_acceval\smarttradzt-python-services\DRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE80BACC-4435-477F-B167-4C8D359B341B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2165EC-4994-48BB-BF91-FB12C54B6749}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="723" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DC1" sheetId="1" r:id="rId1"/>
@@ -258,7 +258,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="162">
   <si>
     <t>W46</t>
   </si>
@@ -829,6 +829,9 @@
   </si>
   <si>
     <t>Spot Demand to reduce (lotsize)</t>
+  </si>
+  <si>
+    <t>truck availaibity</t>
   </si>
 </sst>
 </file>
@@ -5221,50 +5224,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1028699</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>43004</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE9BF40-2472-44FA-AC7E-873BB71C06FB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14714219" y="27043380"/>
-          <a:ext cx="10040445" cy="2202180"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5534,7 +5493,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5792,19 +5751,19 @@
         <v>30</v>
       </c>
       <c r="F13" s="11">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G13" s="11">
+        <v>15</v>
+      </c>
+      <c r="H13" s="11">
+        <v>50</v>
+      </c>
+      <c r="I13" s="11">
         <v>20</v>
       </c>
-      <c r="H13" s="11">
+      <c r="J13" s="11">
         <v>100</v>
-      </c>
-      <c r="I13" s="11">
-        <v>70</v>
-      </c>
-      <c r="J13" s="11">
-        <v>0</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="12">
@@ -5974,7 +5933,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6228,7 +6187,7 @@
       </c>
       <c r="C13" s="223"/>
       <c r="D13" s="11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11">
@@ -6238,13 +6197,13 @@
         <v>20</v>
       </c>
       <c r="H13" s="11">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I13" s="11">
+        <v>25</v>
+      </c>
+      <c r="J13" s="11">
         <v>60</v>
-      </c>
-      <c r="J13" s="11">
-        <v>100</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="12">
@@ -6408,7 +6367,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6673,7 +6632,9 @@
       <c r="G13" s="210">
         <v>10</v>
       </c>
-      <c r="H13" s="210"/>
+      <c r="H13" s="210">
+        <v>45</v>
+      </c>
       <c r="I13" s="210">
         <v>100</v>
       </c>
@@ -6845,10 +6806,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF45C3FC-159B-4BF0-B980-4093E4D988CE}">
-  <dimension ref="B2:M11"/>
+  <dimension ref="B2:M16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6880,7 +6841,7 @@
       </c>
       <c r="C4" s="42">
         <f>C6*C7</f>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>25</v>
@@ -6917,7 +6878,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="39">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D6" s="4"/>
       <c r="G6" s="4"/>
@@ -6932,7 +6893,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="43">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -6980,7 +6941,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
@@ -6998,6 +6959,11 @@
       </c>
       <c r="H11" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -7030,7 +6996,7 @@
   <dimension ref="B2:M11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7062,7 +7028,7 @@
       </c>
       <c r="C4" s="42">
         <f>C6*C7</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>25</v>
@@ -7099,7 +7065,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="4"/>
       <c r="G6" s="4"/>
@@ -7440,23 +7406,23 @@
       </c>
       <c r="J14" s="245">
         <f>'DC1'!F13</f>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K14" s="248">
         <f>'DC1'!G13</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L14" s="245">
         <f>'DC1'!H13</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M14" s="245">
         <f>'DC1'!I13</f>
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="N14" s="245">
         <f>'DC1'!J13</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O14" s="245">
         <f>'DC1'!K13</f>
@@ -7633,23 +7599,23 @@
       </c>
       <c r="J18" s="61">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="K18" s="61">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L18" s="61">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M18" s="61">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="N18" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O18" s="61">
         <f t="shared" si="0"/>
@@ -7707,7 +7673,7 @@
       </c>
       <c r="J20" s="68">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K20" s="68">
         <f t="shared" si="1"/>
@@ -7759,23 +7725,23 @@
       </c>
       <c r="J21" s="68">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="K21" s="68">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L21" s="68">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M21" s="68">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="N21" s="68">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O21" s="68">
         <f t="shared" si="2"/>
@@ -7808,23 +7774,23 @@
       </c>
       <c r="J22" s="68">
         <f t="shared" ref="J22:P22" si="4" xml:space="preserve"> CEILING(J21/$F$11,1)*$F$11</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K22" s="68">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L22" s="68">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M22" s="68">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="N22" s="68">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="68">
         <f t="shared" si="4"/>
@@ -7846,23 +7812,23 @@
       </c>
       <c r="H23" s="75">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I23" s="75">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J23" s="75">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K23" s="75">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="L23" s="75">
         <f>N22</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M23" s="75">
         <f t="shared" ref="M23:P23" si="6">O22</f>
@@ -7896,15 +7862,15 @@
       </c>
       <c r="I24" s="79">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="79">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="79">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="79">
         <f t="shared" si="7"/>
@@ -7939,23 +7905,23 @@
       </c>
       <c r="H25" s="83">
         <f t="shared" ref="H25:P25" si="8">QUOTIENT(H23+$F$6-1,$F$5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25" s="83">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J25" s="83">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K25" s="83">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L25" s="83">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M25" s="83">
         <f t="shared" si="8"/>
@@ -7985,23 +7951,23 @@
       </c>
       <c r="H26" s="87">
         <f t="shared" ref="H26:P26" si="9">IF($Q$26="Choosing Supplier 1", H25*$G$5+H24*$G$6,H25*$G$7+H24*$G$8)</f>
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="I26" s="87">
         <f t="shared" si="9"/>
-        <v>2400</v>
+        <v>2150</v>
       </c>
       <c r="J26" s="87">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>1550</v>
       </c>
       <c r="K26" s="87">
         <f t="shared" si="9"/>
-        <v>3350</v>
+        <v>1800</v>
       </c>
       <c r="L26" s="87">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="M26" s="87">
         <f t="shared" si="9"/>
@@ -8087,23 +8053,23 @@
       </c>
       <c r="H28" s="96">
         <f>H27*H23</f>
-        <v>16880</v>
+        <v>12660</v>
       </c>
       <c r="I28" s="96">
         <f t="shared" si="10"/>
-        <v>17040</v>
+        <v>14910</v>
       </c>
       <c r="J28" s="96">
         <f t="shared" si="10"/>
-        <v>21500</v>
+        <v>10750</v>
       </c>
       <c r="K28" s="96">
         <f t="shared" si="10"/>
-        <v>23650</v>
+        <v>12900</v>
       </c>
       <c r="L28" s="96">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>21600</v>
       </c>
       <c r="M28" s="96">
         <f t="shared" si="10"/>
@@ -8139,23 +8105,23 @@
       </c>
       <c r="H29" s="100">
         <f t="shared" si="11"/>
-        <v>19280</v>
+        <v>14460</v>
       </c>
       <c r="I29" s="100">
         <f t="shared" si="11"/>
-        <v>19440</v>
+        <v>17060</v>
       </c>
       <c r="J29" s="100">
         <f t="shared" si="11"/>
-        <v>24500</v>
+        <v>12300</v>
       </c>
       <c r="K29" s="100">
         <f t="shared" si="11"/>
-        <v>27000</v>
+        <v>14700</v>
       </c>
       <c r="L29" s="100">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>24600</v>
       </c>
       <c r="M29" s="100">
         <f t="shared" si="11"/>
@@ -8237,23 +8203,23 @@
       </c>
       <c r="H31" s="104">
         <f t="shared" ref="H31:P31" si="12">H30*H23</f>
-        <v>33040</v>
+        <v>24780</v>
       </c>
       <c r="I31" s="104">
         <f t="shared" si="12"/>
-        <v>32800</v>
+        <v>28700</v>
       </c>
       <c r="J31" s="104">
         <f t="shared" si="12"/>
-        <v>41500</v>
+        <v>20750</v>
       </c>
       <c r="K31" s="104">
         <f t="shared" si="12"/>
-        <v>45980</v>
+        <v>25080</v>
       </c>
       <c r="L31" s="104">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>43000</v>
       </c>
       <c r="M31" s="104">
         <f t="shared" si="12"/>
@@ -8286,23 +8252,23 @@
       </c>
       <c r="H32" s="108">
         <f t="shared" ref="H32:P32" si="13">H31-H29</f>
-        <v>13760</v>
+        <v>10320</v>
       </c>
       <c r="I32" s="108">
         <f t="shared" si="13"/>
-        <v>13360</v>
+        <v>11640</v>
       </c>
       <c r="J32" s="108">
         <f t="shared" si="13"/>
-        <v>17000</v>
+        <v>8450</v>
       </c>
       <c r="K32" s="108">
         <f t="shared" si="13"/>
-        <v>18980</v>
+        <v>10380</v>
       </c>
       <c r="L32" s="108">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>18400</v>
       </c>
       <c r="M32" s="108">
         <f t="shared" si="13"/>
@@ -8335,23 +8301,23 @@
       </c>
       <c r="H33" s="79">
         <f>SUM(J14:J15)</f>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="I33" s="79">
         <f t="shared" ref="I33:P33" si="14">SUM(K14:K15)</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J33" s="79">
         <f t="shared" si="14"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K33" s="79">
         <f t="shared" si="14"/>
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="L33" s="79">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M33" s="79">
         <f t="shared" si="14"/>
@@ -8402,7 +8368,7 @@
       </c>
       <c r="J34" s="79">
         <f t="shared" si="15"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K34" s="79">
         <f t="shared" si="15"/>
@@ -8453,7 +8419,7 @@
       </c>
       <c r="J35" s="263">
         <f t="shared" si="16"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K35" s="263">
         <f t="shared" si="16"/>
@@ -8576,7 +8542,7 @@
       </c>
       <c r="J37" s="83">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="83">
         <f t="shared" si="18"/>
@@ -8670,7 +8636,7 @@
       </c>
       <c r="J38" s="130">
         <f t="shared" si="19"/>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="K38" s="130">
         <f t="shared" si="19"/>
@@ -8767,7 +8733,7 @@
       </c>
       <c r="J39" s="138">
         <f t="shared" si="28"/>
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="K39" s="138">
         <f>K35*K27</f>
@@ -8862,7 +8828,7 @@
       </c>
       <c r="J40" s="108">
         <f t="shared" si="30"/>
-        <v>4900</v>
+        <v>0</v>
       </c>
       <c r="K40" s="108">
         <f t="shared" si="30"/>
@@ -8956,7 +8922,7 @@
       </c>
       <c r="J41" s="138">
         <f t="shared" si="31"/>
-        <v>8300</v>
+        <v>0</v>
       </c>
       <c r="K41" s="138">
         <f>K35*K30</f>
@@ -9050,7 +9016,7 @@
       </c>
       <c r="J42" s="141">
         <f t="shared" si="33"/>
-        <v>3400</v>
+        <v>0</v>
       </c>
       <c r="K42" s="141">
         <f t="shared" si="33"/>
@@ -9138,23 +9104,23 @@
       </c>
       <c r="H43" s="146">
         <f>H32-H42</f>
-        <v>13760</v>
+        <v>10320</v>
       </c>
       <c r="I43" s="146">
         <f t="shared" ref="I43:P43" si="34">I32-I42</f>
-        <v>13360</v>
+        <v>11640</v>
       </c>
       <c r="J43" s="146">
         <f t="shared" si="34"/>
-        <v>13600</v>
+        <v>8450</v>
       </c>
       <c r="K43" s="146">
         <f t="shared" si="34"/>
-        <v>18980</v>
+        <v>10380</v>
       </c>
       <c r="L43" s="146">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>18400</v>
       </c>
       <c r="M43" s="146">
         <f t="shared" si="34"/>
@@ -9231,11 +9197,11 @@
       </c>
       <c r="H44" s="150">
         <f t="shared" ref="H44:P44" si="35">H33/H23</f>
-        <v>0.375</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="I44" s="150">
         <f t="shared" si="35"/>
-        <v>0.25</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="J44" s="150">
         <f t="shared" si="35"/>
@@ -9243,11 +9209,11 @@
       </c>
       <c r="K44" s="150">
         <f t="shared" si="35"/>
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="L44" s="150" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L44" s="150">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="M44" s="150">
         <f t="shared" si="35"/>
@@ -9332,15 +9298,15 @@
       </c>
       <c r="J45" s="150">
         <f t="shared" si="36"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K45" s="150">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="L45" s="150" t="e">
+      <c r="L45" s="150">
         <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M45" s="150">
         <f t="shared" si="36"/>
@@ -9425,15 +9391,15 @@
       </c>
       <c r="J46" s="150">
         <f t="shared" si="37"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K46" s="150">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="L46" s="150" t="e">
+      <c r="L46" s="150">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M46" s="150">
         <f t="shared" si="37"/>
@@ -10091,7 +10057,7 @@
       </c>
       <c r="H58" s="245">
         <f>'DC2'!D13</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I58" s="245">
         <f>'DC2'!E13</f>
@@ -10107,15 +10073,15 @@
       </c>
       <c r="L58" s="245">
         <f>'DC2'!H13</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M58" s="245">
         <f>'DC2'!I13</f>
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N58" s="245">
         <f>'DC2'!J13</f>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="O58" s="245">
         <f>'DC2'!K13</f>
@@ -10463,7 +10429,7 @@
       </c>
       <c r="H62" s="61">
         <f t="shared" ref="H62:O62" si="38">SUM(H58:H61)</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I62" s="61">
         <f t="shared" si="38"/>
@@ -10479,15 +10445,15 @@
       </c>
       <c r="L62" s="61">
         <f t="shared" si="38"/>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M62" s="61">
         <f t="shared" si="38"/>
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="N62" s="61">
         <f t="shared" si="38"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="O62" s="61">
         <f t="shared" si="38"/>
@@ -10628,39 +10594,39 @@
       </c>
       <c r="H64" s="68">
         <f t="shared" ref="H64:P64" si="39">G64+H63+H66-H62</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I64" s="68">
         <f t="shared" si="39"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J64" s="68">
         <f t="shared" si="39"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K64" s="68">
         <f t="shared" si="39"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L64" s="68">
         <f t="shared" si="39"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M64" s="68">
         <f t="shared" si="39"/>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N64" s="68">
         <f t="shared" si="39"/>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="O64" s="68">
         <f t="shared" si="39"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="P64" s="69">
         <f t="shared" si="39"/>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="R64" s="70" t="s">
         <v>45</v>
@@ -10727,7 +10693,7 @@
       </c>
       <c r="H65" s="68">
         <f t="shared" ref="H65:P65" si="40">IF(G64-H62+H63&lt;=$F$56, H62-H63-G64+$F$56,0)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I65" s="68">
         <f t="shared" si="40"/>
@@ -10735,31 +10701,31 @@
       </c>
       <c r="J65" s="68">
         <f t="shared" si="40"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K65" s="68">
         <f t="shared" si="40"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L65" s="68">
         <f t="shared" si="40"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M65" s="68">
         <f t="shared" si="40"/>
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N65" s="68">
         <f t="shared" si="40"/>
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="O65" s="68">
         <f t="shared" si="40"/>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="P65" s="69">
         <f t="shared" si="40"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R65" s="70" t="s">
         <v>48</v>
@@ -10823,7 +10789,7 @@
       </c>
       <c r="H66" s="68">
         <f t="shared" si="41"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I66" s="68">
         <f t="shared" si="41"/>
@@ -10835,7 +10801,7 @@
       </c>
       <c r="K66" s="68">
         <f t="shared" si="41"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L66" s="68">
         <f t="shared" si="41"/>
@@ -10843,19 +10809,19 @@
       </c>
       <c r="M66" s="68">
         <f t="shared" si="41"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N66" s="68">
         <f t="shared" si="41"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="O66" s="68">
         <f t="shared" si="41"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="P66" s="69">
         <f t="shared" si="41"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="W66">
         <f t="shared" si="20"/>
@@ -10912,7 +10878,7 @@
       <c r="F67" s="74"/>
       <c r="G67" s="75">
         <f>H66</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H67" s="75">
         <f t="shared" ref="H67:P67" si="42">I66</f>
@@ -10924,7 +10890,7 @@
       </c>
       <c r="J67" s="75">
         <f t="shared" si="42"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K67" s="75">
         <f t="shared" si="42"/>
@@ -10932,19 +10898,19 @@
       </c>
       <c r="L67" s="75">
         <f t="shared" si="42"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="M67" s="75">
         <f t="shared" si="42"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N67" s="75">
         <f t="shared" si="42"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="O67" s="75">
         <f t="shared" si="42"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P67" s="76">
         <f t="shared" si="42"/>
@@ -11091,7 +11057,7 @@
       <c r="F69" s="153"/>
       <c r="G69" s="83">
         <f>QUOTIENT(G67+$F$50-1,$F$49)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" s="83">
         <f t="shared" ref="H69:P69" si="44">QUOTIENT(H67+$F$50-1,$F$49)</f>
@@ -11103,7 +11069,7 @@
       </c>
       <c r="J69" s="83">
         <f t="shared" si="44"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K69" s="83">
         <f t="shared" si="44"/>
@@ -11111,19 +11077,19 @@
       </c>
       <c r="L69" s="83">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M69" s="83">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N69" s="83">
         <f t="shared" si="44"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O69" s="83">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P69" s="84">
         <f t="shared" si="44"/>
@@ -11180,7 +11146,7 @@
       <c r="F70" s="86"/>
       <c r="G70" s="87">
         <f>IF($Q$70="Choosing Supplier 1", G69*$G$49+G68*$G$50,G69*$G$51+G68*$G$52)</f>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H70" s="87">
         <f t="shared" ref="H70:P70" si="45">IF($Q$70="Choosing Supplier 1", H69*$G$49+H68*$G$50,H69*$G$51+H68*$G$52)</f>
@@ -11192,7 +11158,7 @@
       </c>
       <c r="J70" s="87">
         <f t="shared" si="45"/>
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K70" s="87">
         <f t="shared" si="45"/>
@@ -11200,19 +11166,19 @@
       </c>
       <c r="L70" s="87">
         <f t="shared" si="45"/>
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="M70" s="87">
         <f t="shared" si="45"/>
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="N70" s="87">
         <f t="shared" si="45"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="O70" s="87">
         <f t="shared" si="45"/>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="P70" s="88">
         <f t="shared" si="45"/>
@@ -11368,7 +11334,7 @@
       <c r="F72" s="94"/>
       <c r="G72" s="95">
         <f t="shared" ref="G72:P72" si="46">G71*G67</f>
-        <v>8400</v>
+        <v>4200</v>
       </c>
       <c r="H72" s="95">
         <f t="shared" si="46"/>
@@ -11380,7 +11346,7 @@
       </c>
       <c r="J72" s="95">
         <f t="shared" si="46"/>
-        <v>12900</v>
+        <v>17200</v>
       </c>
       <c r="K72" s="95">
         <f t="shared" si="46"/>
@@ -11388,19 +11354,19 @@
       </c>
       <c r="L72" s="95">
         <f t="shared" si="46"/>
-        <v>21600</v>
+        <v>12960</v>
       </c>
       <c r="M72" s="95">
         <f t="shared" si="46"/>
-        <v>21400</v>
+        <v>12840</v>
       </c>
       <c r="N72" s="95">
         <f t="shared" si="46"/>
-        <v>8480</v>
+        <v>12720</v>
       </c>
       <c r="O72" s="95">
         <f t="shared" si="46"/>
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="P72" s="134">
         <f t="shared" si="46"/>
@@ -11460,7 +11426,7 @@
       <c r="F73" s="99"/>
       <c r="G73" s="100">
         <f t="shared" ref="G73:P73" si="47">G70+G72</f>
-        <v>9400</v>
+        <v>4700</v>
       </c>
       <c r="H73" s="100">
         <f t="shared" si="47"/>
@@ -11472,7 +11438,7 @@
       </c>
       <c r="J73" s="100">
         <f t="shared" si="47"/>
-        <v>14400</v>
+        <v>19200</v>
       </c>
       <c r="K73" s="100">
         <f t="shared" si="47"/>
@@ -11480,19 +11446,19 @@
       </c>
       <c r="L73" s="100">
         <f t="shared" si="47"/>
-        <v>24100</v>
+        <v>14460</v>
       </c>
       <c r="M73" s="100">
         <f t="shared" si="47"/>
-        <v>23900</v>
+        <v>14340</v>
       </c>
       <c r="N73" s="100">
         <f t="shared" si="47"/>
-        <v>9480</v>
+        <v>14220</v>
       </c>
       <c r="O73" s="100">
         <f t="shared" si="47"/>
-        <v>4700</v>
+        <v>0</v>
       </c>
       <c r="P73" s="101">
         <f t="shared" si="47"/>
@@ -11641,7 +11607,7 @@
       <c r="F75" s="103"/>
       <c r="G75" s="104">
         <f>G74*G67</f>
-        <v>16440</v>
+        <v>8220</v>
       </c>
       <c r="H75" s="104">
         <f t="shared" ref="H75:P75" si="48">H74*H67</f>
@@ -11653,7 +11619,7 @@
       </c>
       <c r="J75" s="104">
         <f t="shared" si="48"/>
-        <v>24780</v>
+        <v>33040</v>
       </c>
       <c r="K75" s="104">
         <f t="shared" si="48"/>
@@ -11661,19 +11627,19 @@
       </c>
       <c r="L75" s="104">
         <f t="shared" si="48"/>
-        <v>42800</v>
+        <v>25680</v>
       </c>
       <c r="M75" s="104">
         <f t="shared" si="48"/>
-        <v>42600</v>
+        <v>25560</v>
       </c>
       <c r="N75" s="104">
         <f t="shared" si="48"/>
-        <v>16760</v>
+        <v>25140</v>
       </c>
       <c r="O75" s="104">
         <f t="shared" si="48"/>
-        <v>8300</v>
+        <v>0</v>
       </c>
       <c r="P75" s="105">
         <f t="shared" si="48"/>
@@ -11733,7 +11699,7 @@
       <c r="F76" s="107"/>
       <c r="G76" s="108">
         <f>G75-G73</f>
-        <v>7040</v>
+        <v>3520</v>
       </c>
       <c r="H76" s="108">
         <f t="shared" ref="H76:P76" si="49">H75-H73</f>
@@ -11745,7 +11711,7 @@
       </c>
       <c r="J76" s="108">
         <f t="shared" si="49"/>
-        <v>10380</v>
+        <v>13840</v>
       </c>
       <c r="K76" s="108">
         <f t="shared" si="49"/>
@@ -11753,19 +11719,19 @@
       </c>
       <c r="L76" s="108">
         <f t="shared" si="49"/>
-        <v>18700</v>
+        <v>11220</v>
       </c>
       <c r="M76" s="108">
         <f t="shared" si="49"/>
-        <v>18700</v>
+        <v>11220</v>
       </c>
       <c r="N76" s="108">
         <f t="shared" si="49"/>
-        <v>7280</v>
+        <v>10920</v>
       </c>
       <c r="O76" s="108">
         <f t="shared" si="49"/>
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="P76" s="109">
         <f t="shared" si="49"/>
@@ -11825,7 +11791,7 @@
       <c r="F77" s="215"/>
       <c r="G77" s="216">
         <f>SUM(H58:H59)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H77" s="216">
         <f t="shared" ref="H77:P77" si="50">SUM(I58:I59)</f>
@@ -11841,15 +11807,15 @@
       </c>
       <c r="K77" s="216">
         <f t="shared" si="50"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L77" s="216">
         <f t="shared" si="50"/>
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="M77" s="216">
         <f t="shared" si="50"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N77" s="216">
         <f t="shared" si="50"/>
@@ -11929,7 +11895,7 @@
       </c>
       <c r="J78" s="79">
         <f t="shared" si="51"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K78" s="79">
         <f t="shared" si="51"/>
@@ -11941,7 +11907,7 @@
       </c>
       <c r="M78" s="79">
         <f t="shared" si="51"/>
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N78" s="79">
         <f t="shared" si="51"/>
@@ -12019,7 +11985,7 @@
       </c>
       <c r="J79" s="263">
         <f t="shared" si="52"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K79" s="263">
         <f t="shared" si="52"/>
@@ -12031,7 +11997,7 @@
       </c>
       <c r="M79" s="263">
         <f t="shared" si="52"/>
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="N79" s="263">
         <f t="shared" si="52"/>
@@ -12160,7 +12126,7 @@
       </c>
       <c r="J81" s="83">
         <f t="shared" si="54"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" s="83">
         <f t="shared" si="54"/>
@@ -12172,7 +12138,7 @@
       </c>
       <c r="M81" s="83">
         <f t="shared" si="54"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N81" s="83">
         <f t="shared" si="54"/>
@@ -12250,7 +12216,7 @@
       </c>
       <c r="J82" s="130">
         <f t="shared" si="55"/>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K82" s="130">
         <f t="shared" si="55"/>
@@ -12262,7 +12228,7 @@
       </c>
       <c r="M82" s="130">
         <f t="shared" si="55"/>
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="N82" s="130">
         <f t="shared" si="55"/>
@@ -12343,7 +12309,7 @@
       </c>
       <c r="J83" s="138">
         <f t="shared" si="56"/>
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="K83" s="138">
         <f>K79*K71</f>
@@ -12355,7 +12321,7 @@
       </c>
       <c r="M83" s="138">
         <f t="shared" si="57"/>
-        <v>9630</v>
+        <v>3210</v>
       </c>
       <c r="N83" s="138">
         <f t="shared" si="57"/>
@@ -12434,7 +12400,7 @@
       </c>
       <c r="J84" s="108">
         <f t="shared" si="58"/>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="K84" s="108">
         <f t="shared" si="58"/>
@@ -12446,7 +12412,7 @@
       </c>
       <c r="M84" s="108">
         <f t="shared" si="58"/>
-        <v>11130</v>
+        <v>3710</v>
       </c>
       <c r="N84" s="108">
         <f t="shared" si="58"/>
@@ -12482,7 +12448,7 @@
       </c>
       <c r="J85" s="138">
         <f t="shared" si="59"/>
-        <v>8260</v>
+        <v>0</v>
       </c>
       <c r="K85" s="138">
         <f>K79*K74</f>
@@ -12494,7 +12460,7 @@
       </c>
       <c r="M85" s="138">
         <f t="shared" si="60"/>
-        <v>19170</v>
+        <v>6390</v>
       </c>
       <c r="N85" s="138">
         <f t="shared" si="60"/>
@@ -12530,7 +12496,7 @@
       </c>
       <c r="J86" s="141">
         <f t="shared" si="61"/>
-        <v>3460</v>
+        <v>0</v>
       </c>
       <c r="K86" s="141">
         <f t="shared" si="61"/>
@@ -12542,7 +12508,7 @@
       </c>
       <c r="M86" s="141">
         <f t="shared" si="61"/>
-        <v>8040</v>
+        <v>2680</v>
       </c>
       <c r="N86" s="141">
         <f t="shared" si="61"/>
@@ -12568,7 +12534,7 @@
       <c r="F87" s="145"/>
       <c r="G87" s="146">
         <f>G76-G86</f>
-        <v>7040</v>
+        <v>3520</v>
       </c>
       <c r="H87" s="146">
         <f>H76-H86</f>
@@ -12580,7 +12546,7 @@
       </c>
       <c r="J87" s="146">
         <f t="shared" si="62"/>
-        <v>6920</v>
+        <v>13840</v>
       </c>
       <c r="K87" s="146">
         <f t="shared" si="62"/>
@@ -12588,19 +12554,19 @@
       </c>
       <c r="L87" s="146">
         <f t="shared" si="62"/>
-        <v>18700</v>
+        <v>11220</v>
       </c>
       <c r="M87" s="146">
         <f t="shared" si="62"/>
-        <v>10660</v>
+        <v>8540</v>
       </c>
       <c r="N87" s="146">
         <f t="shared" si="62"/>
-        <v>7280</v>
+        <v>10920</v>
       </c>
       <c r="O87" s="146">
         <f t="shared" si="62"/>
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="P87" s="147">
         <f t="shared" si="62"/>
@@ -12627,15 +12593,15 @@
       </c>
       <c r="J88" s="150">
         <f t="shared" si="63"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="K88" s="150">
         <f t="shared" si="63"/>
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="L88" s="150">
         <f t="shared" si="63"/>
-        <v>0.6</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M88" s="150">
         <f t="shared" si="63"/>
@@ -12645,9 +12611,9 @@
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="O88" s="150">
+      <c r="O88" s="150" t="e">
         <f t="shared" si="63"/>
-        <v>0.5</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P88" s="150" t="e">
         <f t="shared" si="63"/>
@@ -12674,7 +12640,7 @@
       </c>
       <c r="J89" s="150">
         <f t="shared" si="64"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="K89" s="150">
         <f t="shared" si="64"/>
@@ -12686,15 +12652,15 @@
       </c>
       <c r="M89" s="150">
         <f t="shared" si="64"/>
-        <v>0.46569037656903767</v>
+        <v>0.25871687587168757</v>
       </c>
       <c r="N89" s="150">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="O89" s="150">
+      <c r="O89" s="150" t="e">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P89" s="150" t="e">
         <f t="shared" si="64"/>
@@ -12721,7 +12687,7 @@
       </c>
       <c r="J90" s="150">
         <f t="shared" si="65"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="K90" s="150">
         <f t="shared" si="65"/>
@@ -12733,15 +12699,15 @@
       </c>
       <c r="M90" s="150">
         <f t="shared" si="65"/>
-        <v>0.42994652406417111</v>
+        <v>0.23885918003565063</v>
       </c>
       <c r="N90" s="150">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="O90" s="150">
+      <c r="O90" s="150" t="e">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P90" s="150" t="e">
         <f t="shared" si="65"/>
@@ -12961,7 +12927,7 @@
       </c>
       <c r="L103" s="65">
         <f>'DC3'!H13</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M103" s="65">
         <f>'DC3'!I13</f>
@@ -13145,7 +13111,7 @@
       </c>
       <c r="L107" s="207">
         <f t="shared" si="66"/>
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="M107" s="207">
         <f t="shared" si="66"/>
@@ -13265,7 +13231,7 @@
       </c>
       <c r="L110" s="68">
         <f t="shared" si="68"/>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="M110" s="68">
         <f t="shared" si="68"/>
@@ -13314,7 +13280,7 @@
       </c>
       <c r="L111" s="175">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="M111" s="175">
         <f t="shared" si="69"/>
@@ -13360,7 +13326,7 @@
       </c>
       <c r="L112" s="75">
         <f t="shared" si="70"/>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="M112" s="75">
         <f t="shared" si="70"/>
@@ -13453,7 +13419,7 @@
       </c>
       <c r="L114" s="83">
         <f t="shared" si="72"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M114" s="83">
         <f t="shared" si="72"/>
@@ -13499,7 +13465,7 @@
       </c>
       <c r="L115" s="87">
         <f t="shared" si="73"/>
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="M115" s="87">
         <f t="shared" si="73"/>
@@ -13601,7 +13567,7 @@
       </c>
       <c r="L117" s="95">
         <f t="shared" si="74"/>
-        <v>3240</v>
+        <v>12960</v>
       </c>
       <c r="M117" s="95">
         <f t="shared" si="74"/>
@@ -13650,7 +13616,7 @@
       </c>
       <c r="L118" s="100">
         <f t="shared" si="75"/>
-        <v>3440</v>
+        <v>13560</v>
       </c>
       <c r="M118" s="100">
         <f t="shared" si="75"/>
@@ -13745,7 +13711,7 @@
       </c>
       <c r="L120" s="104">
         <f t="shared" si="76"/>
-        <v>6450</v>
+        <v>25800</v>
       </c>
       <c r="M120" s="104">
         <f t="shared" si="76"/>
@@ -13794,7 +13760,7 @@
       </c>
       <c r="L121" s="108">
         <f t="shared" si="77"/>
-        <v>3010</v>
+        <v>12240</v>
       </c>
       <c r="M121" s="108">
         <f t="shared" si="77"/>
@@ -13857,7 +13823,7 @@
       </c>
       <c r="L122" s="216">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M122" s="216">
         <f t="shared" si="78"/>
@@ -13912,7 +13878,7 @@
       </c>
       <c r="J123" s="79">
         <f t="shared" si="79"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K123" s="79">
         <f t="shared" si="79"/>
@@ -13924,7 +13890,7 @@
       </c>
       <c r="M123" s="79">
         <f t="shared" si="79"/>
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N123" s="79">
         <f t="shared" si="79"/>
@@ -13973,7 +13939,7 @@
       </c>
       <c r="J124" s="263">
         <f t="shared" si="80"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K124" s="263">
         <f t="shared" si="80"/>
@@ -13985,7 +13951,7 @@
       </c>
       <c r="M124" s="263">
         <f t="shared" si="80"/>
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N124" s="263">
         <f t="shared" si="80"/>
@@ -14095,7 +14061,7 @@
       </c>
       <c r="J126" s="83">
         <f t="shared" si="82"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K126" s="83">
         <f t="shared" si="82"/>
@@ -14107,7 +14073,7 @@
       </c>
       <c r="M126" s="83">
         <f t="shared" si="82"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N126" s="83">
         <f t="shared" si="82"/>
@@ -14156,7 +14122,7 @@
       </c>
       <c r="J127" s="130">
         <f t="shared" si="83"/>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K127" s="130">
         <f t="shared" si="83"/>
@@ -14168,7 +14134,7 @@
       </c>
       <c r="M127" s="130">
         <f t="shared" si="83"/>
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N127" s="130">
         <f t="shared" si="83"/>
@@ -14220,7 +14186,7 @@
       </c>
       <c r="J128" s="138">
         <f t="shared" si="84"/>
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="K128" s="138">
         <f>K124*K116</f>
@@ -14232,7 +14198,7 @@
       </c>
       <c r="M128" s="138">
         <f t="shared" si="85"/>
-        <v>11770</v>
+        <v>5350</v>
       </c>
       <c r="N128" s="138">
         <f t="shared" si="85"/>
@@ -14282,7 +14248,7 @@
       </c>
       <c r="J129" s="108">
         <f t="shared" si="86"/>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="K129" s="108">
         <f t="shared" si="86"/>
@@ -14294,7 +14260,7 @@
       </c>
       <c r="M129" s="108">
         <f t="shared" si="86"/>
-        <v>12370</v>
+        <v>5550</v>
       </c>
       <c r="N129" s="108">
         <f t="shared" si="86"/>
@@ -14343,7 +14309,7 @@
       </c>
       <c r="J130" s="138">
         <f t="shared" si="87"/>
-        <v>8300</v>
+        <v>0</v>
       </c>
       <c r="K130" s="138">
         <f>K124*K119</f>
@@ -14355,7 +14321,7 @@
       </c>
       <c r="M130" s="138">
         <f t="shared" si="88"/>
-        <v>23265</v>
+        <v>10575</v>
       </c>
       <c r="N130" s="138">
         <f t="shared" si="88"/>
@@ -14390,7 +14356,7 @@
       </c>
       <c r="J131" s="141">
         <f t="shared" si="89"/>
-        <v>3800</v>
+        <v>0</v>
       </c>
       <c r="K131" s="141">
         <f t="shared" si="89"/>
@@ -14402,7 +14368,7 @@
       </c>
       <c r="M131" s="141">
         <f t="shared" si="89"/>
-        <v>10895</v>
+        <v>5025</v>
       </c>
       <c r="N131" s="141">
         <f t="shared" si="89"/>
@@ -14439,7 +14405,7 @@
       </c>
       <c r="J132" s="146">
         <f t="shared" si="90"/>
-        <v>7600</v>
+        <v>11400</v>
       </c>
       <c r="K132" s="146">
         <f t="shared" si="90"/>
@@ -14447,11 +14413,11 @@
       </c>
       <c r="L132" s="146">
         <f t="shared" si="90"/>
-        <v>3010</v>
+        <v>12240</v>
       </c>
       <c r="M132" s="146">
         <f t="shared" si="90"/>
-        <v>15920</v>
+        <v>21790</v>
       </c>
       <c r="N132" s="146">
         <f t="shared" si="90"/>
@@ -14494,7 +14460,7 @@
       </c>
       <c r="L133" s="150">
         <f t="shared" si="91"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="M133" s="150">
         <f t="shared" si="91"/>
@@ -14533,7 +14499,7 @@
       </c>
       <c r="J134" s="150">
         <f t="shared" si="92"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="K134" s="150">
         <f t="shared" si="92"/>
@@ -14545,7 +14511,7 @@
       </c>
       <c r="M134" s="150">
         <f t="shared" si="92"/>
-        <v>0.40838560581049854</v>
+        <v>0.18322878837900297</v>
       </c>
       <c r="N134" s="150">
         <f t="shared" si="92"/>
@@ -14580,7 +14546,7 @@
       </c>
       <c r="J135" s="150">
         <f t="shared" si="93"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="K135" s="150">
         <f t="shared" si="93"/>
@@ -14592,7 +14558,7 @@
       </c>
       <c r="M135" s="150">
         <f t="shared" si="93"/>
-        <v>0.40630244266268878</v>
+        <v>0.18739511467462242</v>
       </c>
       <c r="N135" s="150">
         <f t="shared" si="93"/>
@@ -14664,7 +14630,7 @@
       </c>
       <c r="F141" s="6">
         <f>Supplier1!C7</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
         <v>35</v>
@@ -14697,7 +14663,7 @@
       </c>
       <c r="F143" s="7">
         <f>Supplier1!C4</f>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="O143" s="301"/>
       <c r="P143" s="301"/>
@@ -14762,23 +14728,23 @@
       </c>
       <c r="H146" s="282">
         <f t="shared" ref="H146:P146" si="94">IF($Q$26 = "Choosing Supplier 1", IF($F$144="Yes", H23,0),0)</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I146" s="282">
         <f t="shared" si="94"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J146" s="282">
         <f t="shared" si="94"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K146" s="282">
         <f t="shared" si="94"/>
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="L146" s="282">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M146" s="282">
         <f t="shared" si="94"/>
@@ -14804,7 +14770,7 @@
       <c r="F147" s="271"/>
       <c r="G147" s="272">
         <f>IF($Q$70 = "Choosing Supplier 1", IF($F$144="Yes", G67,0),0)</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H147" s="272">
         <f t="shared" ref="H147:P147" si="95">IF($Q$70 = "Choosing Supplier 1", IF($F$144="Yes", H67,0),0)</f>
@@ -14816,7 +14782,7 @@
       </c>
       <c r="J147" s="272">
         <f t="shared" si="95"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K147" s="272">
         <f t="shared" si="95"/>
@@ -14824,19 +14790,19 @@
       </c>
       <c r="L147" s="272">
         <f t="shared" si="95"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="M147" s="272">
         <f t="shared" si="95"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N147" s="272">
         <f t="shared" si="95"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="O147" s="272">
         <f t="shared" si="95"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P147" s="273">
         <f t="shared" si="95"/>
@@ -14870,7 +14836,7 @@
       </c>
       <c r="L148" s="275">
         <f t="shared" si="96"/>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="M148" s="275">
         <f t="shared" si="96"/>
@@ -14896,39 +14862,39 @@
       <c r="F149" s="186"/>
       <c r="G149" s="287">
         <f>SUM(G146:G148)</f>
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="H149" s="287">
         <f t="shared" ref="H149:P149" si="97">SUM(H146:H148)</f>
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="I149" s="287">
         <f t="shared" si="97"/>
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="J149" s="287">
         <f t="shared" si="97"/>
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="K149" s="287">
         <f t="shared" si="97"/>
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="L149" s="287">
         <f t="shared" si="97"/>
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="M149" s="287">
         <f t="shared" si="97"/>
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="N149" s="287">
         <f t="shared" si="97"/>
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="O149" s="287">
         <f t="shared" si="97"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="P149" s="288">
         <f t="shared" si="97"/>
@@ -14961,7 +14927,7 @@
       </c>
       <c r="G151" s="68">
         <f t="shared" ref="G151:P151" si="98">F151+G153-G149</f>
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="H151" s="68">
         <f t="shared" si="98"/>
@@ -14969,35 +14935,35 @@
       </c>
       <c r="I151" s="68">
         <f t="shared" si="98"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J151" s="68">
         <f t="shared" si="98"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K151" s="68">
         <f t="shared" si="98"/>
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L151" s="68">
         <f t="shared" si="98"/>
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="M151" s="68">
         <f t="shared" si="98"/>
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="N151" s="68">
         <f t="shared" si="98"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="O151" s="68">
         <f t="shared" si="98"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="P151" s="69">
         <f t="shared" si="98"/>
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="4:17" x14ac:dyDescent="0.3">
@@ -15007,7 +14973,7 @@
       <c r="F152" s="71"/>
       <c r="G152" s="68">
         <f t="shared" ref="G152:P152" si="99">IF(F151-G149&lt;=$F$142, G149-F151+$F$142,0)</f>
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="H152" s="68">
         <f t="shared" si="99"/>
@@ -15015,35 +14981,35 @@
       </c>
       <c r="I152" s="68">
         <f t="shared" si="99"/>
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="J152" s="68">
         <f t="shared" si="99"/>
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="K152" s="68">
         <f t="shared" si="99"/>
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="L152" s="68">
         <f t="shared" si="99"/>
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="M152" s="68">
         <f t="shared" si="99"/>
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="N152" s="68">
         <f t="shared" si="99"/>
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="O152" s="68">
         <f t="shared" si="99"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="P152" s="69">
         <f t="shared" si="99"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153" spans="4:17" x14ac:dyDescent="0.3">
@@ -15053,7 +15019,7 @@
       <c r="F153" s="71"/>
       <c r="G153" s="68">
         <f xml:space="preserve"> CEILING(G152/$F$141,1)*$F$141</f>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H153" s="68">
         <f t="shared" ref="H153:P153" si="100" xml:space="preserve"> CEILING(H152/$F$141,1)*$F$141</f>
@@ -15061,35 +15027,35 @@
       </c>
       <c r="I153" s="68">
         <f t="shared" si="100"/>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="J153" s="68">
         <f t="shared" si="100"/>
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="K153" s="68">
         <f t="shared" si="100"/>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="L153" s="68">
         <f t="shared" si="100"/>
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="M153" s="68">
         <f t="shared" si="100"/>
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N153" s="68">
         <f t="shared" si="100"/>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="O153" s="68">
         <f t="shared" si="100"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="P153" s="69">
         <f t="shared" si="100"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="154" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -15103,35 +15069,35 @@
       </c>
       <c r="H154" s="195">
         <f>I153</f>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="I154" s="195">
         <f t="shared" ref="I154:P154" si="101">J153</f>
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="J154" s="195">
         <f t="shared" si="101"/>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K154" s="195">
         <f t="shared" si="101"/>
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="L154" s="195">
         <f t="shared" si="101"/>
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="M154" s="195">
         <f t="shared" si="101"/>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N154" s="195">
         <f t="shared" si="101"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="O154" s="195">
         <f t="shared" si="101"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P154" s="196">
         <f t="shared" si="101"/>
@@ -15158,7 +15124,7 @@
       </c>
       <c r="J155" s="199">
         <f t="shared" si="102"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K155" s="199">
         <f t="shared" si="102"/>
@@ -15170,7 +15136,7 @@
       </c>
       <c r="M155" s="199">
         <f t="shared" si="102"/>
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N155" s="199">
         <f t="shared" si="102"/>
@@ -15205,7 +15171,7 @@
       </c>
       <c r="J156" s="199">
         <f t="shared" si="102"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K156" s="199">
         <f t="shared" si="102"/>
@@ -15217,7 +15183,7 @@
       </c>
       <c r="M156" s="199">
         <f t="shared" si="102"/>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N156" s="199">
         <f t="shared" si="102"/>
@@ -15305,7 +15271,7 @@
       </c>
       <c r="F164" s="7">
         <f>Supplier2!C4</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="O164" s="301"/>
       <c r="P164" s="301"/>
@@ -15948,8 +15914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B409AB02-E9CA-40CB-B386-70D450CE0A6B}">
   <dimension ref="A2:AK192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D145" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q175" sqref="Q175"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J165" sqref="J165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16179,23 +16145,23 @@
       </c>
       <c r="J14" s="245">
         <f>'DC1'!F13</f>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K14" s="248">
         <f>'DC1'!G13</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L14" s="245">
         <f>'DC1'!H13</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M14" s="245">
         <f>'DC1'!I13</f>
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="N14" s="245">
         <f>'DC1'!J13</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O14" s="245">
         <f>'DC1'!K13</f>
@@ -16372,23 +16338,23 @@
       </c>
       <c r="J18" s="61">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="K18" s="61">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L18" s="61">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M18" s="61">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="N18" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O18" s="61">
         <f t="shared" si="0"/>
@@ -16446,7 +16412,7 @@
       </c>
       <c r="J20" s="68">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K20" s="68">
         <f t="shared" si="1"/>
@@ -16498,23 +16464,23 @@
       </c>
       <c r="J21" s="68">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="K21" s="68">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L21" s="68">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M21" s="68">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="N21" s="68">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O21" s="68">
         <f t="shared" si="2"/>
@@ -16547,23 +16513,23 @@
       </c>
       <c r="J22" s="68">
         <f t="shared" ref="J22" si="4" xml:space="preserve"> CEILING(J21/$F$11,1)*$F$11</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K22" s="68">
         <f t="shared" ref="K22:L22" si="5" xml:space="preserve"> CEILING(K21/$F$11,1)*$F$11</f>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L22" s="68">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M22" s="68">
         <f t="shared" ref="M22" si="6" xml:space="preserve"> CEILING(M21/$F$11,1)*$F$11</f>
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="N22" s="68">
         <f t="shared" ref="N22:O22" si="7" xml:space="preserve"> CEILING(N21/$F$11,1)*$F$11</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="68">
         <f t="shared" si="7"/>
@@ -16585,23 +16551,23 @@
       </c>
       <c r="H23" s="75">
         <f t="shared" ref="H23:P23" si="9">IF($Q$26 = "Choosing Supplier 1", J22, I22)</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I23" s="75">
         <f t="shared" si="9"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J23" s="75">
         <f t="shared" si="9"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K23" s="75">
         <f t="shared" si="9"/>
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="L23" s="75">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M23" s="75">
         <f t="shared" si="9"/>
@@ -16635,15 +16601,15 @@
       </c>
       <c r="I24" s="79">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="79">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="79">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="79">
         <f t="shared" si="10"/>
@@ -16678,23 +16644,23 @@
       </c>
       <c r="H25" s="83">
         <f t="shared" ref="H25:P25" si="11">QUOTIENT(H23+$F$6-1,$F$5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25" s="83">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J25" s="83">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K25" s="83">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L25" s="83">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M25" s="83">
         <f t="shared" si="11"/>
@@ -16724,23 +16690,23 @@
       </c>
       <c r="H26" s="87">
         <f t="shared" ref="H26:P26" si="12">IF($Q$26="Choosing Supplier 1", H25*$G$5+H24*$G$6,H25*$G$7+H24*$G$8)</f>
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="I26" s="87">
         <f t="shared" si="12"/>
-        <v>2400</v>
+        <v>2150</v>
       </c>
       <c r="J26" s="87">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>1550</v>
       </c>
       <c r="K26" s="87">
         <f t="shared" si="12"/>
-        <v>3350</v>
+        <v>1800</v>
       </c>
       <c r="L26" s="87">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="M26" s="87">
         <f t="shared" si="12"/>
@@ -16826,23 +16792,23 @@
       </c>
       <c r="H28" s="96">
         <f>H27*H23</f>
-        <v>16880</v>
+        <v>12660</v>
       </c>
       <c r="I28" s="96">
         <f t="shared" si="13"/>
-        <v>17040</v>
+        <v>14910</v>
       </c>
       <c r="J28" s="96">
         <f t="shared" si="13"/>
-        <v>21500</v>
+        <v>10750</v>
       </c>
       <c r="K28" s="96">
         <f t="shared" si="13"/>
-        <v>23650</v>
+        <v>12900</v>
       </c>
       <c r="L28" s="96">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>21600</v>
       </c>
       <c r="M28" s="96">
         <f t="shared" si="13"/>
@@ -16878,23 +16844,23 @@
       </c>
       <c r="H29" s="100">
         <f t="shared" si="14"/>
-        <v>19280</v>
+        <v>14460</v>
       </c>
       <c r="I29" s="100">
         <f t="shared" si="14"/>
-        <v>19440</v>
+        <v>17060</v>
       </c>
       <c r="J29" s="100">
         <f t="shared" si="14"/>
-        <v>24500</v>
+        <v>12300</v>
       </c>
       <c r="K29" s="100">
         <f t="shared" si="14"/>
-        <v>27000</v>
+        <v>14700</v>
       </c>
       <c r="L29" s="100">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>24600</v>
       </c>
       <c r="M29" s="100">
         <f t="shared" si="14"/>
@@ -16976,23 +16942,23 @@
       </c>
       <c r="H31" s="104">
         <f t="shared" ref="H31:P31" si="15">H30*H23</f>
-        <v>33040</v>
+        <v>24780</v>
       </c>
       <c r="I31" s="104">
         <f t="shared" si="15"/>
-        <v>32800</v>
+        <v>28700</v>
       </c>
       <c r="J31" s="104">
         <f t="shared" si="15"/>
-        <v>41500</v>
+        <v>20750</v>
       </c>
       <c r="K31" s="104">
         <f t="shared" si="15"/>
-        <v>45980</v>
+        <v>25080</v>
       </c>
       <c r="L31" s="104">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>43000</v>
       </c>
       <c r="M31" s="104">
         <f t="shared" si="15"/>
@@ -17025,23 +16991,23 @@
       </c>
       <c r="H32" s="108">
         <f t="shared" ref="H32:P32" si="16">H31-H29</f>
-        <v>13760</v>
+        <v>10320</v>
       </c>
       <c r="I32" s="108">
         <f t="shared" si="16"/>
-        <v>13360</v>
+        <v>11640</v>
       </c>
       <c r="J32" s="108">
         <f t="shared" si="16"/>
-        <v>17000</v>
+        <v>8450</v>
       </c>
       <c r="K32" s="108">
         <f t="shared" si="16"/>
-        <v>18980</v>
+        <v>10380</v>
       </c>
       <c r="L32" s="108">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>18400</v>
       </c>
       <c r="M32" s="108">
         <f t="shared" si="16"/>
@@ -17074,23 +17040,23 @@
       </c>
       <c r="H33" s="216">
         <f t="shared" si="17"/>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="I33" s="216">
         <f>IF($Q$26 = "Choosing Supplier 1", SUM(K14:K15),SUM(J14:J15))</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J33" s="216">
         <f t="shared" ref="J33:P33" si="18">IF($Q$26 = "Choosing Supplier 1", SUM(L14:L15),SUM(K14:K15))</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K33" s="216">
         <f t="shared" si="18"/>
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="L33" s="216">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M33" s="216">
         <f t="shared" si="18"/>
@@ -17141,7 +17107,7 @@
       </c>
       <c r="J34" s="79">
         <f t="shared" si="19"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K34" s="79">
         <f t="shared" si="19"/>
@@ -17192,7 +17158,7 @@
       </c>
       <c r="J35" s="299">
         <f t="shared" si="20"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K35" s="299">
         <f t="shared" si="20"/>
@@ -17243,7 +17209,7 @@
       </c>
       <c r="J36" s="263">
         <f t="shared" si="21"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K36" s="263">
         <f t="shared" si="21"/>
@@ -17374,7 +17340,7 @@
       </c>
       <c r="J38" s="83">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="83">
         <f>IF($Q$26="Choosing Supplier 1", QUOTIENT(K36+$F$6-1,$F$5),QUOTIENT(K36+$F$8-1,$F$7))</f>
@@ -17470,7 +17436,7 @@
       </c>
       <c r="J39" s="130">
         <f t="shared" si="26"/>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="K39" s="130">
         <f>IF($Q$26="Choosing Supplier 1", K38*$G$5+K37*$G$6, K38*$G$7+K37*$G$8)</f>
@@ -17569,7 +17535,7 @@
       </c>
       <c r="J40" s="138">
         <f t="shared" si="36"/>
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="K40" s="138">
         <f>K36*K27</f>
@@ -17666,7 +17632,7 @@
       </c>
       <c r="J41" s="108">
         <f t="shared" si="38"/>
-        <v>4900</v>
+        <v>0</v>
       </c>
       <c r="K41" s="108">
         <f t="shared" si="38"/>
@@ -17762,7 +17728,7 @@
       </c>
       <c r="J42" s="138">
         <f t="shared" si="39"/>
-        <v>8300</v>
+        <v>0</v>
       </c>
       <c r="K42" s="138">
         <f>K36*K30</f>
@@ -17858,7 +17824,7 @@
       </c>
       <c r="J43" s="141">
         <f t="shared" si="41"/>
-        <v>3400</v>
+        <v>0</v>
       </c>
       <c r="K43" s="141">
         <f t="shared" si="41"/>
@@ -17949,23 +17915,23 @@
       </c>
       <c r="H44" s="146">
         <f>H32-H43</f>
-        <v>13760</v>
+        <v>10320</v>
       </c>
       <c r="I44" s="146">
         <f t="shared" ref="I44:P44" si="42">I32-I43</f>
-        <v>13360</v>
+        <v>11640</v>
       </c>
       <c r="J44" s="146">
         <f t="shared" si="42"/>
-        <v>13600</v>
+        <v>8450</v>
       </c>
       <c r="K44" s="146">
         <f t="shared" si="42"/>
-        <v>18980</v>
+        <v>10380</v>
       </c>
       <c r="L44" s="146">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>18400</v>
       </c>
       <c r="M44" s="146">
         <f t="shared" si="42"/>
@@ -18045,11 +18011,11 @@
       </c>
       <c r="H45" s="150">
         <f t="shared" ref="H45:P45" si="43">H33/H23</f>
-        <v>0.375</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="I45" s="150">
         <f t="shared" si="43"/>
-        <v>0.25</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="J45" s="150">
         <f t="shared" si="43"/>
@@ -18057,11 +18023,11 @@
       </c>
       <c r="K45" s="150">
         <f t="shared" si="43"/>
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="L45" s="150" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L45" s="150">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="M45" s="150">
         <f t="shared" si="43"/>
@@ -18146,15 +18112,15 @@
       </c>
       <c r="J46" s="150">
         <f t="shared" si="44"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K46" s="150">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="L46" s="150" t="e">
+      <c r="L46" s="150">
         <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M46" s="150">
         <f t="shared" si="44"/>
@@ -18239,15 +18205,15 @@
       </c>
       <c r="J47" s="150">
         <f t="shared" si="45"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K47" s="150">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="L47" s="150" t="e">
+      <c r="L47" s="150">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M47" s="150">
         <f t="shared" si="45"/>
@@ -18889,7 +18855,7 @@
       </c>
       <c r="H59" s="245">
         <f>'DC2'!D13</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I59" s="245">
         <f>'DC2'!E13</f>
@@ -18905,15 +18871,15 @@
       </c>
       <c r="L59" s="245">
         <f>'DC2'!H13</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M59" s="245">
         <f>'DC2'!I13</f>
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N59" s="245">
         <f>'DC2'!J13</f>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="O59" s="245">
         <f>'DC2'!K13</f>
@@ -19261,7 +19227,7 @@
       </c>
       <c r="H63" s="61">
         <f t="shared" ref="H63:O63" si="46">SUM(H59:H62)</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I63" s="61">
         <f t="shared" si="46"/>
@@ -19277,15 +19243,15 @@
       </c>
       <c r="L63" s="61">
         <f t="shared" si="46"/>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M63" s="61">
         <f t="shared" si="46"/>
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="N63" s="61">
         <f t="shared" si="46"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="O63" s="61">
         <f t="shared" si="46"/>
@@ -19426,39 +19392,39 @@
       </c>
       <c r="H65" s="68">
         <f t="shared" ref="H65:P65" si="47">G65+H64+H67-H63</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I65" s="68">
         <f t="shared" si="47"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J65" s="68">
         <f t="shared" si="47"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K65" s="68">
         <f t="shared" si="47"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L65" s="68">
         <f t="shared" si="47"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M65" s="68">
         <f t="shared" si="47"/>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N65" s="68">
         <f t="shared" si="47"/>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="O65" s="68">
         <f t="shared" si="47"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="P65" s="69">
         <f t="shared" si="47"/>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="R65" s="70" t="s">
         <v>45</v>
@@ -19525,7 +19491,7 @@
       </c>
       <c r="H66" s="68">
         <f t="shared" ref="H66:P66" si="48">IF(G65-H63+H64&lt;=$F$57, H63-H64-G65+$F$57,0)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I66" s="68">
         <f t="shared" si="48"/>
@@ -19533,31 +19499,31 @@
       </c>
       <c r="J66" s="68">
         <f t="shared" si="48"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K66" s="68">
         <f t="shared" si="48"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L66" s="68">
         <f t="shared" si="48"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M66" s="68">
         <f t="shared" si="48"/>
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N66" s="68">
         <f t="shared" si="48"/>
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="O66" s="68">
         <f t="shared" si="48"/>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="P66" s="69">
         <f t="shared" si="48"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R66" s="70" t="s">
         <v>48</v>
@@ -19621,7 +19587,7 @@
       </c>
       <c r="H67" s="68">
         <f t="shared" si="49"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I67" s="68">
         <f t="shared" si="49"/>
@@ -19633,7 +19599,7 @@
       </c>
       <c r="K67" s="68">
         <f t="shared" si="49"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L67" s="68">
         <f t="shared" si="49"/>
@@ -19641,19 +19607,19 @@
       </c>
       <c r="M67" s="68">
         <f t="shared" si="49"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N67" s="68">
         <f t="shared" si="49"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="O67" s="68">
         <f t="shared" si="49"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="P67" s="69">
         <f t="shared" si="49"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="W67">
         <f t="shared" si="28"/>
@@ -19710,7 +19676,7 @@
       <c r="F68" s="74"/>
       <c r="G68" s="75">
         <f>IF($Q$71 = "Choosing Supplier 1", H67, H67)</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H68" s="75">
         <f t="shared" ref="H68:P68" si="50">IF($Q$71 = "Choosing Supplier 1", I67, I67)</f>
@@ -19722,7 +19688,7 @@
       </c>
       <c r="J68" s="75">
         <f t="shared" si="50"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K68" s="75">
         <f t="shared" si="50"/>
@@ -19730,19 +19696,19 @@
       </c>
       <c r="L68" s="75">
         <f t="shared" si="50"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="M68" s="75">
         <f t="shared" si="50"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N68" s="75">
         <f t="shared" si="50"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="O68" s="75">
         <f t="shared" si="50"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P68" s="76">
         <f t="shared" si="50"/>
@@ -19889,7 +19855,7 @@
       <c r="F70" s="153"/>
       <c r="G70" s="83">
         <f>QUOTIENT(G68+$F$51-1,$F$50)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" s="83">
         <f t="shared" ref="H70:P70" si="52">QUOTIENT(H68+$F$51-1,$F$50)</f>
@@ -19901,7 +19867,7 @@
       </c>
       <c r="J70" s="83">
         <f t="shared" si="52"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K70" s="83">
         <f t="shared" si="52"/>
@@ -19909,19 +19875,19 @@
       </c>
       <c r="L70" s="83">
         <f t="shared" si="52"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M70" s="83">
         <f t="shared" si="52"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N70" s="83">
         <f t="shared" si="52"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O70" s="83">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P70" s="84">
         <f t="shared" si="52"/>
@@ -19978,7 +19944,7 @@
       <c r="F71" s="86"/>
       <c r="G71" s="87">
         <f>IF($Q$71="Choosing Supplier 1", G70*$G$50+G69*$G$51,G70*$G$52+G69*$G$53)</f>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H71" s="87">
         <f t="shared" ref="H71:P71" si="53">IF($Q$71="Choosing Supplier 1", H70*$G$50+H69*$G$51,H70*$G$52+H69*$G$53)</f>
@@ -19990,7 +19956,7 @@
       </c>
       <c r="J71" s="87">
         <f t="shared" si="53"/>
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K71" s="87">
         <f t="shared" si="53"/>
@@ -19998,19 +19964,19 @@
       </c>
       <c r="L71" s="87">
         <f t="shared" si="53"/>
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="M71" s="87">
         <f t="shared" si="53"/>
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="N71" s="87">
         <f t="shared" si="53"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="O71" s="87">
         <f t="shared" si="53"/>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="P71" s="88">
         <f t="shared" si="53"/>
@@ -20166,7 +20132,7 @@
       <c r="F73" s="94"/>
       <c r="G73" s="95">
         <f t="shared" ref="G73:P73" si="54">G72*G68</f>
-        <v>8400</v>
+        <v>4200</v>
       </c>
       <c r="H73" s="95">
         <f t="shared" si="54"/>
@@ -20178,7 +20144,7 @@
       </c>
       <c r="J73" s="95">
         <f t="shared" si="54"/>
-        <v>12900</v>
+        <v>17200</v>
       </c>
       <c r="K73" s="95">
         <f t="shared" si="54"/>
@@ -20186,19 +20152,19 @@
       </c>
       <c r="L73" s="95">
         <f t="shared" si="54"/>
-        <v>21600</v>
+        <v>12960</v>
       </c>
       <c r="M73" s="95">
         <f t="shared" si="54"/>
-        <v>21400</v>
+        <v>12840</v>
       </c>
       <c r="N73" s="95">
         <f t="shared" si="54"/>
-        <v>8480</v>
+        <v>12720</v>
       </c>
       <c r="O73" s="95">
         <f t="shared" si="54"/>
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="P73" s="134">
         <f t="shared" si="54"/>
@@ -20258,7 +20224,7 @@
       <c r="F74" s="99"/>
       <c r="G74" s="100">
         <f t="shared" ref="G74:P74" si="55">G71+G73</f>
-        <v>9400</v>
+        <v>4700</v>
       </c>
       <c r="H74" s="100">
         <f t="shared" si="55"/>
@@ -20270,7 +20236,7 @@
       </c>
       <c r="J74" s="100">
         <f t="shared" si="55"/>
-        <v>14400</v>
+        <v>19200</v>
       </c>
       <c r="K74" s="100">
         <f t="shared" si="55"/>
@@ -20278,19 +20244,19 @@
       </c>
       <c r="L74" s="100">
         <f t="shared" si="55"/>
-        <v>24100</v>
+        <v>14460</v>
       </c>
       <c r="M74" s="100">
         <f t="shared" si="55"/>
-        <v>23900</v>
+        <v>14340</v>
       </c>
       <c r="N74" s="100">
         <f t="shared" si="55"/>
-        <v>9480</v>
+        <v>14220</v>
       </c>
       <c r="O74" s="100">
         <f t="shared" si="55"/>
-        <v>4700</v>
+        <v>0</v>
       </c>
       <c r="P74" s="101">
         <f t="shared" si="55"/>
@@ -20439,7 +20405,7 @@
       <c r="F76" s="103"/>
       <c r="G76" s="104">
         <f>G75*G68</f>
-        <v>16440</v>
+        <v>8220</v>
       </c>
       <c r="H76" s="104">
         <f t="shared" ref="H76:P76" si="56">H75*H68</f>
@@ -20451,7 +20417,7 @@
       </c>
       <c r="J76" s="104">
         <f t="shared" si="56"/>
-        <v>24780</v>
+        <v>33040</v>
       </c>
       <c r="K76" s="104">
         <f t="shared" si="56"/>
@@ -20459,19 +20425,19 @@
       </c>
       <c r="L76" s="104">
         <f t="shared" si="56"/>
-        <v>42800</v>
+        <v>25680</v>
       </c>
       <c r="M76" s="104">
         <f t="shared" si="56"/>
-        <v>42600</v>
+        <v>25560</v>
       </c>
       <c r="N76" s="104">
         <f t="shared" si="56"/>
-        <v>16760</v>
+        <v>25140</v>
       </c>
       <c r="O76" s="104">
         <f t="shared" si="56"/>
-        <v>8300</v>
+        <v>0</v>
       </c>
       <c r="P76" s="105">
         <f t="shared" si="56"/>
@@ -20531,7 +20497,7 @@
       <c r="F77" s="107"/>
       <c r="G77" s="108">
         <f>G76-G74</f>
-        <v>7040</v>
+        <v>3520</v>
       </c>
       <c r="H77" s="108">
         <f t="shared" ref="H77:P77" si="57">H76-H74</f>
@@ -20543,7 +20509,7 @@
       </c>
       <c r="J77" s="108">
         <f t="shared" si="57"/>
-        <v>10380</v>
+        <v>13840</v>
       </c>
       <c r="K77" s="108">
         <f t="shared" si="57"/>
@@ -20551,19 +20517,19 @@
       </c>
       <c r="L77" s="108">
         <f t="shared" si="57"/>
-        <v>18700</v>
+        <v>11220</v>
       </c>
       <c r="M77" s="108">
         <f t="shared" si="57"/>
-        <v>18700</v>
+        <v>11220</v>
       </c>
       <c r="N77" s="108">
         <f t="shared" si="57"/>
-        <v>7280</v>
+        <v>10920</v>
       </c>
       <c r="O77" s="108">
         <f t="shared" si="57"/>
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="P77" s="109">
         <f t="shared" si="57"/>
@@ -20623,7 +20589,7 @@
       <c r="F78" s="215"/>
       <c r="G78" s="216">
         <f t="shared" ref="G78:H78" si="58">IF($Q$71 = "Choosing Supplier 1", SUM(H59:H60), SUM(H59:H60))</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H78" s="216">
         <f t="shared" si="58"/>
@@ -20639,15 +20605,15 @@
       </c>
       <c r="K78" s="216">
         <f t="shared" si="59"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L78" s="216">
         <f t="shared" si="59"/>
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="M78" s="216">
         <f t="shared" si="59"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N78" s="216">
         <f t="shared" si="59"/>
@@ -20727,7 +20693,7 @@
       </c>
       <c r="J79" s="79">
         <f t="shared" si="60"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K79" s="79">
         <f t="shared" si="60"/>
@@ -20739,7 +20705,7 @@
       </c>
       <c r="M79" s="79">
         <f t="shared" si="60"/>
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N79" s="79">
         <f t="shared" si="60"/>
@@ -20817,7 +20783,7 @@
       </c>
       <c r="J80" s="299">
         <f t="shared" si="61"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K80" s="299">
         <f t="shared" si="61"/>
@@ -20829,7 +20795,7 @@
       </c>
       <c r="M80" s="299">
         <f t="shared" si="61"/>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N80" s="299">
         <f t="shared" si="61"/>
@@ -20870,7 +20836,7 @@
       </c>
       <c r="J81" s="263">
         <f t="shared" si="62"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K81" s="263">
         <f t="shared" si="62"/>
@@ -20882,7 +20848,7 @@
       </c>
       <c r="M81" s="263">
         <f t="shared" si="62"/>
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="N81" s="263">
         <f t="shared" si="62"/>
@@ -20941,7 +20907,7 @@
       </c>
       <c r="M82" s="83">
         <f t="shared" si="64"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N82" s="83">
         <f t="shared" si="64"/>
@@ -21024,7 +20990,7 @@
       </c>
       <c r="J83" s="83">
         <f t="shared" si="65"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" s="83">
         <f>IF($Q$71="Choosing Supplier 1", QUOTIENT(K81+$F$51-1,$F$50),QUOTIENT(K81+$F$53-1,$F$52))</f>
@@ -21036,7 +21002,7 @@
       </c>
       <c r="M83" s="83">
         <f t="shared" si="66"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N83" s="83">
         <f t="shared" si="66"/>
@@ -21116,7 +21082,7 @@
       </c>
       <c r="J84" s="130">
         <f t="shared" si="67"/>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K84" s="130">
         <f>IF($Q$71="Choosing Supplier 1", K83*$G$50+K82*$G$51, K83*$G$52+K82*$G$53)</f>
@@ -21128,7 +21094,7 @@
       </c>
       <c r="M84" s="130">
         <f t="shared" si="68"/>
-        <v>1280</v>
+        <v>500</v>
       </c>
       <c r="N84" s="130">
         <f t="shared" si="68"/>
@@ -21211,7 +21177,7 @@
       </c>
       <c r="J85" s="138">
         <f t="shared" si="69"/>
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="K85" s="138">
         <f>K81*K72</f>
@@ -21223,7 +21189,7 @@
       </c>
       <c r="M85" s="138">
         <f t="shared" si="70"/>
-        <v>9630</v>
+        <v>3210</v>
       </c>
       <c r="N85" s="138">
         <f t="shared" si="70"/>
@@ -21304,7 +21270,7 @@
       </c>
       <c r="J86" s="108">
         <f t="shared" si="71"/>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="K86" s="108">
         <f t="shared" si="71"/>
@@ -21316,7 +21282,7 @@
       </c>
       <c r="M86" s="108">
         <f t="shared" si="71"/>
-        <v>10910</v>
+        <v>3710</v>
       </c>
       <c r="N86" s="108">
         <f t="shared" si="71"/>
@@ -21354,7 +21320,7 @@
       </c>
       <c r="J87" s="138">
         <f t="shared" si="72"/>
-        <v>8260</v>
+        <v>0</v>
       </c>
       <c r="K87" s="138">
         <f>K81*K75</f>
@@ -21366,7 +21332,7 @@
       </c>
       <c r="M87" s="138">
         <f t="shared" si="73"/>
-        <v>19170</v>
+        <v>6390</v>
       </c>
       <c r="N87" s="138">
         <f t="shared" si="73"/>
@@ -21404,7 +21370,7 @@
       </c>
       <c r="J88" s="141">
         <f t="shared" si="74"/>
-        <v>3460</v>
+        <v>0</v>
       </c>
       <c r="K88" s="141">
         <f t="shared" si="74"/>
@@ -21416,7 +21382,7 @@
       </c>
       <c r="M88" s="141">
         <f t="shared" si="74"/>
-        <v>8260</v>
+        <v>2680</v>
       </c>
       <c r="N88" s="141">
         <f t="shared" si="74"/>
@@ -21445,7 +21411,7 @@
       <c r="F89" s="145"/>
       <c r="G89" s="146">
         <f>G77-G88</f>
-        <v>7040</v>
+        <v>3520</v>
       </c>
       <c r="H89" s="146">
         <f>H77-H88</f>
@@ -21457,7 +21423,7 @@
       </c>
       <c r="J89" s="146">
         <f t="shared" si="75"/>
-        <v>6920</v>
+        <v>13840</v>
       </c>
       <c r="K89" s="146">
         <f t="shared" si="75"/>
@@ -21465,19 +21431,19 @@
       </c>
       <c r="L89" s="146">
         <f t="shared" si="75"/>
-        <v>18700</v>
+        <v>11220</v>
       </c>
       <c r="M89" s="146">
         <f t="shared" si="75"/>
-        <v>10440</v>
+        <v>8540</v>
       </c>
       <c r="N89" s="146">
         <f t="shared" si="75"/>
-        <v>7280</v>
+        <v>10920</v>
       </c>
       <c r="O89" s="146">
         <f t="shared" si="75"/>
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="P89" s="147">
         <f t="shared" si="75"/>
@@ -21507,15 +21473,15 @@
       </c>
       <c r="J90" s="150">
         <f t="shared" si="76"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="K90" s="150">
         <f t="shared" si="76"/>
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="L90" s="150">
         <f t="shared" si="76"/>
-        <v>0.6</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M90" s="150">
         <f t="shared" si="76"/>
@@ -21525,9 +21491,9 @@
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="O90" s="150">
+      <c r="O90" s="150" t="e">
         <f t="shared" si="76"/>
-        <v>0.5</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P90" s="150" t="e">
         <f t="shared" si="76"/>
@@ -21554,7 +21520,7 @@
       </c>
       <c r="J91" s="150">
         <f t="shared" si="77"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="K91" s="150">
         <f t="shared" si="77"/>
@@ -21566,15 +21532,15 @@
       </c>
       <c r="M91" s="150">
         <f t="shared" si="77"/>
-        <v>0.45648535564853554</v>
+        <v>0.25871687587168757</v>
       </c>
       <c r="N91" s="150">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="O91" s="150">
+      <c r="O91" s="150" t="e">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P91" s="150" t="e">
         <f t="shared" si="77"/>
@@ -21601,7 +21567,7 @@
       </c>
       <c r="J92" s="150">
         <f t="shared" si="78"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="K92" s="150">
         <f t="shared" si="78"/>
@@ -21613,15 +21579,15 @@
       </c>
       <c r="M92" s="150">
         <f t="shared" si="78"/>
-        <v>0.44171122994652406</v>
+        <v>0.23885918003565063</v>
       </c>
       <c r="N92" s="150">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="O92" s="150">
+      <c r="O92" s="150" t="e">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P92" s="150" t="e">
         <f t="shared" si="78"/>
@@ -21841,7 +21807,7 @@
       </c>
       <c r="L105" s="65">
         <f>'DC3'!H13</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M105" s="65">
         <f>'DC3'!I13</f>
@@ -22025,7 +21991,7 @@
       </c>
       <c r="L109" s="207">
         <f t="shared" si="79"/>
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="M109" s="207">
         <f t="shared" si="79"/>
@@ -22145,7 +22111,7 @@
       </c>
       <c r="L112" s="68">
         <f t="shared" si="81"/>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="M112" s="68">
         <f t="shared" si="81"/>
@@ -22194,7 +22160,7 @@
       </c>
       <c r="L113" s="175">
         <f t="shared" si="82"/>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="M113" s="175">
         <f t="shared" si="82"/>
@@ -22240,7 +22206,7 @@
       </c>
       <c r="L114" s="75">
         <f t="shared" si="83"/>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="M114" s="75">
         <f t="shared" si="83"/>
@@ -22333,7 +22299,7 @@
       </c>
       <c r="L116" s="83">
         <f t="shared" si="85"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M116" s="83">
         <f t="shared" si="85"/>
@@ -22379,7 +22345,7 @@
       </c>
       <c r="L117" s="87">
         <f t="shared" si="86"/>
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="M117" s="87">
         <f t="shared" si="86"/>
@@ -22481,7 +22447,7 @@
       </c>
       <c r="L119" s="95">
         <f t="shared" si="87"/>
-        <v>3240</v>
+        <v>12960</v>
       </c>
       <c r="M119" s="95">
         <f t="shared" si="87"/>
@@ -22530,7 +22496,7 @@
       </c>
       <c r="L120" s="100">
         <f t="shared" si="88"/>
-        <v>3440</v>
+        <v>13560</v>
       </c>
       <c r="M120" s="100">
         <f t="shared" si="88"/>
@@ -22625,7 +22591,7 @@
       </c>
       <c r="L122" s="104">
         <f t="shared" si="89"/>
-        <v>6450</v>
+        <v>25800</v>
       </c>
       <c r="M122" s="104">
         <f t="shared" si="89"/>
@@ -22674,7 +22640,7 @@
       </c>
       <c r="L123" s="108">
         <f t="shared" si="90"/>
-        <v>3010</v>
+        <v>12240</v>
       </c>
       <c r="M123" s="108">
         <f t="shared" si="90"/>
@@ -22737,7 +22703,7 @@
       </c>
       <c r="L124" s="216">
         <f t="shared" si="91"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M124" s="216">
         <f t="shared" si="91"/>
@@ -22792,7 +22758,7 @@
       </c>
       <c r="J125" s="79">
         <f t="shared" si="92"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K125" s="79">
         <f t="shared" si="92"/>
@@ -22804,7 +22770,7 @@
       </c>
       <c r="M125" s="79">
         <f t="shared" si="92"/>
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N125" s="79">
         <f t="shared" si="92"/>
@@ -22853,7 +22819,7 @@
       </c>
       <c r="J126" s="299">
         <f t="shared" si="93"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K126" s="299">
         <f t="shared" si="93"/>
@@ -22865,7 +22831,7 @@
       </c>
       <c r="M126" s="299">
         <f t="shared" si="93"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N126" s="299">
         <f t="shared" si="93"/>
@@ -22914,7 +22880,7 @@
       </c>
       <c r="J127" s="263">
         <f t="shared" si="94"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K127" s="263">
         <f t="shared" si="94"/>
@@ -22926,7 +22892,7 @@
       </c>
       <c r="M127" s="263">
         <f t="shared" si="94"/>
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N127" s="263">
         <f t="shared" si="94"/>
@@ -22995,7 +22961,7 @@
       </c>
       <c r="M128" s="83">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N128" s="83">
         <f t="shared" si="96"/>
@@ -23049,7 +23015,7 @@
       </c>
       <c r="J129" s="83">
         <f t="shared" si="97"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K129" s="83">
         <f>IF(Q117="Choosing Supplier 1", QUOTIENT(K127+$F$97-1,$F$96), QUOTIENT(K127+$F$99-1,$F$98))</f>
@@ -23061,7 +23027,7 @@
       </c>
       <c r="M129" s="83">
         <f t="shared" si="98"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N129" s="83">
         <f t="shared" si="98"/>
@@ -23112,7 +23078,7 @@
       </c>
       <c r="J130" s="130">
         <f t="shared" si="99"/>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K130" s="130">
         <f t="shared" si="99"/>
@@ -23124,7 +23090,7 @@
       </c>
       <c r="M130" s="130">
         <f t="shared" ref="M130" si="100">IF($Q$117="Choosing Supplier 1", M129*$G$96+M128*$G$97, M129*$G$98+M128*$G$99)</f>
-        <v>600</v>
+        <v>320</v>
       </c>
       <c r="N130" s="130">
         <f t="shared" ref="N130" si="101">IF($Q$117="Choosing Supplier 1", N129*$G$96+N128*$G$97, N129*$G$98+N128*$G$99)</f>
@@ -23178,7 +23144,7 @@
       </c>
       <c r="J131" s="138">
         <f t="shared" si="104"/>
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="K131" s="138">
         <f>K127*K118</f>
@@ -23190,7 +23156,7 @@
       </c>
       <c r="M131" s="138">
         <f t="shared" si="105"/>
-        <v>11770</v>
+        <v>5350</v>
       </c>
       <c r="N131" s="138">
         <f t="shared" si="105"/>
@@ -23242,7 +23208,7 @@
       </c>
       <c r="J132" s="108">
         <f t="shared" si="106"/>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="K132" s="108">
         <f t="shared" si="106"/>
@@ -23254,7 +23220,7 @@
       </c>
       <c r="M132" s="108">
         <f t="shared" si="106"/>
-        <v>12370</v>
+        <v>5670</v>
       </c>
       <c r="N132" s="108">
         <f t="shared" si="106"/>
@@ -23305,7 +23271,7 @@
       </c>
       <c r="J133" s="138">
         <f t="shared" si="107"/>
-        <v>8300</v>
+        <v>0</v>
       </c>
       <c r="K133" s="138">
         <f>K127*K121</f>
@@ -23317,7 +23283,7 @@
       </c>
       <c r="M133" s="138">
         <f t="shared" si="108"/>
-        <v>23265</v>
+        <v>10575</v>
       </c>
       <c r="N133" s="138">
         <f t="shared" si="108"/>
@@ -23354,7 +23320,7 @@
       </c>
       <c r="J134" s="141">
         <f t="shared" si="109"/>
-        <v>3800</v>
+        <v>0</v>
       </c>
       <c r="K134" s="141">
         <f t="shared" si="109"/>
@@ -23366,7 +23332,7 @@
       </c>
       <c r="M134" s="141">
         <f t="shared" si="109"/>
-        <v>10895</v>
+        <v>4905</v>
       </c>
       <c r="N134" s="141">
         <f t="shared" si="109"/>
@@ -23406,7 +23372,7 @@
       </c>
       <c r="J135" s="146">
         <f t="shared" si="110"/>
-        <v>7600</v>
+        <v>11400</v>
       </c>
       <c r="K135" s="146">
         <f t="shared" si="110"/>
@@ -23414,11 +23380,11 @@
       </c>
       <c r="L135" s="146">
         <f t="shared" si="110"/>
-        <v>3010</v>
+        <v>12240</v>
       </c>
       <c r="M135" s="146">
         <f t="shared" si="110"/>
-        <v>15920</v>
+        <v>21910</v>
       </c>
       <c r="N135" s="146">
         <f t="shared" si="110"/>
@@ -23464,7 +23430,7 @@
       </c>
       <c r="L136" s="150">
         <f t="shared" si="111"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="M136" s="150">
         <f t="shared" si="111"/>
@@ -23503,7 +23469,7 @@
       </c>
       <c r="J137" s="150">
         <f t="shared" si="112"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="K137" s="150">
         <f t="shared" si="112"/>
@@ -23515,7 +23481,7 @@
       </c>
       <c r="M137" s="150">
         <f t="shared" si="112"/>
-        <v>0.40838560581049854</v>
+        <v>0.18719049191152196</v>
       </c>
       <c r="N137" s="150">
         <f t="shared" si="112"/>
@@ -23550,7 +23516,7 @@
       </c>
       <c r="J138" s="150">
         <f t="shared" si="113"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="K138" s="150">
         <f t="shared" si="113"/>
@@ -23562,7 +23528,7 @@
       </c>
       <c r="M138" s="150">
         <f t="shared" si="113"/>
-        <v>0.40630244266268878</v>
+        <v>0.18292000745851203</v>
       </c>
       <c r="N138" s="150">
         <f t="shared" si="113"/>
@@ -23634,7 +23600,7 @@
       </c>
       <c r="F144" s="6">
         <f>Supplier1!C7</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
         <v>35</v>
@@ -23667,7 +23633,7 @@
       </c>
       <c r="F146" s="7">
         <f>Supplier1!C4</f>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="O146" s="301"/>
       <c r="P146" s="301"/>
@@ -23732,23 +23698,23 @@
       </c>
       <c r="H149" s="282">
         <f t="shared" ref="H149:P149" si="114">IF($Q$26 = "Choosing Supplier 1", IF($F$147="Yes", H23,0),0)</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I149" s="282">
         <f t="shared" si="114"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J149" s="282">
         <f t="shared" si="114"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K149" s="282">
         <f t="shared" si="114"/>
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="L149" s="282">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M149" s="282">
         <f t="shared" si="114"/>
@@ -23774,7 +23740,7 @@
       <c r="F150" s="271"/>
       <c r="G150" s="272">
         <f>IF($Q$71 = "Choosing Supplier 1", IF($F$147="Yes", G68,0),0)</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H150" s="272">
         <f t="shared" ref="H150:P150" si="115">IF($Q$71 = "Choosing Supplier 1", IF($F$147="Yes", H68,0),0)</f>
@@ -23786,7 +23752,7 @@
       </c>
       <c r="J150" s="272">
         <f t="shared" si="115"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K150" s="272">
         <f t="shared" si="115"/>
@@ -23794,19 +23760,19 @@
       </c>
       <c r="L150" s="272">
         <f t="shared" si="115"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="M150" s="272">
         <f t="shared" si="115"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N150" s="272">
         <f t="shared" si="115"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="O150" s="272">
         <f t="shared" si="115"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P150" s="273">
         <f t="shared" si="115"/>
@@ -23840,7 +23806,7 @@
       </c>
       <c r="L151" s="275">
         <f t="shared" si="116"/>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="M151" s="275">
         <f t="shared" si="116"/>
@@ -23866,39 +23832,39 @@
       <c r="F152" s="186"/>
       <c r="G152" s="287">
         <f>SUM(G149:G151)</f>
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="H152" s="287">
         <f t="shared" ref="H152:P152" si="117">SUM(H149:H151)</f>
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="I152" s="287">
         <f t="shared" si="117"/>
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="J152" s="287">
         <f t="shared" si="117"/>
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="K152" s="287">
         <f t="shared" si="117"/>
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="L152" s="287">
         <f t="shared" si="117"/>
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="M152" s="287">
         <f t="shared" si="117"/>
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="N152" s="287">
         <f t="shared" si="117"/>
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="O152" s="287">
         <f t="shared" si="117"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="P152" s="288">
         <f t="shared" si="117"/>
@@ -23931,7 +23897,7 @@
       </c>
       <c r="G154" s="68">
         <f t="shared" ref="G154:P154" si="118">F154+G156-G152</f>
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="H154" s="68">
         <f t="shared" si="118"/>
@@ -23939,35 +23905,35 @@
       </c>
       <c r="I154" s="68">
         <f t="shared" si="118"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J154" s="68">
         <f t="shared" si="118"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K154" s="68">
         <f t="shared" si="118"/>
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L154" s="68">
         <f t="shared" si="118"/>
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="M154" s="68">
         <f t="shared" si="118"/>
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="N154" s="68">
         <f t="shared" si="118"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="O154" s="68">
         <f t="shared" si="118"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="P154" s="69">
         <f t="shared" si="118"/>
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="155" spans="5:17" x14ac:dyDescent="0.3">
@@ -23977,7 +23943,7 @@
       <c r="F155" s="71"/>
       <c r="G155" s="68">
         <f t="shared" ref="G155:P155" si="119">IF(F154-G152&lt;=$F$145, G152-F154+$F$145,0)</f>
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="H155" s="68">
         <f t="shared" si="119"/>
@@ -23985,35 +23951,35 @@
       </c>
       <c r="I155" s="68">
         <f t="shared" si="119"/>
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="J155" s="68">
         <f t="shared" si="119"/>
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="K155" s="68">
         <f t="shared" si="119"/>
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="L155" s="68">
         <f t="shared" si="119"/>
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="M155" s="68">
         <f t="shared" si="119"/>
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="N155" s="68">
         <f t="shared" si="119"/>
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="O155" s="68">
         <f t="shared" si="119"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="P155" s="69">
         <f t="shared" si="119"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="5:17" x14ac:dyDescent="0.3">
@@ -24023,7 +23989,7 @@
       <c r="F156" s="71"/>
       <c r="G156" s="68">
         <f xml:space="preserve"> CEILING(G155/$F$144,1)*$F$144</f>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H156" s="68">
         <f t="shared" ref="H156:P156" si="120" xml:space="preserve"> CEILING(H155/$F$144,1)*$F$144</f>
@@ -24031,35 +23997,35 @@
       </c>
       <c r="I156" s="68">
         <f t="shared" si="120"/>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="J156" s="68">
         <f t="shared" si="120"/>
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="K156" s="68">
         <f t="shared" si="120"/>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="L156" s="68">
         <f t="shared" si="120"/>
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="M156" s="68">
         <f t="shared" si="120"/>
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N156" s="68">
         <f t="shared" si="120"/>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="O156" s="68">
         <f t="shared" si="120"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="P156" s="69">
         <f t="shared" si="120"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="157" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -24073,35 +24039,35 @@
       </c>
       <c r="H157" s="195">
         <f>I156</f>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="I157" s="195">
         <f t="shared" ref="I157:P157" si="121">J156</f>
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="J157" s="195">
         <f t="shared" si="121"/>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K157" s="195">
         <f t="shared" si="121"/>
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="L157" s="195">
         <f t="shared" si="121"/>
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="M157" s="195">
         <f t="shared" si="121"/>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N157" s="195">
         <f t="shared" si="121"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="O157" s="195">
         <f t="shared" si="121"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P157" s="196">
         <f t="shared" si="121"/>
@@ -24128,7 +24094,7 @@
       </c>
       <c r="J158" s="199">
         <f t="shared" si="122"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K158" s="199">
         <f>IF(K155&gt;$F$146,K155-$F$146,0)</f>
@@ -24140,7 +24106,7 @@
       </c>
       <c r="M158" s="199">
         <f t="shared" si="122"/>
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N158" s="199">
         <f t="shared" si="122"/>
@@ -24175,7 +24141,7 @@
       </c>
       <c r="J159" s="199">
         <f t="shared" si="122"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K159" s="199">
         <f t="shared" si="122"/>
@@ -24187,7 +24153,7 @@
       </c>
       <c r="M159" s="199">
         <f t="shared" si="122"/>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N159" s="199">
         <f t="shared" si="122"/>
@@ -24275,7 +24241,7 @@
       </c>
       <c r="F167" s="7">
         <f>Supplier2!C4</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="O167" s="301"/>
       <c r="P167" s="301"/>
@@ -24920,7 +24886,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DRP/demand_data_2suppliers.xlsx
+++ b/DRP/demand_data_2suppliers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ghub_acceval\smarttradzt-python-services\DRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2165EC-4994-48BB-BF91-FB12C54B6749}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AAD898-3B8E-4A62-8DA4-9008849208D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="723" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>User:</t>
         </r>
@@ -54,7 +54,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Lead Time Dependent</t>
@@ -69,7 +69,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>User:</t>
         </r>
@@ -78,7 +78,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Lead Time Dependent</t>
@@ -93,7 +93,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>User:</t>
         </r>
@@ -102,7 +102,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 To get same value as code, need to reduce the quantity according to code because it's accumulative. See 'Spot demand to reduce'</t>
@@ -117,7 +117,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>User:</t>
         </r>
@@ -126,7 +126,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Lead Time Dependent</t>
@@ -141,7 +141,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>User:</t>
         </r>
@@ -150,7 +150,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Lead Time Dependent</t>
@@ -165,7 +165,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>User:</t>
         </r>
@@ -174,7 +174,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 To get same value as code, need to reduce the quantity according to code because it's accumulative. See "Spot Demnad to reduce"</t>
@@ -189,7 +189,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>User:</t>
         </r>
@@ -198,7 +198,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Lead Time Dependent</t>
@@ -213,7 +213,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>User:</t>
         </r>
@@ -222,7 +222,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Lead Time Dependent</t>
@@ -843,7 +843,7 @@
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="165" formatCode="&quot;RM&quot;#,##0"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1007,19 +1007,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -5493,7 +5480,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6809,7 +6796,7 @@
   <dimension ref="B2:M16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6972,7 +6959,7 @@
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{420AEBB4-38D7-4AD5-803F-51F8D694A08D}">
           <x14:formula1>
             <xm:f>Selection!$A$1:$A$2</xm:f>
@@ -7177,8 +7164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FA5A7D-6F36-435C-8D73-4555D570FBF4}">
   <dimension ref="A2:AK189"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M184" sqref="M184"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15914,8 +15901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B409AB02-E9CA-40CB-B386-70D450CE0A6B}">
   <dimension ref="A2:AK192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J165" sqref="J165"/>
+    <sheetView tabSelected="1" topLeftCell="D130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J145" sqref="J145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
